--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wteh/Documents/GitHub_Issues/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhaider/hca/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C30C3D0-8F58-2A43-9023-2E9338C3A6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9DC217-D4DC-9E42-891F-1C450E2F0AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24000" yWindow="3420" windowWidth="24600" windowHeight="22840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-2280" windowWidth="51200" windowHeight="28800" firstSheet="16" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -42,14 +42,13 @@
     <sheet name="Imaging protocol - Channel" sheetId="25" r:id="rId27"/>
     <sheet name="Imaging protocol - Probe" sheetId="26" r:id="rId28"/>
     <sheet name="Familial relationship" sheetId="27" r:id="rId29"/>
-    <sheet name="Schemas" sheetId="28" r:id="rId30"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="1490">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4339,87 +4338,6 @@
   </si>
   <si>
     <t>donor_organism.familial_relationships.sibling</t>
-  </si>
-  <si>
-    <t>Schemas</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/protocol/sequencing/10.1.0/sequencing_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/protocol/sequencing/6.2.0/library_preparation_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/protocol/imaging/11.2.0/imaging_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/protocol/imaging/2.2.0/imaging_preparation_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/protocol/biomaterial_collection/3.2.0/ipsc_induction_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/protocol/biomaterial_collection/3.1.0/enrichment_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/protocol/biomaterial_collection/6.2.0/dissociation_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/protocol/biomaterial_collection/2.2.0/differentiation_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/protocol/biomaterial_collection/9.2.0/collection_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/protocol/biomaterial_collection/2.1.0/aggregate_generation_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/protocol/analysis/9.1.0/analysis_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/protocol/7.1.0/protocol</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/project/14.1.0/project</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/process/analysis/11.1.0/analysis_process</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/process/9.2.0/process</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/file/2.2.0/supplementary_file</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/file/9.2.0/sequence_file</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/file/3.2.0/reference_file</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/file/2.2.0/image_file</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/file/6.2.0/analysis_file</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/biomaterial/10.4.0/specimen_from_organism</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/biomaterial/11.3.0/organoid</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/biomaterial/3.3.0/imaged_specimen</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/biomaterial/15.5.0/donor_organism</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/biomaterial/13.3.0/cell_suspension</t>
-  </si>
-  <si>
-    <t>https://schema.staging.data.humancellatlas.org/type/biomaterial/14.5.0/cell_line</t>
   </si>
   <si>
     <t>EGA Study/Dataset Accession(s)</t>
@@ -4606,7 +4524,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4629,13 +4547,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4668,14 +4579,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4684,18 +4591,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5076,11 +4981,11 @@
       <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>1457</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1458</v>
+      <c r="J1" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1431</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>579</v>
@@ -5115,13 +5020,13 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1459</v>
+        <v>1432</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1460</v>
+        <v>1433</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1511</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="119" x14ac:dyDescent="0.2">
@@ -5153,13 +5058,13 @@
         <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1461</v>
+        <v>1434</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1462</v>
+        <v>1435</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1512</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -5191,13 +5096,13 @@
         <v>36</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1463</v>
+        <v>1436</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1464</v>
+        <v>1437</v>
       </c>
       <c r="L4" t="s">
-        <v>1510</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10601,88 +10506,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>1488</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>1490</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1491</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>1492</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="R1" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>1493</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>1494</v>
-      </c>
-      <c r="Y1" s="5" t="s">
+      <c r="W1" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>1495</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>369</v>
       </c>
     </row>
@@ -10694,7 +10599,7 @@
         <v>816</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1496</v>
+        <v>1469</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -10706,10 +10611,10 @@
         <v>829</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1504</v>
+        <v>1477</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1506</v>
+        <v>1479</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>492</v>
@@ -10790,10 +10695,10 @@
         <v>830</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1505</v>
+        <v>1478</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1507</v>
+        <v>1480</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>493</v>
@@ -10844,36 +10749,36 @@
     </row>
     <row r="4" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1497</v>
+        <v>1470</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1499</v>
+        <v>1471</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1500</v>
+        <v>1473</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1501</v>
+        <v>1474</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1502</v>
+        <v>1475</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1508</v>
+        <v>1481</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1503</v>
+        <v>1476</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1478</v>
-      </c>
-      <c r="J4" s="6" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>864</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -10929,11 +10834,11 @@
       </c>
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -10941,7 +10846,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -10961,396 +10866,396 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
     </row>
     <row r="19" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
     </row>
     <row r="20" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="24" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
     </row>
     <row r="27" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
     </row>
     <row r="28" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
     </row>
     <row r="29" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
     </row>
     <row r="30" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
     </row>
     <row r="31" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
     </row>
     <row r="32" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
     </row>
     <row r="33" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
     </row>
     <row r="34" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
     </row>
     <row r="35" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
     </row>
     <row r="36" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
     </row>
     <row r="37" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
     </row>
     <row r="38" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
     </row>
     <row r="39" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
     </row>
     <row r="40" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
     </row>
     <row r="41" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
     </row>
     <row r="42" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
     </row>
     <row r="43" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
     </row>
     <row r="44" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
     </row>
     <row r="45" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
     </row>
     <row r="46" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
     </row>
     <row r="47" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
     </row>
     <row r="48" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
     </row>
     <row r="49" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
     </row>
     <row r="50" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
     </row>
     <row r="51" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
     </row>
     <row r="52" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
     </row>
     <row r="53" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
     </row>
     <row r="54" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
     </row>
     <row r="55" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
     </row>
     <row r="56" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
     </row>
     <row r="57" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
     </row>
     <row r="58" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
     </row>
     <row r="59" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
     </row>
     <row r="60" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
     </row>
     <row r="61" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
     </row>
     <row r="62" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
     </row>
     <row r="63" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
     </row>
     <row r="64" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
     </row>
     <row r="65" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
     </row>
     <row r="66" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
     </row>
     <row r="67" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
     </row>
     <row r="68" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
     </row>
     <row r="69" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
     </row>
     <row r="70" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
     </row>
     <row r="71" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
     </row>
     <row r="72" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
     </row>
     <row r="73" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
     </row>
     <row r="74" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
     </row>
     <row r="75" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
     </row>
     <row r="76" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
     </row>
     <row r="77" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
     </row>
     <row r="78" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
     </row>
     <row r="79" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
     </row>
     <row r="80" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
     </row>
     <row r="81" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
     </row>
     <row r="82" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
     </row>
     <row r="83" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
     </row>
     <row r="84" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
     </row>
     <row r="85" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
     </row>
     <row r="86" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
     </row>
     <row r="87" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
     </row>
     <row r="88" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
     </row>
     <row r="89" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
     </row>
     <row r="90" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
     </row>
     <row r="91" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
     </row>
     <row r="92" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
     </row>
     <row r="93" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
     </row>
     <row r="94" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
     </row>
     <row r="95" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
     </row>
     <row r="96" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
     </row>
     <row r="97" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
     </row>
     <row r="98" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
     </row>
     <row r="99" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
     </row>
     <row r="100" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q100" s="8"/>
-      <c r="R100" s="8"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
     </row>
     <row r="101" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
     </row>
     <row r="102" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
     </row>
     <row r="103" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11384,43 +11289,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>1468</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1469</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>1470</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1471</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>1472</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1473</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -11443,10 +11348,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>1474</v>
+        <v>1447</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1475</v>
+        <v>1448</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -11470,10 +11375,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>1476</v>
+        <v>1449</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1477</v>
+        <v>1450</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -11482,37 +11387,37 @@
     </row>
     <row r="4" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1478</v>
+        <v>1451</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1479</v>
+        <v>1452</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1480</v>
+        <v>1453</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1481</v>
+        <v>1454</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>1482</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>1483</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1484</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>1485</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>1486</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>1509</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>1487</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12045,7 +11950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12112,7 +12017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -12141,7 +12046,7 @@
         <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1513</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
@@ -12161,7 +12066,7 @@
         <v>101</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1514</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -12181,7 +12086,7 @@
         <v>102</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1515</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -12201,7 +12106,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1516</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12215,182 +12120,6 @@
       <c r="F5" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:A27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-1B00-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-1B00-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-1B00-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-1B00-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-1B00-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-1B00-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-1B00-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-1B00-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-1B00-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-1B00-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-1B00-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-1B00-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-1B00-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-1B00-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-1B00-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-1B00-000010000000}"/>
-    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-1B00-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-1B00-000012000000}"/>
-    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-1B00-000013000000}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-1B00-000014000000}"/>
-    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-1B00-000015000000}"/>
-    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-1B00-000016000000}"/>
-    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-1B00-000017000000}"/>
-    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-1B00-000018000000}"/>
-    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-1B00-000019000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10708"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idazucchi/Documents/script/geo_to_hca/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ami/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91259EA-BC20-1A4F-991D-397919FF6625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF87F0C7-D110-914A-B52E-99FF88FD33DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -26,30 +26,31 @@
     <sheet name="Supplementary file" sheetId="11" r:id="rId11"/>
     <sheet name="Sequence file" sheetId="12" r:id="rId12"/>
     <sheet name="Image file" sheetId="13" r:id="rId13"/>
-    <sheet name="Collection protocol" sheetId="14" r:id="rId14"/>
+    <sheet name="Collection protocol" sheetId="31" r:id="rId14"/>
     <sheet name="Dissociation protocol" sheetId="15" r:id="rId15"/>
-    <sheet name="Differentiation protocol" sheetId="16" r:id="rId16"/>
-    <sheet name="Enrichment protocol" sheetId="17" r:id="rId17"/>
-    <sheet name="Aggregate generation protocol" sheetId="18" r:id="rId18"/>
-    <sheet name="Ipsc induction protocol" sheetId="19" r:id="rId19"/>
-    <sheet name="Imaging preparation protocol" sheetId="20" r:id="rId20"/>
-    <sheet name="Imaging protocol" sheetId="21" r:id="rId21"/>
-    <sheet name="Library preparation protocol" sheetId="22" r:id="rId22"/>
-    <sheet name="Sequencing protocol" sheetId="23" r:id="rId23"/>
-    <sheet name="Analysis file" sheetId="30" r:id="rId24"/>
-    <sheet name="Analysis protocol" sheetId="29" r:id="rId25"/>
-    <sheet name="Additional reagents" sheetId="24" r:id="rId26"/>
-    <sheet name="Imaging protocol - Channel" sheetId="25" r:id="rId27"/>
-    <sheet name="Imaging protocol - Probe" sheetId="26" r:id="rId28"/>
-    <sheet name="Familial relationship" sheetId="27" r:id="rId29"/>
-    <sheet name="Schemas" sheetId="28" r:id="rId30"/>
+    <sheet name="Treatment protocol" sheetId="14" r:id="rId16"/>
+    <sheet name="Differentiation protocol" sheetId="16" r:id="rId17"/>
+    <sheet name="Enrichment protocol" sheetId="17" r:id="rId18"/>
+    <sheet name="Aggregate generation protocol" sheetId="18" r:id="rId19"/>
+    <sheet name="Ipsc induction protocol" sheetId="19" r:id="rId20"/>
+    <sheet name="Imaging preparation protocol" sheetId="20" r:id="rId21"/>
+    <sheet name="Imaging protocol" sheetId="21" r:id="rId22"/>
+    <sheet name="Library preparation protocol" sheetId="22" r:id="rId23"/>
+    <sheet name="Sequencing protocol" sheetId="23" r:id="rId24"/>
+    <sheet name="Analysis file" sheetId="30" r:id="rId25"/>
+    <sheet name="Analysis protocol" sheetId="29" r:id="rId26"/>
+    <sheet name="Additional reagents" sheetId="24" r:id="rId27"/>
+    <sheet name="Imaging protocol - Channel" sheetId="25" r:id="rId28"/>
+    <sheet name="Imaging protocol - Probe" sheetId="26" r:id="rId29"/>
+    <sheet name="Familial relationship" sheetId="27" r:id="rId30"/>
+    <sheet name="Schemas" sheetId="28" r:id="rId31"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="1561">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4633,13 +4634,112 @@
   </si>
   <si>
     <t xml:space="preserve"> For example: type 2 diabetes mellitus; normal; hepatic steatosis</t>
+  </si>
+  <si>
+    <t>TREATMENT PROTOCOL ID (Required)</t>
+  </si>
+  <si>
+    <t>treatment_protocol.protocol_core.protocol_id</t>
+  </si>
+  <si>
+    <t>TREATMENT PROTOCOL NAME</t>
+  </si>
+  <si>
+    <t>treatment_protocol.protocol_core.protocol_name</t>
+  </si>
+  <si>
+    <t>treatment_protocol.protocol_core.protocol_description</t>
+  </si>
+  <si>
+    <t>TREATMENT PROTOCOL DESCRIPTION</t>
+  </si>
+  <si>
+    <t>treatment_protocol.protocol_core.publication_doi</t>
+  </si>
+  <si>
+    <t>treatment_protocol.protocol_core.protocols_io_doi</t>
+  </si>
+  <si>
+    <t>treatment_protocol.protocol_core.document</t>
+  </si>
+  <si>
+    <t>treatment_protocol.method.text</t>
+  </si>
+  <si>
+    <t>treatment_protocol.reagents.retail_name</t>
+  </si>
+  <si>
+    <t>TREATMENT METHOD (Required)</t>
+  </si>
+  <si>
+    <t>TREATMENT METHOD ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>TREATMENT METHOD ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>treatment_protocol.method.ontology</t>
+  </si>
+  <si>
+    <t>treatment_protocol.method.ontology_label</t>
+  </si>
+  <si>
+    <t>treatment_protocol.reagents.catalog_number</t>
+  </si>
+  <si>
+    <t>treatment_protocol.reagents.manufacturer</t>
+  </si>
+  <si>
+    <t>treatment_protocol.reagents.lot_number</t>
+  </si>
+  <si>
+    <t>treatment_protocol.reagents.expiry_date</t>
+  </si>
+  <si>
+    <t>treatment_protocol.reagents.kit_titer</t>
+  </si>
+  <si>
+    <t>The name of the treatment target pathway.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: positive regulation of memory T cell differentiation</t>
+  </si>
+  <si>
+    <t>treatment_protocol.target_pathway.text</t>
+  </si>
+  <si>
+    <t>treatment_protocol.target_pathway.ontology</t>
+  </si>
+  <si>
+    <t>treatment_protocol.target_pathway.ontology_label</t>
+  </si>
+  <si>
+    <t>TARGET PATHWAY ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>TARGET PATHWAY ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>Culture media used to induce a specific treatment response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: RPMI 1640; Complete Medium</t>
+  </si>
+  <si>
+    <t>treatment_protocol.media</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: T cell activation assay</t>
+  </si>
+  <si>
+    <t>The name of a treatment method or approach being used.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4677,6 +4777,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4708,7 +4816,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4726,6 +4834,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5065,6 +5176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -5256,6 +5368,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:CC5"/>
   <sheetViews>
     <sheetView topLeftCell="AL1" workbookViewId="0">
@@ -6357,6 +6470,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6685,6 +6799,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7106,6 +7221,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7447,20 +7563,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1C53FB-963F-E646-836D-546B4DC8722B}">
+  <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1"/>
-    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="15" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="25.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="25.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7673,9 +7791,12 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7684,7 +7805,7 @@
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="4" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" customWidth="1"/>
     <col min="10" max="15" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7825,7 +7946,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>598</v>
       </c>
@@ -7897,32 +8018,39 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
     <col min="4" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" customWidth="1"/>
-    <col min="8" max="17" width="25.6640625" customWidth="1"/>
-    <col min="18" max="18" width="33.6640625" customWidth="1"/>
-    <col min="19" max="19" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" customWidth="1"/>
+    <col min="10" max="10" width="42.5" style="3" customWidth="1"/>
+    <col min="11" max="16" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="34.1640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="35.83203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="45.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>670</v>
+        <v>1528</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>925</v>
+        <v>1530</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>927</v>
+        <v>1533</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
@@ -7934,16 +8062,16 @@
         <v>885</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>932</v>
+        <v>1539</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>944</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>895</v>
@@ -7967,10 +8095,10 @@
         <v>954</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>958</v>
+        <v>1554</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>962</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="68" x14ac:dyDescent="0.2">
@@ -7992,17 +8120,17 @@
       <c r="F2" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>933</v>
+      <c r="G2" s="9" t="s">
+        <v>1560</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>937</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>941</v>
+        <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>945</v>
+        <v>1556</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>463</v>
@@ -8022,14 +8150,14 @@
       <c r="P2" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>955</v>
+      <c r="Q2" s="9" t="s">
+        <v>1549</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>959</v>
+        <v>74</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>963</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -8048,16 +8176,16 @@
         <v>887</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>934</v>
+        <v>1559</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>938</v>
+        <v>358</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>942</v>
+        <v>355</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>946</v>
+        <v>1557</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>464</v>
@@ -8078,72 +8206,72 @@
         <v>484</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>956</v>
+        <v>1550</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>960</v>
+        <v>358</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>671</v>
+        <v>1529</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>926</v>
+        <v>1531</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>928</v>
+        <v>1532</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>929</v>
+        <v>1534</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>930</v>
+        <v>1535</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>931</v>
+        <v>1536</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>935</v>
+        <v>1537</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>939</v>
+        <v>1542</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>943</v>
+        <v>1543</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>947</v>
+        <v>1558</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>948</v>
+        <v>1538</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>949</v>
+        <v>1544</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>950</v>
+        <v>1545</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>951</v>
+        <v>1546</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>952</v>
+        <v>1547</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>953</v>
+        <v>1548</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>957</v>
+        <v>1551</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>961</v>
+        <v>1552</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>965</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8175,7 +8303,289 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" customWidth="1"/>
+    <col min="8" max="17" width="25.6640625" customWidth="1"/>
+    <col min="18" max="18" width="33.6640625" customWidth="1"/>
+    <col min="19" max="19" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8360,8 +8770,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8493,8 +8904,196 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="306" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8750,194 +9349,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="25.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="306" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="136" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9298,8 +9712,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -9609,8 +10024,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:BC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10390,8 +10806,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10659,8 +11076,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B387E90-E3CD-9746-8D43-32F9BE05CBD7}">
+  <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:AB103"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
@@ -11450,8 +11868,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D194D221-20CF-2E41-90C4-A993C89EE7F6}">
+  <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
@@ -11632,8 +12051,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11738,8 +12158,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11861,8 +12282,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12134,75 +12556,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="25.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12313,7 +12669,76 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <sheetPr codeName="Sheet29"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12490,6 +12915,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12560,9 +12986,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BY5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AD1" sqref="AD1:AE1048576"/>
     </sheetView>
   </sheetViews>
@@ -13614,6 +14041,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BH5"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -14437,6 +14865,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:BG5"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0"/>
@@ -15242,6 +15671,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AX5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15927,6 +16357,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ami/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrique/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD59917-8517-DE4C-BF3F-236C9513761D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A032942-648D-D248-A5FC-4B9A39D3055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" firstSheet="22" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="1565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="1566">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4745,6 +4745,9 @@
   </si>
   <si>
     <t xml:space="preserve"> For example: EFO:0030037</t>
+  </si>
+  <si>
+    <t>sequence_file.file_core.file_source</t>
   </si>
 </sst>
 </file>
@@ -4828,7 +4831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4836,7 +4839,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5237,10 +5239,10 @@
       <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>1426</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>1427</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -5324,37 +5326,37 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1432</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1433</v>
       </c>
       <c r="L4" t="s">
@@ -6149,247 +6151,247 @@
       </c>
     </row>
     <row r="4" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>701</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>703</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>705</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>706</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>707</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>708</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>709</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>710</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>711</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>715</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>719</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>723</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>727</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>731</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>734</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>736</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>740</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>741</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>742</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>743</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>744</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>745</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>746</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>747</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>748</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>749</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>750</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>751</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>752</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>753</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>754</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>755</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" t="s">
         <v>756</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" t="s">
         <v>757</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" t="s">
         <v>758</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" t="s">
         <v>759</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" t="s">
         <v>763</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" t="s">
         <v>765</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" t="s">
         <v>767</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" t="s">
         <v>769</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" t="s">
         <v>773</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" t="s">
         <v>775</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" t="s">
         <v>777</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" t="s">
         <v>779</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" t="s">
         <v>783</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" t="s">
         <v>786</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" t="s">
         <v>788</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" t="s">
         <v>790</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" t="s">
         <v>792</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" t="s">
         <v>793</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" t="s">
         <v>794</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" t="s">
         <v>795</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" t="s">
         <v>796</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" t="s">
         <v>797</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" t="s">
         <v>798</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" t="s">
         <v>799</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BE4" t="s">
         <v>800</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BF4" t="s">
         <v>801</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BG4" t="s">
         <v>802</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BH4" t="s">
         <v>803</v>
       </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BI4" t="s">
         <v>804</v>
       </c>
-      <c r="BJ4" s="3" t="s">
+      <c r="BJ4" t="s">
         <v>371</v>
       </c>
-      <c r="BK4" s="3" t="s">
+      <c r="BK4" t="s">
         <v>598</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BL4" t="s">
         <v>600</v>
       </c>
-      <c r="BM4" s="3" t="s">
+      <c r="BM4" t="s">
         <v>806</v>
       </c>
-      <c r="BN4" s="3" t="s">
+      <c r="BN4" t="s">
         <v>321</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BO4" t="s">
         <v>324</v>
       </c>
-      <c r="BP4" s="3" t="s">
+      <c r="BP4" t="s">
         <v>327</v>
       </c>
-      <c r="BQ4" s="3" t="s">
+      <c r="BQ4" t="s">
         <v>331</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BR4" t="s">
         <v>335</v>
       </c>
-      <c r="BS4" s="3" t="s">
+      <c r="BS4" t="s">
         <v>339</v>
       </c>
-      <c r="BT4" s="3" t="s">
+      <c r="BT4" t="s">
         <v>342</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BU4" t="s">
         <v>346</v>
       </c>
-      <c r="BV4" s="3" t="s">
+      <c r="BV4" t="s">
         <v>348</v>
       </c>
-      <c r="BW4" s="3" t="s">
+      <c r="BW4" t="s">
         <v>350</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="BX4" t="s">
         <v>352</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="BY4" t="s">
         <v>356</v>
       </c>
-      <c r="BZ4" s="3" t="s">
+      <c r="BZ4" t="s">
         <v>359</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="CA4" t="s">
         <v>361</v>
       </c>
-      <c r="CB4" s="3" t="s">
+      <c r="CB4" t="s">
         <v>365</v>
       </c>
-      <c r="CC4" s="3" t="s">
+      <c r="CC4" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6709,73 +6711,73 @@
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>810</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>814</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>818</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>821</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>823</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>827</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>831</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>321</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>324</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>327</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>331</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>335</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>339</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>342</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>346</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>348</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>350</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>352</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>356</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>361</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>365</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>369</v>
       </c>
     </row>
@@ -6813,27 +6815,31 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="35.6640625" customWidth="1"/>
-    <col min="13" max="13" width="42.6640625" customWidth="1"/>
-    <col min="14" max="14" width="33.6640625" customWidth="1"/>
-    <col min="15" max="23" width="25.6640625" customWidth="1"/>
-    <col min="24" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="25.6640625" customWidth="1"/>
-    <col min="27" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="25.6640625" customWidth="1"/>
-    <col min="30" max="30" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="53.5" customWidth="1"/>
+    <col min="8" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="35.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="33.6640625" customWidth="1"/>
+    <col min="16" max="24" width="25.6640625" customWidth="1"/>
+    <col min="25" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="25.6640625" customWidth="1"/>
+    <col min="28" max="29" width="0" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="25.6640625" customWidth="1"/>
+    <col min="31" max="31" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>807</v>
       </c>
@@ -6852,80 +6858,83 @@
       <c r="F1" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="306" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>808</v>
       </c>
@@ -6945,79 +6954,82 @@
         <v>825</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>488</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>809</v>
       </c>
@@ -7037,163 +7049,169 @@
         <v>826</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>489</v>
-      </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>338</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>832</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>833</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>834</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>835</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>836</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>837</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H4" t="s">
         <v>841</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" t="s">
         <v>845</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" t="s">
         <v>849</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" t="s">
         <v>853</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" t="s">
         <v>857</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" t="s">
         <v>492</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" t="s">
         <v>860</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" t="s">
         <v>862</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" t="s">
         <v>321</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>324</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" t="s">
         <v>327</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" t="s">
         <v>331</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" t="s">
         <v>335</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" t="s">
         <v>339</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" t="s">
         <v>342</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" t="s">
         <v>346</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="X4" t="s">
         <v>348</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>350</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>352</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>356</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>359</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>361</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>365</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7226,6 +7244,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7468,76 +7487,76 @@
       </c>
     </row>
     <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>863</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>864</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>865</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>866</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>867</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>868</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>673</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>871</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>321</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>324</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>327</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>331</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>335</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>339</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>342</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>346</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>348</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>350</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>352</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>356</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>361</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>365</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7729,49 +7748,49 @@
       </c>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>490</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>874</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>877</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>880</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>884</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>888</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>890</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>892</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>894</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>896</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>897</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>899</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>901</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>903</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>905</v>
       </c>
     </row>
@@ -7809,16 +7828,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="25.6640625" style="3" customWidth="1"/>
-    <col min="7" max="9" width="33.6640625" style="3" customWidth="1"/>
-    <col min="10" max="16" width="25.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="32.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="38" style="3" customWidth="1"/>
-    <col min="19" max="19" width="43" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="9" width="33.6640625" customWidth="1"/>
+    <col min="10" max="16" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="32.6640625" customWidth="1"/>
+    <col min="18" max="18" width="38" customWidth="1"/>
+    <col min="19" max="19" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7902,10 +7920,10 @@
       <c r="G2" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>1563</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -7929,13 +7947,13 @@
       <c r="P2" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>1555</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>1563</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -7995,61 +8013,61 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>1511</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1512</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1513</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1514</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1515</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1516</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1517</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1518</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1519</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1520</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1557</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>1558</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>1559</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>1560</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>1561</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>1562</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>1521</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>1522</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>1523</v>
       </c>
     </row>
@@ -8236,49 +8254,49 @@
       </c>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>598</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>907</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>909</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>910</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>911</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>912</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>914</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>916</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>918</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>919</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>920</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>921</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>922</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>923</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>924</v>
       </c>
     </row>
@@ -8500,61 +8518,61 @@
       </c>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>671</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>926</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>928</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>929</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>930</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>931</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>935</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>939</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>943</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>947</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>948</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>949</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>950</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>951</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>952</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>953</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>957</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>961</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>965</v>
       </c>
     </row>
@@ -8714,40 +8732,40 @@
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>600</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>967</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>969</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>970</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>971</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>972</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>974</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>976</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>978</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>982</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>986</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>990</v>
       </c>
     </row>
@@ -8863,28 +8881,28 @@
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>669</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>992</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>994</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>995</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>996</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>997</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1001</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -9033,40 +9051,40 @@
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>79</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -9270,55 +9288,55 @@
       </c>
     </row>
     <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>806</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1007</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1009</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1010</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1011</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1012</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1016</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1020</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1022</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1024</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1026</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>1028</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>1030</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>1032</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>1036</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>1040</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>1044</v>
       </c>
     </row>
@@ -9600,79 +9618,79 @@
       </c>
     </row>
     <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>699</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1046</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1048</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1049</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1050</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1051</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1055</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1058</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1062</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1065</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1067</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>1069</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>1071</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>1072</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>1073</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>1074</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>1075</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>1076</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>1077</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>1081</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>1083</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>1085</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>1087</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>1091</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -9927,67 +9945,67 @@
       </c>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>871</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1097</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1099</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1100</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1101</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1102</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1106</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1110</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1113</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1115</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1119</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>1123</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>1127</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>1131</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>1135</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>1139</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>1143</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>1146</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>1150</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>1154</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -10038,7 +10056,7 @@
     <col min="7" max="7" width="49.6640625" customWidth="1"/>
     <col min="8" max="9" width="40.6640625" customWidth="1"/>
     <col min="10" max="10" width="38.6640625" customWidth="1"/>
-    <col min="11" max="14" width="25.6640625" style="3" customWidth="1"/>
+    <col min="11" max="14" width="25.6640625" customWidth="1"/>
     <col min="15" max="15" width="38.6640625" customWidth="1"/>
     <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="30.6640625" customWidth="1"/>
@@ -10074,170 +10092,170 @@
     <col min="55" max="55" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="5" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:55" s="4" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>1487</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>1488</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>1489</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>1490</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="3" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -10572,169 +10590,169 @@
       </c>
     </row>
     <row r="4" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>860</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1158</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1160</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1161</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1162</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1163</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1167</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1171</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1175</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1179</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1493</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>1494</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>1495</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>1496</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>1183</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>1186</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>1189</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>1193</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>1196</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>1199</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>1201</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>1203</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>1205</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>1207</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>1209</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>1211</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>1213</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>1215</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>1217</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>1219</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>1221</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>1223</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" t="s">
         <v>1225</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" t="s">
         <v>1229</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" t="s">
         <v>1233</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" t="s">
         <v>1237</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" t="s">
         <v>1239</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" t="s">
         <v>1241</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" t="s">
         <v>1243</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" t="s">
         <v>1245</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" t="s">
         <v>1247</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" t="s">
         <v>1249</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" t="s">
         <v>1252</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" t="s">
         <v>1254</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" t="s">
         <v>1256</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" t="s">
         <v>1258</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" t="s">
         <v>1260</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" t="s">
         <v>1263</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" t="s">
         <v>1266</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" t="s">
         <v>1268</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" t="s">
         <v>1270</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" t="s">
         <v>1272</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" t="s">
         <v>1274</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" t="s">
         <v>1278</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" t="s">
         <v>1282</v>
       </c>
     </row>
@@ -10989,58 +11007,58 @@
       </c>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>862</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1284</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1286</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1287</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1288</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1289</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1293</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1296</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1298</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1302</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1306</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>1309</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>1312</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>1314</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>1318</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>1322</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>1325</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>1328</v>
       </c>
     </row>
@@ -11075,119 +11093,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B387E90-E3CD-9746-8D43-32F9BE05CBD7}">
   <dimension ref="A1:AB103"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="58.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" style="3" customWidth="1"/>
-    <col min="13" max="17" width="18.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="23.6640625" style="3" customWidth="1"/>
-    <col min="19" max="20" width="8.83203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="18.6640625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.6640625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="30.6640625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="43.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="8.83203125" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="58.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="53.5" customWidth="1"/>
+    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" customWidth="1"/>
+    <col min="13" max="17" width="18.6640625" customWidth="1"/>
+    <col min="18" max="18" width="23.6640625" customWidth="1"/>
+    <col min="19" max="20" width="8.83203125" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" customWidth="1"/>
+    <col min="22" max="22" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.6640625" customWidth="1"/>
+    <col min="25" max="25" width="30.6640625" customWidth="1"/>
+    <col min="26" max="26" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>1458</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>1457</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>1459</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>1460</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>1461</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>1462</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>1463</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1464</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>366</v>
       </c>
     </row>
@@ -11348,97 +11365,97 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>1466</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1467</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>1468</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1469</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1470</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1471</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1477</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1472</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1447</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>862</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>321</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>324</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>327</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>331</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>335</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>339</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>342</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>346</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>348</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>350</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>352</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>356</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>359</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>361</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>365</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -11446,7 +11463,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -11466,396 +11483,396 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
     </row>
     <row r="19" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
     </row>
     <row r="27" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
     </row>
     <row r="30" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
     </row>
     <row r="32" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
     </row>
     <row r="33" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
     </row>
     <row r="34" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
     </row>
     <row r="35" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
     </row>
     <row r="36" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
     </row>
     <row r="37" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
     </row>
     <row r="38" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
     </row>
     <row r="39" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
     </row>
     <row r="40" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
     </row>
     <row r="41" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
     </row>
     <row r="42" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
     </row>
     <row r="43" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
     </row>
     <row r="44" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
     </row>
     <row r="45" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
     </row>
     <row r="46" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
     </row>
     <row r="47" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
     </row>
     <row r="48" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
     </row>
     <row r="49" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
     </row>
     <row r="50" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
     </row>
     <row r="51" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
     </row>
     <row r="52" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
     </row>
     <row r="53" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
     </row>
     <row r="54" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
     </row>
     <row r="55" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
     </row>
     <row r="56" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
     </row>
     <row r="57" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
     </row>
     <row r="58" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
     </row>
     <row r="59" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
     </row>
     <row r="60" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
     </row>
     <row r="61" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
     </row>
     <row r="62" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
     </row>
     <row r="63" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
     </row>
     <row r="64" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
     </row>
     <row r="65" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
     </row>
     <row r="66" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
     </row>
     <row r="67" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
     </row>
     <row r="68" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
     </row>
     <row r="69" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
     </row>
     <row r="70" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
     </row>
     <row r="71" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
     </row>
     <row r="72" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
     </row>
     <row r="73" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
     </row>
     <row r="74" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
     </row>
     <row r="75" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
     </row>
     <row r="76" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
     </row>
     <row r="77" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
     </row>
     <row r="78" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
     </row>
     <row r="79" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
     </row>
     <row r="80" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
     </row>
     <row r="81" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
     </row>
     <row r="82" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
     </row>
     <row r="83" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
     </row>
     <row r="84" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
     </row>
     <row r="85" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
     </row>
     <row r="86" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
     </row>
     <row r="87" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
     </row>
     <row r="88" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
     </row>
     <row r="89" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
     </row>
     <row r="90" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
     </row>
     <row r="91" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
     </row>
     <row r="92" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
     </row>
     <row r="93" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
     </row>
     <row r="94" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
     </row>
     <row r="95" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
     </row>
     <row r="96" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
     </row>
     <row r="97" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
     </row>
     <row r="98" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
     </row>
     <row r="99" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
     </row>
     <row r="100" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
     </row>
     <row r="101" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
     </row>
     <row r="102" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
     </row>
     <row r="103" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11866,66 +11883,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D194D221-20CF-2E41-90C4-A993C89EE7F6}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="84.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.6640625" style="3" customWidth="1"/>
-    <col min="15" max="17" width="8.83203125" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="7" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="17" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1434</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1435</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>1437</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>1438</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>1439</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>1440</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>1441</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>1442</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -11986,37 +12002,37 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>1447</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1448</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1449</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1450</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1451</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1452</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1453</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1454</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1455</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1478</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1456</v>
       </c>
     </row>
@@ -12116,22 +12132,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>1329</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1330</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1331</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1332</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1333</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1334</v>
       </c>
     </row>
@@ -12235,25 +12251,25 @@
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>1338</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1342</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1346</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1349</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1353</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1357</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1361</v>
       </c>
     </row>
@@ -12464,58 +12480,58 @@
       </c>
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>1365</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1369</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1373</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>1377</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>1381</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1385</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>1388</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>1390</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>1392</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>1394</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>1396</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>1398</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>1400</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>1402</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>1404</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>1406</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>1408</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>1412</v>
       </c>
     </row>
@@ -12623,22 +12639,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>1485</v>
       </c>
     </row>
@@ -12702,13 +12718,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>1416</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>1420</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -12740,137 +12756,137 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>1525</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>1527</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>1529</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>1531</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>1533</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>1535</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>1537</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>1547</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -12927,13 +12943,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -13685,235 +13701,235 @@
       </c>
     </row>
     <row r="4" spans="1:77" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>148</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>152</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>159</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>166</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>169</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>171</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>175</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>178</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>180</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>184</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>188</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>192</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>196</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>199</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>201</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>205</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>208</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>210</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>213</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>215</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>217</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>221</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" t="s">
         <v>225</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" t="s">
         <v>229</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" t="s">
         <v>233</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" t="s">
         <v>237</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" t="s">
         <v>241</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" t="s">
         <v>245</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" t="s">
         <v>249</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" t="s">
         <v>253</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" t="s">
         <v>257</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" t="s">
         <v>261</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" t="s">
         <v>265</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" t="s">
         <v>269</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" t="s">
         <v>273</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" t="s">
         <v>275</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" t="s">
         <v>277</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" t="s">
         <v>279</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" t="s">
         <v>283</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" t="s">
         <v>287</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" t="s">
         <v>290</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" t="s">
         <v>292</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" t="s">
         <v>296</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" t="s">
         <v>299</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" t="s">
         <v>302</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" t="s">
         <v>304</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BE4" t="s">
         <v>308</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BF4" t="s">
         <v>310</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BG4" t="s">
         <v>312</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BH4" t="s">
         <v>314</v>
       </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BI4" t="s">
         <v>318</v>
       </c>
-      <c r="BJ4" s="3" t="s">
+      <c r="BJ4" t="s">
         <v>321</v>
       </c>
-      <c r="BK4" s="3" t="s">
+      <c r="BK4" t="s">
         <v>324</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BL4" t="s">
         <v>327</v>
       </c>
-      <c r="BM4" s="3" t="s">
+      <c r="BM4" t="s">
         <v>331</v>
       </c>
-      <c r="BN4" s="3" t="s">
+      <c r="BN4" t="s">
         <v>335</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BO4" t="s">
         <v>339</v>
       </c>
-      <c r="BP4" s="3" t="s">
+      <c r="BP4" t="s">
         <v>342</v>
       </c>
-      <c r="BQ4" s="3" t="s">
+      <c r="BQ4" t="s">
         <v>346</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BR4" t="s">
         <v>348</v>
       </c>
-      <c r="BS4" s="3" t="s">
+      <c r="BS4" t="s">
         <v>350</v>
       </c>
-      <c r="BT4" s="3" t="s">
+      <c r="BT4" t="s">
         <v>352</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BU4" t="s">
         <v>356</v>
       </c>
-      <c r="BV4" s="3" t="s">
+      <c r="BV4" t="s">
         <v>359</v>
       </c>
-      <c r="BW4" s="3" t="s">
+      <c r="BW4" t="s">
         <v>361</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="BX4" t="s">
         <v>365</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="BY4" t="s">
         <v>369</v>
       </c>
     </row>
@@ -14576,184 +14592,184 @@
       </c>
     </row>
     <row r="4" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>371</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>376</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>377</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>378</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>379</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>380</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>381</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>383</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>384</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>385</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>389</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>392</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>394</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>398</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>401</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>404</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>406</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>407</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>408</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>412</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>416</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>420</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>424</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>428</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>432</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>436</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>440</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>444</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>448</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>450</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" t="s">
         <v>452</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" t="s">
         <v>454</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" t="s">
         <v>458</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" t="s">
         <v>461</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" t="s">
         <v>465</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" t="s">
         <v>469</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" t="s">
         <v>473</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" t="s">
         <v>477</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" t="s">
         <v>481</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" t="s">
         <v>485</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" t="s">
         <v>118</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" t="s">
         <v>490</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" t="s">
         <v>321</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" t="s">
         <v>324</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" t="s">
         <v>327</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" t="s">
         <v>331</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" t="s">
         <v>335</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" t="s">
         <v>339</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" t="s">
         <v>342</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" t="s">
         <v>346</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" t="s">
         <v>348</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" t="s">
         <v>350</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" t="s">
         <v>352</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" t="s">
         <v>356</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BE4" t="s">
         <v>359</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BF4" t="s">
         <v>361</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BG4" t="s">
         <v>365</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BH4" t="s">
         <v>369</v>
       </c>
     </row>
@@ -14854,8 +14870,7 @@
     <col min="40" max="40" width="25.6640625" customWidth="1"/>
     <col min="41" max="41" width="42.6640625" customWidth="1"/>
     <col min="42" max="42" width="35.6640625" customWidth="1"/>
-    <col min="43" max="43" width="33.6640625" customWidth="1"/>
-    <col min="44" max="44" width="33.6640625" style="3" customWidth="1"/>
+    <col min="43" max="44" width="33.6640625" customWidth="1"/>
     <col min="45" max="53" width="25.6640625" customWidth="1"/>
     <col min="54" max="55" width="0" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="25.6640625" customWidth="1"/>
@@ -15397,184 +15412,184 @@
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>492</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>494</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>496</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>497</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>498</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>499</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>500</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>501</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>502</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>506</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>510</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>512</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>514</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>516</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>520</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>524</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>528</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>532</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>536</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>540</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>544</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>548</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>552</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>556</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>560</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>562</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>563</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>564</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>568</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>571</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>574</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>578</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" t="s">
         <v>582</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" t="s">
         <v>586</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" t="s">
         <v>590</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" t="s">
         <v>591</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" t="s">
         <v>592</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" t="s">
         <v>593</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" t="s">
         <v>594</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" t="s">
         <v>595</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" t="s">
         <v>371</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" t="s">
         <v>598</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" t="s">
         <v>600</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" t="s">
         <v>1511</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" t="s">
         <v>321</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" t="s">
         <v>324</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" t="s">
         <v>327</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" t="s">
         <v>331</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" t="s">
         <v>335</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" t="s">
         <v>339</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" t="s">
         <v>342</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" t="s">
         <v>346</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" t="s">
         <v>348</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" t="s">
         <v>350</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" t="s">
         <v>352</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" t="s">
         <v>356</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BE4" t="s">
         <v>359</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BF4" t="s">
         <v>361</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BG4" t="s">
         <v>365</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BH4" t="s">
         <v>369</v>
       </c>
     </row>
@@ -16122,154 +16137,154 @@
       </c>
     </row>
     <row r="4" spans="1:50" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>602</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>604</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>606</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>607</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>608</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>609</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>610</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>611</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>612</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>614</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>615</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>616</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>618</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>620</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>622</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>624</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>626</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>628</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>632</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>634</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>636</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>638</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>641</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>643</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>645</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>647</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>651</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>655</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>659</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>663</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>667</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>371</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" t="s">
         <v>669</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" t="s">
         <v>671</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" t="s">
         <v>321</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" t="s">
         <v>324</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" t="s">
         <v>327</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" t="s">
         <v>331</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" t="s">
         <v>335</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" t="s">
         <v>339</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" t="s">
         <v>342</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" t="s">
         <v>346</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" t="s">
         <v>348</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" t="s">
         <v>350</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" t="s">
         <v>352</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" t="s">
         <v>356</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" t="s">
         <v>359</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" t="s">
         <v>361</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" t="s">
         <v>365</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" t="s">
         <v>369</v>
       </c>
     </row>
@@ -16637,100 +16652,100 @@
       </c>
     </row>
     <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>673</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>675</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>677</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>678</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>679</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>680</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>681</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>682</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>683</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>686</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>690</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>693</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>695</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" t="s">
         <v>697</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" t="s">
         <v>371</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" t="s">
         <v>699</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
         <v>321</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" t="s">
         <v>324</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" t="s">
         <v>327</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>331</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>335</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" t="s">
         <v>339</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>342</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" t="s">
         <v>346</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" t="s">
         <v>348</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" t="s">
         <v>350</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" t="s">
         <v>352</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" t="s">
         <v>356</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" t="s">
         <v>359</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" t="s">
         <v>361</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" t="s">
         <v>365</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" t="s">
         <v>369</v>
       </c>
     </row>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrique/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wteh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A032942-648D-D248-A5FC-4B9A39D3055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F13E06-52A2-A843-9CCA-8257E86C22AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33100" windowHeight="21460" firstSheet="17" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="1570">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4748,6 +4748,18 @@
   </si>
   <si>
     <t>sequence_file.file_core.file_source</t>
+  </si>
+  <si>
+    <t>The type of protocol.</t>
+  </si>
+  <si>
+    <t>For example: raw matrix generation; processed matrix generation</t>
+  </si>
+  <si>
+    <t>A URI to a versioned workflow and versioned execution environment in a GA4GH-compliant repository.</t>
+  </si>
+  <si>
+    <t>For example: SmartSeq2SingleCell; 10x</t>
   </si>
 </sst>
 </file>
@@ -5198,7 +5210,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6817,7 +6829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -8608,7 +8620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8616,9 +8630,11 @@
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" customWidth="1"/>
     <col min="4" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1"/>
-    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10824,7 +10840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11006,7 +11024,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>862</v>
       </c>
@@ -11093,8 +11111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B387E90-E3CD-9746-8D43-32F9BE05CBD7}">
   <dimension ref="A1:AB103"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11883,8 +11901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D194D221-20CF-2E41-90C4-A993C89EE7F6}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11959,10 +11977,18 @@
       <c r="E2" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1568</v>
+      </c>
       <c r="J2" s="2" t="s">
         <v>1443</v>
       </c>
@@ -11986,10 +12012,18 @@
       <c r="E3" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1569</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>1445</v>
       </c>
@@ -12293,7 +12327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12745,7 +12781,7 @@
   <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12969,8 +13005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BY5"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AE1048576"/>
+    <sheetView topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="BU4" sqref="BU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wteh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrique/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F13E06-52A2-A843-9CCA-8257E86C22AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFB9F36-2986-AB4F-9168-69691A49C3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33100" windowHeight="21460" firstSheet="17" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33100" windowHeight="21460" firstSheet="21" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="1578">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4760,6 +4760,30 @@
   </si>
   <si>
     <t>For example: SmartSeq2SingleCell; 10x</t>
+  </si>
+  <si>
+    <t>analysis_file.genome_assembly_version</t>
+  </si>
+  <si>
+    <t>analysis_file.genome_patch_version</t>
+  </si>
+  <si>
+    <t>Name of the genome assembly used to generate this file.</t>
+  </si>
+  <si>
+    <t>Patch version of the genome assembly used to generate this file.</t>
+  </si>
+  <si>
+    <t>GENOME VERSION (Required)</t>
+  </si>
+  <si>
+    <t>PATCH VERSION</t>
+  </si>
+  <si>
+    <t>Please use the name as defined in the Genome Reference Consortium (https://www.ncbi.nlm.nih.gov/grc). Should be one of: GRCh38, GRCh37, GRCm39, GRCm38, GRCm37, Not Applicable</t>
+  </si>
+  <si>
+    <t>For example: p11; p14</t>
   </si>
 </sst>
 </file>
@@ -8675,7 +8699,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>488</v>
       </c>
@@ -8713,7 +8737,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>489</v>
       </c>
@@ -11109,10 +11133,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B387E90-E3CD-9746-8D43-32F9BE05CBD7}">
-  <dimension ref="A1:AB103"/>
+  <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11124,23 +11148,26 @@
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
     <col min="7" max="7" width="53.5" customWidth="1"/>
     <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" customWidth="1"/>
-    <col min="13" max="17" width="18.6640625" customWidth="1"/>
-    <col min="18" max="18" width="23.6640625" customWidth="1"/>
-    <col min="19" max="20" width="8.83203125" customWidth="1"/>
-    <col min="21" max="21" width="18.6640625" customWidth="1"/>
-    <col min="22" max="22" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.6640625" customWidth="1"/>
-    <col min="25" max="25" width="30.6640625" customWidth="1"/>
-    <col min="26" max="26" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="8.83203125" customWidth="1"/>
+    <col min="9" max="10" width="39" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" customWidth="1"/>
+    <col min="15" max="19" width="18.6640625" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" customWidth="1"/>
+    <col min="21" max="22" width="8.83203125" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" customWidth="1"/>
+    <col min="24" max="24" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.6640625" customWidth="1"/>
+    <col min="27" max="27" width="30.6640625" customWidth="1"/>
+    <col min="28" max="28" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.83203125" customWidth="1"/>
+    <col min="30" max="30" width="18.5" customWidth="1"/>
+    <col min="31" max="31" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>807</v>
       </c>
@@ -11166,67 +11193,73 @@
         <v>1459</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>1460</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1461</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1462</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1463</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1464</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>808</v>
       </c>
@@ -11252,67 +11285,73 @@
         <v>1475</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>488</v>
+        <v>1572</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>117</v>
+        <v>1573</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>488</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>809</v>
       </c>
@@ -11336,53 +11375,59 @@
         <v>1476</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1466</v>
       </c>
@@ -11408,67 +11453,73 @@
         <v>1472</v>
       </c>
       <c r="I4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K4" t="s">
         <v>1447</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>862</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>321</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>324</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>327</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>331</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>335</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>339</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>342</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>346</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>348</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>350</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>352</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>356</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>359</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>361</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>365</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -11481,9 +11532,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -11499,398 +11550,400 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="17" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-    </row>
-    <row r="20" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-    </row>
-    <row r="26" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-    </row>
-    <row r="28" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-    </row>
-    <row r="29" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-    </row>
-    <row r="30" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-    </row>
-    <row r="33" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-    </row>
-    <row r="36" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-    </row>
-    <row r="37" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-    </row>
-    <row r="38" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-    </row>
-    <row r="39" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-    </row>
-    <row r="40" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-    </row>
-    <row r="41" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-    </row>
-    <row r="42" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-    </row>
-    <row r="43" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-    </row>
-    <row r="44" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-    </row>
-    <row r="45" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-    </row>
-    <row r="46" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-    </row>
-    <row r="47" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-    </row>
-    <row r="48" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-    </row>
-    <row r="49" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-    </row>
-    <row r="50" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-    </row>
-    <row r="51" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-    </row>
-    <row r="52" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-    </row>
-    <row r="53" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-    </row>
-    <row r="54" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-    </row>
-    <row r="55" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-    </row>
-    <row r="56" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-    </row>
-    <row r="57" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-    </row>
-    <row r="58" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-    </row>
-    <row r="59" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-    </row>
-    <row r="60" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-    </row>
-    <row r="61" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-    </row>
-    <row r="62" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-    </row>
-    <row r="63" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-    </row>
-    <row r="64" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-    </row>
-    <row r="65" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-    </row>
-    <row r="66" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-    </row>
-    <row r="67" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-    </row>
-    <row r="68" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-    </row>
-    <row r="69" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-    </row>
-    <row r="70" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-    </row>
-    <row r="71" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-    </row>
-    <row r="72" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-    </row>
-    <row r="73" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-    </row>
-    <row r="74" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-    </row>
-    <row r="75" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-    </row>
-    <row r="76" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-    </row>
-    <row r="77" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-    </row>
-    <row r="78" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-    </row>
-    <row r="79" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-    </row>
-    <row r="80" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-    </row>
-    <row r="81" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-    </row>
-    <row r="82" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-    </row>
-    <row r="83" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-    </row>
-    <row r="84" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-    </row>
-    <row r="85" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-    </row>
-    <row r="86" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-    </row>
-    <row r="87" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-    </row>
-    <row r="88" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-    </row>
-    <row r="89" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-    </row>
-    <row r="90" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-    </row>
-    <row r="91" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-    </row>
-    <row r="92" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-    </row>
-    <row r="93" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-    </row>
-    <row r="94" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-    </row>
-    <row r="95" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-    </row>
-    <row r="96" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-    </row>
-    <row r="97" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-    </row>
-    <row r="98" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-    </row>
-    <row r="99" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-    </row>
-    <row r="100" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-    </row>
-    <row r="101" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-    </row>
-    <row r="102" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-    </row>
-    <row r="103" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+    </row>
+    <row r="32" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+    </row>
+    <row r="39" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+    </row>
+    <row r="40" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+    </row>
+    <row r="41" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+    </row>
+    <row r="42" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+    </row>
+    <row r="43" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+    </row>
+    <row r="44" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+    </row>
+    <row r="45" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+    </row>
+    <row r="46" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+    </row>
+    <row r="47" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+    </row>
+    <row r="48" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+    </row>
+    <row r="49" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+    </row>
+    <row r="50" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+    </row>
+    <row r="52" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+    </row>
+    <row r="53" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+    </row>
+    <row r="54" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+    </row>
+    <row r="55" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+    </row>
+    <row r="56" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+    </row>
+    <row r="57" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+    </row>
+    <row r="58" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+    </row>
+    <row r="59" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+    </row>
+    <row r="60" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+    </row>
+    <row r="61" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+    </row>
+    <row r="62" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+    </row>
+    <row r="63" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+    </row>
+    <row r="64" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+    </row>
+    <row r="65" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+    </row>
+    <row r="66" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+    </row>
+    <row r="67" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+    </row>
+    <row r="68" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+    </row>
+    <row r="69" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+    </row>
+    <row r="70" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+    </row>
+    <row r="71" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+    </row>
+    <row r="72" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+    </row>
+    <row r="73" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+    </row>
+    <row r="74" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+    </row>
+    <row r="75" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+    </row>
+    <row r="76" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+    </row>
+    <row r="77" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+    </row>
+    <row r="78" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+    </row>
+    <row r="79" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+    </row>
+    <row r="80" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+    </row>
+    <row r="81" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+    </row>
+    <row r="83" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+    </row>
+    <row r="84" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+    </row>
+    <row r="85" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+    </row>
+    <row r="86" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+    </row>
+    <row r="87" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+    </row>
+    <row r="89" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+    </row>
+    <row r="90" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+    </row>
+    <row r="91" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+    </row>
+    <row r="92" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+    </row>
+    <row r="93" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+    </row>
+    <row r="94" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+    </row>
+    <row r="95" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+    </row>
+    <row r="96" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+    </row>
+    <row r="97" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+    </row>
+    <row r="99" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+    </row>
+    <row r="100" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+    </row>
+    <row r="101" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+    </row>
+    <row r="102" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+    </row>
+    <row r="103" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11901,7 +11954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D194D221-20CF-2E41-90C4-A993C89EE7F6}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrique/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idazucchi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFB9F36-2986-AB4F-9168-69691A49C3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB25997-AA76-DB4B-9385-0AD0F9D8E6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33100" windowHeight="21460" firstSheet="21" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4580" yWindow="-21600" windowWidth="38400" windowHeight="21600" firstSheet="20" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="1586">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4684,9 +4684,6 @@
     <t>https://schema.humancellatlas.org/type/file/6.5.0/analysis_file</t>
   </si>
   <si>
-    <t>https://schema.humancellatlas.org/type/biomaterial/10.5.0/specimen_from_organism</t>
-  </si>
-  <si>
     <t>https://schema.humancellatlas.org/type/biomaterial/11.3.0/organoid</t>
   </si>
   <si>
@@ -4784,6 +4781,33 @@
   </si>
   <si>
     <t>For example: p11; p14</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.adjacent_diseases.text</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.adjacent_diseases.ontology</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.adjacent_diseases.ontology_label</t>
+  </si>
+  <si>
+    <t>ADJACENT DISEASE(S)</t>
+  </si>
+  <si>
+    <t>ADJACENT DISEASE(S)) ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>ADJACENT DISEASE(S) ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>Short description of the disease(s) adjacent to the specimen's collection site (e.g. breast cancer).</t>
+  </si>
+  <si>
+    <t>If a healthy specimen is sampled from a site adjacent to diseased tissue, enter that tissue's disease here. If no diseased tissue is adjacent to the specimen, leave blank. For example: type 2 diabetes mellitus; normal; hepatic steatosis</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/biomaterial/10.6.0/specimen_from_organism</t>
   </si>
 </sst>
 </file>
@@ -5233,8 +5257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5361,7 +5385,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5424,9 +5448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:CC5"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AV1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6853,8 +6875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7152,7 +7174,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>832</v>
       </c>
@@ -7172,7 +7194,7 @@
         <v>837</v>
       </c>
       <c r="G4" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H4" t="s">
         <v>841</v>
@@ -7858,8 +7880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2F1E06-C83F-9240-A431-D0EEE8C93825}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7904,7 +7926,7 @@
         <v>1507</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>895</v>
@@ -7954,16 +7976,16 @@
         <v>886</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>463</v>
@@ -7984,10 +8006,10 @@
         <v>483</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>78</v>
@@ -8009,13 +8031,13 @@
         <v>887</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>938</v>
@@ -8039,16 +8061,16 @@
         <v>484</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1511</v>
       </c>
@@ -8080,22 +8102,22 @@
         <v>1520</v>
       </c>
       <c r="K4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L4" t="s">
         <v>1557</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>1558</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>1559</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>1560</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>1561</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1562</v>
       </c>
       <c r="Q4" t="s">
         <v>1521</v>
@@ -8364,9 +8386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:P1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9772,9 +9792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10864,8 +10882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11048,7 +11066,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>862</v>
       </c>
@@ -11135,14 +11153,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B387E90-E3CD-9746-8D43-32F9BE05CBD7}">
   <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="1" max="2" width="38.6640625" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="58.83203125" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
@@ -11193,10 +11210,10 @@
         <v>1459</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>1574</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1575</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1460</v>
@@ -11285,10 +11302,10 @@
         <v>1475</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>1572</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1573</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>488</v>
@@ -11375,10 +11392,10 @@
         <v>1476</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>1576</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1577</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>489</v>
@@ -11427,7 +11444,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1466</v>
       </c>
@@ -11453,10 +11470,10 @@
         <v>1472</v>
       </c>
       <c r="I4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="J4" t="s">
         <v>1570</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1571</v>
       </c>
       <c r="K4" t="s">
         <v>1447</v>
@@ -11954,8 +11971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D194D221-20CF-2E41-90C4-A993C89EE7F6}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12031,7 +12048,7 @@
         <v>882</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>74</v>
@@ -12040,7 +12057,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>1443</v>
@@ -12066,7 +12083,7 @@
         <v>883</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>358</v>
@@ -12075,7 +12092,7 @@
         <v>355</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>1445</v>
@@ -12088,7 +12105,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1447</v>
       </c>
@@ -12380,8 +12397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12656,7 +12673,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12727,7 +12744,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -12833,8 +12850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12946,37 +12963,37 @@
     </row>
     <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>1544</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
   </sheetData>
@@ -13058,8 +13075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BY5"/>
   <sheetViews>
-    <sheetView topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BU4" sqref="BU4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14110,10 +14127,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:BH5"/>
+  <dimension ref="A1:BK5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14129,26 +14146,28 @@
     <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="25.6640625" customWidth="1"/>
     <col min="20" max="21" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="22" max="32" width="25.6640625" customWidth="1"/>
-    <col min="33" max="34" width="0" hidden="1" customWidth="1"/>
-    <col min="35" max="36" width="25.6640625" customWidth="1"/>
-    <col min="37" max="37" width="32.6640625" customWidth="1"/>
-    <col min="38" max="38" width="35.6640625" customWidth="1"/>
-    <col min="39" max="39" width="33.6640625" customWidth="1"/>
-    <col min="40" max="40" width="37.6640625" customWidth="1"/>
-    <col min="41" max="41" width="32.6640625" customWidth="1"/>
-    <col min="42" max="42" width="26.6640625" customWidth="1"/>
-    <col min="43" max="43" width="34.6640625" customWidth="1"/>
-    <col min="44" max="44" width="33.6640625" customWidth="1"/>
-    <col min="45" max="53" width="25.6640625" customWidth="1"/>
-    <col min="54" max="55" width="0" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="25.6640625" customWidth="1"/>
+    <col min="22" max="22" width="25.6640625" customWidth="1"/>
+    <col min="23" max="24" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="25" max="35" width="25.6640625" customWidth="1"/>
+    <col min="36" max="37" width="0" hidden="1" customWidth="1"/>
+    <col min="38" max="39" width="25.6640625" customWidth="1"/>
+    <col min="40" max="40" width="32.6640625" customWidth="1"/>
+    <col min="41" max="41" width="35.6640625" customWidth="1"/>
+    <col min="42" max="42" width="33.6640625" customWidth="1"/>
+    <col min="43" max="43" width="37.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="26.6640625" customWidth="1"/>
+    <col min="46" max="46" width="34.6640625" customWidth="1"/>
+    <col min="47" max="47" width="33.6640625" customWidth="1"/>
+    <col min="48" max="56" width="25.6640625" customWidth="1"/>
     <col min="57" max="58" width="0" hidden="1" customWidth="1"/>
     <col min="59" max="59" width="25.6640625" customWidth="1"/>
-    <col min="60" max="60" width="37.6640625" customWidth="1"/>
+    <col min="60" max="61" width="0" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="25.6640625" customWidth="1"/>
+    <col min="63" max="63" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>370</v>
       </c>
@@ -14213,124 +14232,133 @@
         <v>216</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" ht="306" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -14395,109 +14423,109 @@
         <v>78</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="BE2" s="2" t="s">
         <v>74</v>
@@ -14506,13 +14534,22 @@
         <v>78</v>
       </c>
       <c r="BG2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" ht="153" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14571,116 +14608,125 @@
         <v>1498</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2" t="s">
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2" t="s">
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>371</v>
       </c>
@@ -14745,124 +14791,133 @@
         <v>408</v>
       </c>
       <c r="V4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="Y4" t="s">
         <v>412</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>416</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>420</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>424</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>428</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
         <v>432</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
         <v>436</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AF4" t="s">
         <v>440</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AG4" t="s">
         <v>444</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
         <v>448</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AI4" t="s">
         <v>450</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
         <v>452</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AK4" t="s">
         <v>454</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AL4" t="s">
         <v>458</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" t="s">
         <v>461</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>465</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AO4" t="s">
         <v>469</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AP4" t="s">
         <v>473</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AQ4" t="s">
         <v>477</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AR4" t="s">
         <v>481</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AS4" t="s">
         <v>485</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AT4" t="s">
         <v>118</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AU4" t="s">
         <v>490</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AV4" t="s">
         <v>321</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AW4" t="s">
         <v>324</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AX4" t="s">
         <v>327</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AY4" t="s">
         <v>331</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AZ4" t="s">
         <v>335</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BA4" t="s">
         <v>339</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BB4" t="s">
         <v>342</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BC4" t="s">
         <v>346</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BD4" t="s">
         <v>348</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BE4" t="s">
         <v>350</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BF4" t="s">
         <v>352</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BG4" t="s">
         <v>356</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BH4" t="s">
         <v>359</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BI4" t="s">
         <v>361</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
         <v>365</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BK4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -14925,6 +14980,9 @@
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14935,8 +14993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BH5"/>
   <sheetViews>
-    <sheetView topLeftCell="AN2" workbookViewId="0">
-      <selection activeCell="AR6" sqref="AR6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15500,7 +15558,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>492</v>
       </c>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idazucchi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wteh/Documents/Schema-change-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB25997-AA76-DB4B-9385-0AD0F9D8E6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29226B4-C33D-DD4C-97F2-69C68950EC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4580" yWindow="-21600" windowWidth="38400" windowHeight="21600" firstSheet="20" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14060" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -43,14 +43,13 @@
     <sheet name="Imaging protocol - Channel" sheetId="25" r:id="rId28"/>
     <sheet name="Imaging protocol - Probe" sheetId="26" r:id="rId29"/>
     <sheet name="Familial relationship" sheetId="27" r:id="rId30"/>
-    <sheet name="Schemas" sheetId="28" r:id="rId31"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="1574">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4327,9 +4326,6 @@
     <t>donor_organism.familial_relationships.sibling</t>
   </si>
   <si>
-    <t>Schemas</t>
-  </si>
-  <si>
     <t>EGA Study/Dataset Accession(s)</t>
   </si>
   <si>
@@ -4624,84 +4620,6 @@
     <t>treatment_protocol.target_pathway.ontology_label</t>
   </si>
   <si>
-    <t>https://schema.humancellatlas.org/type/protocol/sequencing/10.1.0/sequencing_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/sequencing/6.3.1/library_preparation_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/imaging/11.4.0/imaging_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/imaging/2.3.0/imaging_preparation_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/3.2.0/ipsc_induction_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/3.1.0/enrichment_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/6.2.0/dissociation_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/2.2.0/differentiation_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/9.2.0/collection_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/2.1.0/aggregate_generation_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/analysis/9.2.0/analysis_protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/7.1.0/protocol</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/project/17.0.0/project</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/process/sequencing/5.1.0/library_preparation_process</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/process/9.2.0/process</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/file/2.5.0/supplementary_file</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/file/9.5.0/sequence_file</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/file/3.5.0/reference_file</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/file/2.5.0/image_file</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/file/6.5.0/analysis_file</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/biomaterial/11.3.0/organoid</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/biomaterial/3.3.0/imaged_specimen</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/biomaterial/15.6.0/donor_organism</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/biomaterial/13.3.0/cell_suspension</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/biomaterial/15.1.0/cell_line</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/1.0.0/treatment_protocol</t>
-  </si>
-  <si>
     <t>TREATMENT MEDIA</t>
   </si>
   <si>
@@ -4807,14 +4725,59 @@
     <t>If a healthy specimen is sampled from a site adjacent to diseased tissue, enter that tissue's disease here. If no diseased tissue is adjacent to the specimen, leave blank. For example: type 2 diabetes mellitus; normal; hepatic steatosis</t>
   </si>
   <si>
-    <t>https://schema.humancellatlas.org/type/biomaterial/10.6.0/specimen_from_organism</t>
+    <t>OFFICIAL HCA BIONETWORK</t>
+  </si>
+  <si>
+    <t>HCA Bionetwork the project is a part of (e.g. Kidney).</t>
+  </si>
+  <si>
+    <t>Should be one of the networks from https://www.humancellatlas.org/biological-networks/</t>
+  </si>
+  <si>
+    <t>HCA TISSUE ATLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A field describing if the project is part of a HCA Tissue Atlas (e.g. Brain Alzheimer Atlas). </t>
+  </si>
+  <si>
+    <t>For example: Blood Atlas</t>
+  </si>
+  <si>
+    <t>OFFICIAL HCA TISSUE ATLAS VERSION</t>
+  </si>
+  <si>
+    <t>A field describing which version of the HCA Tissue Atlas is associated with the project (e.g. v1.0; v2.0)</t>
+  </si>
+  <si>
+    <t>For example: v1.0; v2.0</t>
+  </si>
+  <si>
+    <t>PROJECT TISSUE ATLAS STATUS</t>
+  </si>
+  <si>
+    <t>A field describing if this project is the HCA Tissue Atlas project which integrates data from other datasets.</t>
+  </si>
+  <si>
+    <t>Enter ‘Yes’ if this project is one of the HCA Tissue Atlases and it integrates data from all other datasets. Enter ‘No’, if this project's data is being integrated.</t>
+  </si>
+  <si>
+    <t>project.hca_bionetwork.hca_tissue_atlas</t>
+  </si>
+  <si>
+    <t>project.hca_bionetwork.hca_tissue_atlas_version</t>
+  </si>
+  <si>
+    <t>project.hca_bionetwork.atlas_project</t>
+  </si>
+  <si>
+    <t>project.hca_bionetwork.name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4844,12 +4807,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF24292F"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4891,7 +4848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4907,14 +4864,13 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5255,10 +5211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5269,9 +5225,10 @@
     <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5300,16 +5257,28 @@
         <v>33</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>1426</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1427</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5338,16 +5307,28 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>1429</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>1479</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5376,16 +5357,28 @@
         <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>1431</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>1480</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5414,16 +5407,28 @@
         <v>36</v>
       </c>
       <c r="J4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K4" t="s">
         <v>1432</v>
       </c>
-      <c r="K4" t="s">
-        <v>1433</v>
-      </c>
       <c r="L4" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1478</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5438,6 +5443,10 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6108,13 +6117,13 @@
         <v>782</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="AU3" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AV3" s="2" t="s">
         <v>1497</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>1498</v>
       </c>
       <c r="AW3" s="2" t="s">
         <v>174</v>
@@ -6917,7 +6926,7 @@
         <v>824</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>838</v>
@@ -7012,7 +7021,7 @@
         <v>825</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>839</v>
@@ -7107,7 +7116,7 @@
         <v>826</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>840</v>
@@ -7194,7 +7203,7 @@
         <v>837</v>
       </c>
       <c r="G4" t="s">
-        <v>1564</v>
+        <v>1537</v>
       </c>
       <c r="H4" t="s">
         <v>841</v>
@@ -7899,13 +7908,13 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1503</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1504</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
@@ -7917,16 +7926,16 @@
         <v>885</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1507</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>1550</v>
+        <v>1523</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>895</v>
@@ -7947,13 +7956,13 @@
         <v>904</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1509</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="68" x14ac:dyDescent="0.2">
@@ -7976,16 +7985,16 @@
         <v>886</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I2" s="10" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1551</v>
+        <v>1524</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>463</v>
@@ -8005,13 +8014,13 @@
       <c r="P2" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>1554</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>1562</v>
-      </c>
-      <c r="S2" s="10" t="s">
+      <c r="Q2" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>1535</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8031,13 +8040,13 @@
         <v>887</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1553</v>
+        <v>1526</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1563</v>
+        <v>1536</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1553</v>
+        <v>1526</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>938</v>
@@ -8061,72 +8070,72 @@
         <v>484</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1555</v>
+        <v>1528</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1563</v>
+        <v>1536</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1555</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B4" t="s">
         <v>1511</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>1512</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1513</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1514</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1515</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>1516</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>1517</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>1518</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>1519</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Q4" t="s">
         <v>1520</v>
       </c>
-      <c r="K4" t="s">
-        <v>1556</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1557</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1558</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1559</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1560</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1561</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>1521</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>1522</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9873,7 +9882,7 @@
         <v>1151</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="306" x14ac:dyDescent="0.2">
@@ -10182,16 +10191,16 @@
         <v>1176</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>1487</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1488</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1489</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>1490</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>1180</v>
@@ -10512,13 +10521,13 @@
         <v>1178</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>1170</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>1178</v>
@@ -10679,16 +10688,16 @@
         <v>1179</v>
       </c>
       <c r="K4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="L4" t="s">
         <v>1493</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>1494</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>1495</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1496</v>
       </c>
       <c r="O4" t="s">
         <v>1183</v>
@@ -11153,7 +11162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B387E90-E3CD-9746-8D43-32F9BE05CBD7}">
   <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11198,25 +11207,25 @@
         <v>819</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>824</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>1459</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1573</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1460</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>491</v>
@@ -11243,7 +11252,7 @@
         <v>332</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>340</v>
@@ -11258,16 +11267,16 @@
         <v>349</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>1462</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>1463</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>357</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>362</v>
@@ -11284,7 +11293,7 @@
         <v>812</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -11296,16 +11305,16 @@
         <v>825</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1571</v>
+        <v>1544</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1572</v>
+        <v>1545</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>488</v>
@@ -11386,16 +11395,16 @@
         <v>826</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1575</v>
+        <v>1548</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1576</v>
+        <v>1549</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>489</v>
@@ -11446,37 +11455,37 @@
     </row>
     <row r="4" spans="1:30" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B4" t="s">
         <v>1466</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="4" t="s">
         <v>1467</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" t="s">
         <v>1468</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1469</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1470</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H4" t="s">
         <v>1471</v>
       </c>
-      <c r="G4" t="s">
-        <v>1477</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1472</v>
-      </c>
       <c r="I4" t="s">
-        <v>1569</v>
+        <v>1542</v>
       </c>
       <c r="J4" t="s">
-        <v>1570</v>
+        <v>1543</v>
       </c>
       <c r="K4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>492</v>
@@ -11994,13 +12003,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1434</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1435</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1436</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>92</v>
@@ -12009,22 +12018,22 @@
         <v>881</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1437</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1438</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>1439</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1440</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1441</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1442</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -12048,7 +12057,7 @@
         <v>882</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1565</v>
+        <v>1538</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>74</v>
@@ -12057,13 +12066,13 @@
         <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1567</v>
+        <v>1540</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>1443</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1444</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -12083,7 +12092,7 @@
         <v>883</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1566</v>
+        <v>1539</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>358</v>
@@ -12092,13 +12101,13 @@
         <v>355</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1568</v>
+        <v>1541</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>1445</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1446</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -12107,37 +12116,37 @@
     </row>
     <row r="4" spans="1:15" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B4" t="s">
         <v>1447</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>1448</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1449</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1450</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1451</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>1452</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>1453</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>1454</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K4" t="s">
         <v>1455</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1478</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12701,7 +12710,7 @@
         <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
@@ -12721,7 +12730,7 @@
         <v>101</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -12741,7 +12750,7 @@
         <v>102</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -12761,7 +12770,7 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12846,167 +12855,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:A28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13048,7 +12902,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -13059,7 +12913,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -13665,13 +13519,13 @@
         <v>204</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AD3" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>1497</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>1498</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>220</v>
@@ -14232,13 +14086,13 @@
         <v>216</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1580</v>
+        <v>1553</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1581</v>
+        <v>1554</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1582</v>
+        <v>1555</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>409</v>
@@ -14423,7 +14277,7 @@
         <v>78</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1583</v>
+        <v>1556</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>74</v>
@@ -14599,22 +14453,22 @@
         <v>403</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>1498</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>1584</v>
+        <v>1557</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>1497</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>1498</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>411</v>
@@ -14791,13 +14645,13 @@
         <v>408</v>
       </c>
       <c r="V4" t="s">
-        <v>1577</v>
+        <v>1550</v>
       </c>
       <c r="W4" t="s">
-        <v>1578</v>
+        <v>1551</v>
       </c>
       <c r="X4" t="s">
-        <v>1579</v>
+        <v>1552</v>
       </c>
       <c r="Y4" t="s">
         <v>412</v>
@@ -15157,7 +15011,7 @@
         <v>599</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>319</v>
@@ -15689,7 +15543,7 @@
         <v>600</v>
       </c>
       <c r="AR4" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AS4" t="s">
         <v>321</v>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wteh/Documents/Schema-change-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29226B4-C33D-DD4C-97F2-69C68950EC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D979D1-9C3C-5245-9FF6-7E1B0AF8EC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14060" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -4761,16 +4761,16 @@
     <t>Enter ‘Yes’ if this project is one of the HCA Tissue Atlases and it integrates data from all other datasets. Enter ‘No’, if this project's data is being integrated.</t>
   </si>
   <si>
-    <t>project.hca_bionetwork.hca_tissue_atlas</t>
-  </si>
-  <si>
-    <t>project.hca_bionetwork.hca_tissue_atlas_version</t>
-  </si>
-  <si>
-    <t>project.hca_bionetwork.atlas_project</t>
-  </si>
-  <si>
-    <t>project.hca_bionetwork.name</t>
+    <t>project.hca_bionetworks.name</t>
+  </si>
+  <si>
+    <t>project.hca_bionetworks.hca_tissue_atlas</t>
+  </si>
+  <si>
+    <t>project.hca_bionetworks.hca_tissue_atlas_version</t>
+  </si>
+  <si>
+    <t>project.hca_bionetworks.atlas_project</t>
   </si>
 </sst>
 </file>
@@ -5278,7 +5278,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="272" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5416,16 +5416,16 @@
         <v>1478</v>
       </c>
       <c r="M4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="P4" t="s">
         <v>1573</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idazucchi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F98B85-8D9C-024A-BA8F-18687994C95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D871456-7713-ED45-9213-36111E3D072D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" firstSheet="22" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,25 @@
     <sheet name="Imaging protocol - Probe" sheetId="26" r:id="rId29"/>
     <sheet name="Familial relationship" sheetId="27" r:id="rId30"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="1594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="1603">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4831,6 +4844,33 @@
   </si>
   <si>
     <t>cell_line.biomaterial_core.timecourse.relevance</t>
+  </si>
+  <si>
+    <t>analysis_protocol.alignment_software</t>
+  </si>
+  <si>
+    <t>Name of alignment software used to map FASTQ files to reference genome.</t>
+  </si>
+  <si>
+    <t>ALIGNMENT SOFTWARE</t>
+  </si>
+  <si>
+    <t>For example: Cellranger; kallisto bustools; GSNAP; STAR</t>
+  </si>
+  <si>
+    <t>For example: enzymatic dissociation; blood draw</t>
+  </si>
+  <si>
+    <t>ALIGNMENT SOFTWARE VERSION</t>
+  </si>
+  <si>
+    <t>Version of alignment software used to map FASTQ files to reference genome.</t>
+  </si>
+  <si>
+    <t>For example: v2.0.1; 2.4.2a; v0.45.2</t>
+  </si>
+  <si>
+    <t>analysis_protocol.alignment_software_version</t>
   </si>
 </sst>
 </file>
@@ -5239,9 +5279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5304,7 +5342,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5354,7 +5392,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="170" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5404,7 +5442,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5454,7 +5492,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5483,9 +5521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:CC5"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BE5" sqref="BE5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5769,7 +5805,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:81" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -6014,7 +6050,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:81" ht="170" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:81" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6245,7 +6281,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>696</v>
       </c>
@@ -6584,9 +6620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6671,7 +6705,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>798</v>
       </c>
@@ -6742,7 +6776,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>799</v>
       </c>
@@ -6807,7 +6841,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>800</v>
       </c>
@@ -6914,9 +6948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7031,7 +7063,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>798</v>
       </c>
@@ -7126,7 +7158,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>799</v>
       </c>
@@ -7213,7 +7245,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>822</v>
       </c>
@@ -7443,7 +7475,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>798</v>
       </c>
@@ -7517,7 +7549,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>799</v>
       </c>
@@ -7583,7 +7615,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>853</v>
       </c>
@@ -7754,7 +7786,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -7801,7 +7833,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -7844,7 +7876,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>485</v>
       </c>
@@ -7919,9 +7951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2F1E06-C83F-9240-A431-D0EEE8C93825}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7995,7 +8025,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -8054,7 +8084,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -8109,7 +8139,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1500</v>
       </c>
@@ -8260,7 +8290,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -8307,7 +8337,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -8350,7 +8380,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>593</v>
       </c>
@@ -8498,7 +8528,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -8557,7 +8587,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -8612,7 +8642,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>666</v>
       </c>
@@ -8703,9 +8733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8758,7 +8786,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -8796,7 +8824,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -8830,7 +8858,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>595</v>
       </c>
@@ -8931,7 +8959,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -8957,7 +8985,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -8979,7 +9007,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>664</v>
       </c>
@@ -9073,7 +9101,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -9111,7 +9139,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -9149,7 +9177,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -9284,7 +9312,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -9337,7 +9365,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -9386,7 +9414,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>796</v>
       </c>
@@ -9566,7 +9594,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -9643,7 +9671,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -9716,7 +9744,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>694</v>
       </c>
@@ -9915,7 +9943,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -9980,7 +10008,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -10041,7 +10069,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>861</v>
       </c>
@@ -10140,9 +10168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10189,7 +10215,7 @@
     <col min="55" max="55" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="4" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>849</v>
       </c>
@@ -10356,7 +10382,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="142" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -10523,7 +10549,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="142" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -10686,7 +10712,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="4" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>850</v>
       </c>
@@ -10921,9 +10947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10997,7 +11021,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -11053,7 +11077,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="221" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -11105,7 +11129,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>852</v>
       </c>
@@ -11192,9 +11216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B387E90-E3CD-9746-8D43-32F9BE05CBD7}">
   <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11223,7 +11245,7 @@
     <col min="31" max="31" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>797</v>
       </c>
@@ -11315,7 +11337,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>798</v>
       </c>
@@ -11407,7 +11429,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>799</v>
       </c>
@@ -11483,7 +11505,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1455</v>
       </c>
@@ -12008,30 +12030,31 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D194D221-20CF-2E41-90C4-A993C89EE7F6}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="84.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.6640625" customWidth="1"/>
-    <col min="15" max="17" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="10" width="24.1640625" customWidth="1"/>
+    <col min="11" max="11" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.6640625" customWidth="1"/>
+    <col min="17" max="19" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1423</v>
       </c>
@@ -12057,20 +12080,26 @@
         <v>1428</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>1429</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1430</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1431</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -12096,20 +12125,26 @@
         <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>1433</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -12128,23 +12163,29 @@
         <v>353</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>350</v>
+        <v>1598</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>1435</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1436</v>
       </c>
@@ -12170,16 +12211,22 @@
         <v>1443</v>
       </c>
       <c r="I4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="K4" t="s">
         <v>1444</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>1467</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -12197,6 +12244,8 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12234,7 +12283,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>458</v>
       </c>
@@ -12254,7 +12303,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>459</v>
       </c>
@@ -12274,7 +12323,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1319</v>
       </c>
@@ -12347,7 +12396,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1326</v>
       </c>
@@ -12370,7 +12419,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1327</v>
       </c>
@@ -12393,7 +12442,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1328</v>
       </c>
@@ -12436,9 +12485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12512,7 +12559,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1353</v>
       </c>
@@ -12568,7 +12615,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1354</v>
       </c>
@@ -12624,7 +12671,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1355</v>
       </c>
@@ -12711,9 +12758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12743,7 +12788,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -12763,7 +12808,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -12783,7 +12828,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -12840,7 +12885,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1404</v>
       </c>
@@ -12851,7 +12896,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1405</v>
       </c>
@@ -12862,7 +12907,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1406</v>
       </c>
@@ -12889,9 +12934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12910,7 +12953,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>105</v>
       </c>
@@ -12921,7 +12964,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>106</v>
       </c>
@@ -12932,7 +12975,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -12943,7 +12986,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -12959,9 +13002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BY5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BF3" sqref="BF3:BF5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13236,7 +13277,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:77" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:77" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -13469,7 +13510,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:77" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:77" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -13690,7 +13731,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:77" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -14013,9 +14054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BP5"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AP4" sqref="AO4:AP4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14261,7 +14300,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -14467,7 +14506,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:68" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14659,7 +14698,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>366</v>
       </c>
@@ -14946,9 +14985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BM5"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS4" sqref="AS4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15180,7 +15217,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -15377,7 +15414,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="170" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -15560,7 +15597,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>487</v>
       </c>
@@ -15835,9 +15872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16036,7 +16071,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -16203,7 +16238,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -16356,7 +16391,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>597</v>
       </c>
@@ -16591,9 +16626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R4" sqref="Q4:R4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16730,7 +16763,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -16843,7 +16876,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -16942,7 +16975,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:37" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>668</v>
       </c>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D871456-7713-ED45-9213-36111E3D072D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF8F470-D25B-884E-AE9F-0AF65A8CF66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" firstSheet="22" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10480" yWindow="5840" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="1603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="1598">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -1820,21 +1820,6 @@
   </si>
   <si>
     <t>cell_suspension.plate_based_sequencing.well_quality</t>
-  </si>
-  <si>
-    <t>cell_suspension.timecourse.value</t>
-  </si>
-  <si>
-    <t>cell_suspension.timecourse.unit.text</t>
-  </si>
-  <si>
-    <t>cell_suspension.timecourse.unit.ontology</t>
-  </si>
-  <si>
-    <t>cell_suspension.timecourse.unit.ontology_label</t>
-  </si>
-  <si>
-    <t>cell_suspension.timecourse.relevance</t>
   </si>
   <si>
     <t>INPUT SPECIMEN FROM ORGANISM ID (Required)</t>
@@ -5279,7 +5264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5321,25 +5306,25 @@
         <v>33</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>570</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -5371,25 +5356,25 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -5421,25 +5406,25 @@
         <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5471,25 +5456,25 @@
         <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="K4" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="L4" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="M4" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="N4" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="O4" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="P4" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5562,13 +5547,13 @@
   <sheetData>
     <row r="1" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>125</v>
@@ -5589,37 +5574,37 @@
         <v>145</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>732</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>498</v>
@@ -5670,40 +5655,40 @@
         <v>552</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>784</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>172</v>
@@ -5745,16 +5730,16 @@
         <v>311</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="BN1" s="1" t="s">
         <v>314</v>
@@ -5834,19 +5819,19 @@
         <v>146</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>74</v>
@@ -5855,7 +5840,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>382</v>
@@ -5915,7 +5900,7 @@
         <v>553</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>285</v>
@@ -5927,7 +5912,7 @@
         <v>78</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>382</v>
@@ -5939,10 +5924,10 @@
         <v>78</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>74</v>
@@ -5951,7 +5936,7 @@
         <v>78</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>74</v>
@@ -6073,28 +6058,28 @@
         <v>147</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>383</v>
@@ -6154,7 +6139,7 @@
         <v>554</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>568</v>
@@ -6166,7 +6151,7 @@
         <v>568</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="AP3" s="2" t="s">
         <v>398</v>
@@ -6178,16 +6163,16 @@
         <v>398</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="AW3" s="2" t="s">
         <v>174</v>
@@ -6283,199 +6268,199 @@
     </row>
     <row r="4" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C4" t="s">
+        <v>695</v>
+      </c>
+      <c r="D4" t="s">
         <v>696</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F4" t="s">
         <v>698</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
+        <v>699</v>
+      </c>
+      <c r="H4" t="s">
         <v>700</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>701</v>
       </c>
-      <c r="E4" t="s">
-        <v>702</v>
-      </c>
-      <c r="F4" t="s">
-        <v>703</v>
-      </c>
-      <c r="G4" t="s">
-        <v>704</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>705</v>
       </c>
-      <c r="I4" t="s">
-        <v>706</v>
-      </c>
-      <c r="J4" t="s">
-        <v>710</v>
-      </c>
       <c r="K4" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="L4" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="M4" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="N4" t="s">
+        <v>721</v>
+      </c>
+      <c r="O4" t="s">
+        <v>724</v>
+      </c>
+      <c r="P4" t="s">
         <v>726</v>
       </c>
-      <c r="O4" t="s">
-        <v>729</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
+        <v>730</v>
+      </c>
+      <c r="R4" t="s">
         <v>731</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
+        <v>732</v>
+      </c>
+      <c r="T4" t="s">
+        <v>733</v>
+      </c>
+      <c r="U4" t="s">
+        <v>734</v>
+      </c>
+      <c r="V4" t="s">
         <v>735</v>
       </c>
-      <c r="R4" t="s">
+      <c r="W4" t="s">
         <v>736</v>
       </c>
-      <c r="S4" t="s">
+      <c r="X4" t="s">
         <v>737</v>
       </c>
-      <c r="T4" t="s">
+      <c r="Y4" t="s">
         <v>738</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Z4" t="s">
         <v>739</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AA4" t="s">
         <v>740</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AB4" t="s">
         <v>741</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AC4" t="s">
         <v>742</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AD4" t="s">
         <v>743</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AE4" t="s">
         <v>744</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AF4" t="s">
         <v>745</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AG4" t="s">
         <v>746</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AH4" t="s">
         <v>747</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AI4" t="s">
         <v>748</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AJ4" t="s">
         <v>749</v>
       </c>
-      <c r="AF4" t="s">
-        <v>750</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>751</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>752</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
         <v>753</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>754</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>758</v>
-      </c>
       <c r="AL4" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="AM4" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="AN4" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="AO4" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="AP4" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="AQ4" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="AR4" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="AS4" t="s">
+        <v>773</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>776</v>
+      </c>
+      <c r="AU4" t="s">
         <v>778</v>
       </c>
-      <c r="AT4" t="s">
-        <v>781</v>
-      </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
+        <v>780</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX4" t="s">
         <v>783</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AY4" t="s">
+        <v>784</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>785</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="BA4" t="s">
+        <v>786</v>
+      </c>
+      <c r="BB4" t="s">
         <v>787</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BC4" t="s">
         <v>788</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BD4" t="s">
         <v>789</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>790</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>791</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>792</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>793</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>794</v>
-      </c>
       <c r="BE4" t="s">
-        <v>1584</v>
+        <v>1579</v>
       </c>
       <c r="BF4" t="s">
-        <v>1585</v>
+        <v>1580</v>
       </c>
       <c r="BG4" t="s">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="BH4" t="s">
-        <v>1587</v>
+        <v>1582</v>
       </c>
       <c r="BI4" t="s">
-        <v>1593</v>
+        <v>1588</v>
       </c>
       <c r="BJ4" t="s">
         <v>366</v>
       </c>
       <c r="BK4" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="BL4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="BM4" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="BN4" t="s">
         <v>316</v>
@@ -6636,25 +6621,25 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>814</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>314</v>
@@ -6707,13 +6692,13 @@
     </row>
     <row r="2" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -6722,10 +6707,10 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>315</v>
@@ -6778,25 +6763,25 @@
     </row>
     <row r="3" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -6843,25 +6828,25 @@
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B4" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C4" t="s">
+        <v>803</v>
+      </c>
+      <c r="D4" t="s">
+        <v>806</v>
+      </c>
+      <c r="E4" t="s">
         <v>808</v>
       </c>
-      <c r="D4" t="s">
-        <v>811</v>
-      </c>
-      <c r="E4" t="s">
-        <v>813</v>
-      </c>
       <c r="F4" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G4" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="H4" t="s">
         <v>316</v>
@@ -6970,49 +6955,49 @@
   <sheetData>
     <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>814</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>849</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>314</v>
@@ -7065,13 +7050,13 @@
     </row>
     <row r="2" spans="1:31" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -7080,25 +7065,25 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>117</v>
@@ -7160,40 +7145,40 @@
     </row>
     <row r="3" spans="1:31" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
@@ -7247,49 +7232,49 @@
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B4" t="s">
+        <v>818</v>
+      </c>
+      <c r="C4" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4" t="s">
+        <v>820</v>
+      </c>
+      <c r="E4" t="s">
+        <v>821</v>
+      </c>
+      <c r="F4" t="s">
         <v>822</v>
       </c>
-      <c r="B4" t="s">
-        <v>823</v>
-      </c>
-      <c r="C4" t="s">
-        <v>824</v>
-      </c>
-      <c r="D4" t="s">
-        <v>825</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H4" t="s">
         <v>826</v>
       </c>
-      <c r="F4" t="s">
-        <v>827</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1527</v>
-      </c>
-      <c r="H4" t="s">
-        <v>831</v>
-      </c>
       <c r="I4" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="J4" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="K4" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="L4" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="M4" t="s">
         <v>487</v>
       </c>
       <c r="N4" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="O4" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="P4" t="s">
         <v>316</v>
@@ -7403,28 +7388,28 @@
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>814</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>314</v>
@@ -7477,13 +7462,13 @@
     </row>
     <row r="2" spans="1:24" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -7492,7 +7477,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>117</v>
@@ -7551,22 +7536,22 @@
     </row>
     <row r="3" spans="1:24" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
@@ -7617,28 +7602,28 @@
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E4" t="s">
+        <v>852</v>
+      </c>
+      <c r="F4" t="s">
         <v>853</v>
       </c>
-      <c r="B4" t="s">
-        <v>854</v>
-      </c>
-      <c r="C4" t="s">
-        <v>855</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>663</v>
+      </c>
+      <c r="H4" t="s">
         <v>856</v>
-      </c>
-      <c r="E4" t="s">
-        <v>857</v>
-      </c>
-      <c r="F4" t="s">
-        <v>858</v>
-      </c>
-      <c r="G4" t="s">
-        <v>668</v>
-      </c>
-      <c r="H4" t="s">
-        <v>861</v>
       </c>
       <c r="I4" t="s">
         <v>316</v>
@@ -7744,46 +7729,46 @@
         <v>482</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>890</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -7791,19 +7776,19 @@
         <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>349</v>
@@ -7840,13 +7825,13 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>350</v>
@@ -7881,46 +7866,46 @@
         <v>485</v>
       </c>
       <c r="B4" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C4" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="D4" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E4" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="F4" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G4" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="H4" t="s">
+        <v>877</v>
+      </c>
+      <c r="I4" t="s">
+        <v>879</v>
+      </c>
+      <c r="J4" t="s">
+        <v>881</v>
+      </c>
+      <c r="K4" t="s">
         <v>882</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>884</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>886</v>
       </c>
-      <c r="K4" t="s">
-        <v>887</v>
-      </c>
-      <c r="L4" t="s">
-        <v>889</v>
-      </c>
-      <c r="M4" t="s">
-        <v>891</v>
-      </c>
       <c r="N4" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="O4" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7968,61 +7953,61 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>1494</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1497</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1498</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -8030,31 +8015,31 @@
         <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>458</v>
@@ -8075,10 +8060,10 @@
         <v>478</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>78</v>
@@ -8091,25 +8076,25 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>459</v>
@@ -8130,72 +8115,72 @@
         <v>479</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F4" t="s">
         <v>1500</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>1501</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>1502</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>1503</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>1504</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="Q4" t="s">
         <v>1505</v>
       </c>
-      <c r="G4" t="s">
+      <c r="R4" t="s">
         <v>1506</v>
       </c>
-      <c r="H4" t="s">
+      <c r="S4" t="s">
         <v>1507</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1508</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1509</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1519</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1521</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1522</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1524</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1510</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1511</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8245,49 +8230,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>890</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -8295,19 +8280,19 @@
         <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>349</v>
@@ -8344,13 +8329,13 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>350</v>
@@ -8382,49 +8367,49 @@
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C4" t="s">
+        <v>894</v>
+      </c>
+      <c r="D4" t="s">
+        <v>895</v>
+      </c>
+      <c r="E4" t="s">
+        <v>896</v>
+      </c>
+      <c r="F4" t="s">
         <v>897</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>899</v>
       </c>
-      <c r="D4" t="s">
-        <v>900</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>901</v>
       </c>
-      <c r="F4" t="s">
-        <v>902</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>903</v>
+      </c>
+      <c r="J4" t="s">
         <v>904</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
+        <v>905</v>
+      </c>
+      <c r="L4" t="s">
         <v>906</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
+        <v>907</v>
+      </c>
+      <c r="N4" t="s">
         <v>908</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>909</v>
-      </c>
-      <c r="K4" t="s">
-        <v>910</v>
-      </c>
-      <c r="L4" t="s">
-        <v>911</v>
-      </c>
-      <c r="M4" t="s">
-        <v>912</v>
-      </c>
-      <c r="N4" t="s">
-        <v>913</v>
-      </c>
-      <c r="O4" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8471,61 +8456,61 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>890</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -8533,31 +8518,31 @@
         <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>458</v>
@@ -8578,13 +8563,13 @@
         <v>478</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -8594,25 +8579,25 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>459</v>
@@ -8633,72 +8618,72 @@
         <v>479</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B4" t="s">
+        <v>911</v>
+      </c>
+      <c r="C4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D4" t="s">
+        <v>914</v>
+      </c>
+      <c r="E4" t="s">
+        <v>915</v>
+      </c>
+      <c r="F4" t="s">
         <v>916</v>
       </c>
-      <c r="C4" t="s">
-        <v>918</v>
-      </c>
-      <c r="D4" t="s">
-        <v>919</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>920</v>
       </c>
-      <c r="F4" t="s">
-        <v>921</v>
-      </c>
-      <c r="G4" t="s">
-        <v>925</v>
-      </c>
       <c r="H4" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="I4" t="s">
+        <v>928</v>
+      </c>
+      <c r="J4" t="s">
+        <v>932</v>
+      </c>
+      <c r="K4" t="s">
         <v>933</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
+        <v>934</v>
+      </c>
+      <c r="M4" t="s">
+        <v>935</v>
+      </c>
+      <c r="N4" t="s">
+        <v>936</v>
+      </c>
+      <c r="O4" t="s">
         <v>937</v>
       </c>
-      <c r="K4" t="s">
+      <c r="P4" t="s">
         <v>938</v>
       </c>
-      <c r="L4" t="s">
-        <v>939</v>
-      </c>
-      <c r="M4" t="s">
-        <v>940</v>
-      </c>
-      <c r="N4" t="s">
-        <v>941</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>942</v>
       </c>
-      <c r="P4" t="s">
-        <v>943</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>947</v>
-      </c>
       <c r="R4" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="S4" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8750,40 +8735,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -8791,19 +8776,19 @@
         <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>349</v>
@@ -8815,13 +8800,13 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -8831,13 +8816,13 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>350</v>
@@ -8849,51 +8834,51 @@
         <v>350</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D4" t="s">
+        <v>955</v>
+      </c>
+      <c r="E4" t="s">
+        <v>956</v>
+      </c>
+      <c r="F4" t="s">
         <v>957</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>959</v>
       </c>
-      <c r="D4" t="s">
-        <v>960</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>961</v>
       </c>
-      <c r="F4" t="s">
-        <v>962</v>
-      </c>
-      <c r="G4" t="s">
-        <v>964</v>
-      </c>
-      <c r="H4" t="s">
-        <v>966</v>
-      </c>
       <c r="I4" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="J4" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="K4" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="L4" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8935,28 +8920,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -8964,25 +8949,25 @@
         <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -8992,45 +8977,45 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B4" t="s">
+        <v>977</v>
+      </c>
+      <c r="C4" t="s">
+        <v>979</v>
+      </c>
+      <c r="D4" t="s">
+        <v>980</v>
+      </c>
+      <c r="E4" t="s">
+        <v>981</v>
+      </c>
+      <c r="F4" t="s">
         <v>982</v>
       </c>
-      <c r="C4" t="s">
-        <v>984</v>
-      </c>
-      <c r="D4" t="s">
-        <v>985</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>986</v>
       </c>
-      <c r="F4" t="s">
-        <v>987</v>
-      </c>
-      <c r="G4" t="s">
-        <v>991</v>
-      </c>
       <c r="H4" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9261,55 +9246,55 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -9317,25 +9302,25 @@
         <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>458</v>
@@ -9356,13 +9341,13 @@
         <v>478</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -9372,19 +9357,19 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>459</v>
@@ -9405,66 +9390,66 @@
         <v>479</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B4" t="s">
+        <v>992</v>
+      </c>
+      <c r="C4" t="s">
+        <v>994</v>
+      </c>
+      <c r="D4" t="s">
+        <v>995</v>
+      </c>
+      <c r="E4" t="s">
+        <v>996</v>
+      </c>
+      <c r="F4" t="s">
         <v>997</v>
       </c>
-      <c r="C4" t="s">
-        <v>999</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>1001</v>
       </c>
-      <c r="F4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1006</v>
-      </c>
       <c r="H4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="I4" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="J4" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="K4" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="L4" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="M4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="N4" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="O4" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="P4" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="Q4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9519,43 +9504,43 @@
   <sheetData>
     <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1058</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>436</v>
@@ -9576,22 +9561,22 @@
         <v>450</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -9599,31 +9584,31 @@
         <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>194</v>
@@ -9653,7 +9638,7 @@
         <v>451</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>194</v>
@@ -9665,10 +9650,10 @@
         <v>78</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -9678,22 +9663,22 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>442</v>
@@ -9726,7 +9711,7 @@
         <v>452</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>195</v>
@@ -9738,87 +9723,87 @@
         <v>195</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F4" t="s">
         <v>1036</v>
       </c>
-      <c r="C4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>1040</v>
       </c>
-      <c r="F4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1045</v>
-      </c>
       <c r="H4" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="I4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K4" t="s">
         <v>1052</v>
       </c>
-      <c r="J4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N4" t="s">
         <v>1057</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="P4" t="s">
         <v>1059</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R4" t="s">
         <v>1061</v>
       </c>
-      <c r="N4" t="s">
+      <c r="S4" t="s">
         <v>1062</v>
       </c>
-      <c r="O4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>1066</v>
       </c>
-      <c r="S4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="T4" t="s">
-        <v>1071</v>
-      </c>
       <c r="U4" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="V4" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="W4" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="X4" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="Y4" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9880,67 +9865,67 @@
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1106</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -9948,25 +9933,25 @@
         <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>74</v>
@@ -9975,37 +9960,37 @@
         <v>78</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -10015,55 +10000,55 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>67</v>
@@ -10071,67 +10056,67 @@
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F4" t="s">
         <v>1087</v>
       </c>
-      <c r="C4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>1091</v>
       </c>
-      <c r="F4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1096</v>
-      </c>
       <c r="H4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J4" t="s">
         <v>1100</v>
       </c>
-      <c r="I4" t="s">
-        <v>1103</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1105</v>
-      </c>
       <c r="K4" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="L4" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="M4" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="N4" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="O4" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="P4" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="Q4" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="R4" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="S4" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="T4" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="U4" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10217,169 +10202,169 @@
   <sheetData>
     <row r="1" spans="1:55" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>1192</v>
-      </c>
       <c r="W1" s="3" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="AP1" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AR1" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="AR1" s="3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1245</v>
-      </c>
       <c r="AT1" s="3" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="AU1" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AW1" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="AV1" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AY1" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="AX1" s="3" t="s">
-        <v>1257</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>1259</v>
-      </c>
       <c r="AZ1" s="3" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -10387,46 +10372,46 @@
         <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>74</v>
@@ -10435,7 +10420,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>349</v>
@@ -10483,13 +10468,13 @@
         <v>478</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>458</v>
@@ -10510,19 +10495,19 @@
         <v>478</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="AV2" s="2" t="s">
         <v>349</v>
@@ -10543,10 +10528,10 @@
         <v>78</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -10556,58 +10541,58 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>459</v>
@@ -10646,13 +10631,13 @@
         <v>479</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>459</v>
@@ -10673,210 +10658,210 @@
         <v>479</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F4" t="s">
         <v>1148</v>
       </c>
-      <c r="C4" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>1152</v>
       </c>
-      <c r="F4" t="s">
-        <v>1153</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1157</v>
-      </c>
       <c r="H4" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="I4" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="J4" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="K4" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="L4" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="M4" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="N4" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="O4" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="P4" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="Q4" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="R4" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="S4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="U4" t="s">
         <v>1186</v>
       </c>
-      <c r="T4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="U4" t="s">
-        <v>1191</v>
-      </c>
       <c r="V4" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="W4" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="X4" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="Y4" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="Z4" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="AA4" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="AB4" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="AC4" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="AD4" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="AE4" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="AF4" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="AG4" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="AH4" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="AI4" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="AJ4" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="AK4" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="AL4" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="AM4" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="AN4" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="AO4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>1237</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AR4" t="s">
         <v>1239</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>1244</v>
-      </c>
       <c r="AS4" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="AT4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="AV4" t="s">
         <v>1248</v>
       </c>
-      <c r="AU4" t="s">
-        <v>1250</v>
-      </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AX4" t="s">
         <v>1253</v>
       </c>
-      <c r="AW4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>1258</v>
-      </c>
       <c r="AY4" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="BA4" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="BB4" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="BC4" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="5" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10967,58 +10952,58 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1287</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1289</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1305</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -11026,22 +11011,22 @@
         <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>74</v>
@@ -11050,10 +11035,10 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>349</v>
@@ -11065,16 +11050,16 @@
         <v>78</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -11084,43 +11069,43 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>228</v>
@@ -11131,58 +11116,58 @@
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F4" t="s">
         <v>1274</v>
       </c>
-      <c r="C4" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>1278</v>
       </c>
-      <c r="F4" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I4" t="s">
         <v>1283</v>
       </c>
-      <c r="H4" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1288</v>
-      </c>
       <c r="J4" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="K4" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="L4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="N4" t="s">
         <v>1299</v>
       </c>
-      <c r="M4" t="s">
-        <v>1302</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1304</v>
-      </c>
       <c r="O4" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="P4" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="Q4" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="R4" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11247,46 +11232,46 @@
   <sheetData>
     <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>814</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>486</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>314</v>
@@ -11304,7 +11289,7 @@
         <v>327</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>335</v>
@@ -11319,16 +11304,16 @@
         <v>344</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>352</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>357</v>
@@ -11339,13 +11324,13 @@
     </row>
     <row r="2" spans="1:30" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -11354,19 +11339,19 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>483</v>
@@ -11431,32 +11416,32 @@
     </row>
     <row r="3" spans="1:30" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>484</v>
@@ -11507,46 +11492,46 @@
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F4" t="s">
         <v>1455</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H4" t="s">
         <v>1456</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1460</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1466</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1461</v>
-      </c>
       <c r="I4" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="J4" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="K4" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>487</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="N4" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="O4" t="s">
         <v>316</v>
@@ -12032,7 +12017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D194D221-20CF-2E41-90C4-A993C89EE7F6}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -12056,43 +12041,43 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>1426</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1427</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1428</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1599</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1429</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1430</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1431</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -12104,19 +12089,19 @@
         <v>483</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>74</v>
@@ -12125,19 +12110,19 @@
         <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>1600</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -12151,34 +12136,34 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>353</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1598</v>
+        <v>1593</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -12187,43 +12172,43 @@
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F4" t="s">
         <v>1436</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>1437</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>1438</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K4" t="s">
         <v>1439</v>
       </c>
-      <c r="E4" t="s">
+      <c r="L4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="M4" t="s">
         <v>1440</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1441</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1442</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1443</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1594</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1602</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1444</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1467</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12265,22 +12250,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>890</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -12325,22 +12310,22 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F4" t="s">
         <v>1319</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12375,94 +12360,94 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="B4" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="C4" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="D4" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="E4" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="F4" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="G4" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12505,78 +12490,78 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1381</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>74</v>
@@ -12612,33 +12597,33 @@
         <v>78</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>459</v>
@@ -12668,63 +12653,63 @@
         <v>350</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="B4" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="C4" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="D4" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="E4" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="F4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H4" t="s">
         <v>1375</v>
       </c>
-      <c r="G4" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1380</v>
-      </c>
       <c r="I4" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="J4" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="K4" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="L4" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="M4" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="N4" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="O4" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="P4" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="Q4" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="R4" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12785,7 +12770,7 @@
         <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -12805,7 +12790,7 @@
         <v>101</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -12825,7 +12810,7 @@
         <v>102</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12845,7 +12830,7 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12876,46 +12861,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="B4" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="C4" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -13590,13 +13575,13 @@
         <v>204</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>220</v>
@@ -13901,19 +13886,19 @@
         <v>304</v>
       </c>
       <c r="BE4" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="BF4" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="BG4" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="BH4" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="BI4" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="BJ4" t="s">
         <v>316</v>
@@ -14159,13 +14144,13 @@
         <v>216</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>404</v>
@@ -14365,7 +14350,7 @@
         <v>78</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>74</v>
@@ -14556,22 +14541,22 @@
         <v>398</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>406</v>
@@ -14763,13 +14748,13 @@
         <v>403</v>
       </c>
       <c r="V4" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="W4" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="X4" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="Y4" t="s">
         <v>407</v>
@@ -14814,19 +14799,19 @@
         <v>453</v>
       </c>
       <c r="AM4" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="AN4" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="AO4" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="AP4" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="AQ4" t="s">
-        <v>1590</v>
+        <v>1585</v>
       </c>
       <c r="AR4" t="s">
         <v>456</v>
@@ -14983,7 +14968,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BM5"/>
+  <dimension ref="A1:BH5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -15005,22 +14990,18 @@
     <col min="34" max="34" width="25.6640625" customWidth="1"/>
     <col min="35" max="36" width="0" hidden="1" customWidth="1"/>
     <col min="37" max="40" width="25.6640625" customWidth="1"/>
-    <col min="41" max="41" width="27.6640625" customWidth="1"/>
-    <col min="42" max="42" width="26.6640625" customWidth="1"/>
-    <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="25.6640625" customWidth="1"/>
-    <col min="46" max="46" width="42.6640625" customWidth="1"/>
-    <col min="47" max="47" width="35.6640625" customWidth="1"/>
-    <col min="48" max="49" width="33.6640625" customWidth="1"/>
-    <col min="50" max="58" width="25.6640625" customWidth="1"/>
-    <col min="59" max="60" width="0" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="25.6640625" customWidth="1"/>
-    <col min="62" max="63" width="0" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="25.6640625" customWidth="1"/>
-    <col min="65" max="65" width="37.6640625" customWidth="1"/>
+    <col min="41" max="41" width="42.6640625" customWidth="1"/>
+    <col min="42" max="42" width="35.6640625" customWidth="1"/>
+    <col min="43" max="44" width="33.6640625" customWidth="1"/>
+    <col min="45" max="53" width="25.6640625" customWidth="1"/>
+    <col min="54" max="55" width="0" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="25.6640625" customWidth="1"/>
+    <col min="57" max="58" width="0" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="25.6640625" customWidth="1"/>
+    <col min="60" max="60" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>486</v>
       </c>
@@ -15142,82 +15123,67 @@
         <v>582</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>305</v>
+        <v>586</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>308</v>
+        <v>587</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>309</v>
+        <v>589</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>310</v>
+        <v>1486</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>591</v>
+        <v>317</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>592</v>
+        <v>320</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>594</v>
+        <v>323</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>1491</v>
+        <v>327</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="BM1" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -15339,82 +15305,67 @@
         <v>583</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>306</v>
+        <v>117</v>
       </c>
       <c r="AP2" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AS2" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="BD2" s="2" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>339</v>
+        <v>74</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="BM2" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -15529,75 +15480,60 @@
       <c r="AN3" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="AO3" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="BA3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AS3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="BD3" s="2" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>198</v>
+        <v>359</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="BM3" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>487</v>
       </c>
@@ -15626,19 +15562,19 @@
         <v>497</v>
       </c>
       <c r="J4" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="K4" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="L4" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="M4" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="N4" t="s">
-        <v>1591</v>
+        <v>1586</v>
       </c>
       <c r="O4" t="s">
         <v>501</v>
@@ -15719,82 +15655,67 @@
         <v>585</v>
       </c>
       <c r="AO4" t="s">
-        <v>586</v>
+        <v>366</v>
       </c>
       <c r="AP4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AQ4" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AR4" t="s">
-        <v>589</v>
+        <v>1495</v>
       </c>
       <c r="AS4" t="s">
-        <v>590</v>
+        <v>316</v>
       </c>
       <c r="AT4" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="AU4" t="s">
-        <v>593</v>
+        <v>322</v>
       </c>
       <c r="AV4" t="s">
-        <v>595</v>
+        <v>326</v>
       </c>
       <c r="AW4" t="s">
-        <v>1500</v>
+        <v>330</v>
       </c>
       <c r="AX4" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="AY4" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="AZ4" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="BA4" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="BB4" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="BC4" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="BD4" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="BE4" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="BF4" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="BG4" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="BH4" t="s">
-        <v>347</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>351</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>354</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>356</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>360</v>
-      </c>
-      <c r="BM4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -15857,11 +15778,6 @@
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15906,13 +15822,13 @@
   <sheetData>
     <row r="1" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>125</v>
@@ -15957,70 +15873,70 @@
         <v>179</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>639</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>314</v>
@@ -16115,7 +16031,7 @@
         <v>312</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>74</v>
@@ -16142,7 +16058,7 @@
         <v>78</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>194</v>
@@ -16154,7 +16070,7 @@
         <v>78</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>285</v>
@@ -16166,19 +16082,19 @@
         <v>78</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>117</v>
@@ -16303,7 +16219,7 @@
         <v>398</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>195</v>
@@ -16327,19 +16243,19 @@
         <v>286</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2" t="s">
@@ -16393,121 +16309,121 @@
     </row>
     <row r="4" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D4" t="s">
         <v>597</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F4" t="s">
         <v>599</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
+        <v>600</v>
+      </c>
+      <c r="H4" t="s">
         <v>601</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>602</v>
       </c>
-      <c r="E4" t="s">
-        <v>603</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O4" t="s">
         <v>604</v>
       </c>
-      <c r="G4" t="s">
+      <c r="P4" t="s">
         <v>605</v>
       </c>
-      <c r="H4" t="s">
+      <c r="Q4" t="s">
         <v>606</v>
       </c>
-      <c r="I4" t="s">
-        <v>607</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1576</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1577</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1578</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1579</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1588</v>
-      </c>
-      <c r="O4" t="s">
-        <v>609</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
+        <v>608</v>
+      </c>
+      <c r="S4" t="s">
         <v>610</v>
       </c>
-      <c r="Q4" t="s">
-        <v>611</v>
-      </c>
-      <c r="R4" t="s">
-        <v>613</v>
-      </c>
-      <c r="S4" t="s">
-        <v>615</v>
-      </c>
       <c r="T4" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="U4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="V4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="W4" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="X4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="Y4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="Z4" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB4" t="s">
         <v>631</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>633</v>
       </c>
-      <c r="AB4" t="s">
-        <v>636</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>638</v>
-      </c>
       <c r="AD4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AE4" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AF4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AG4" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AH4" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="AI4" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AJ4" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AK4" t="s">
         <v>366</v>
       </c>
       <c r="AL4" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="AM4" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="AN4" t="s">
         <v>316</v>
@@ -16652,13 +16568,13 @@
   <sheetData>
     <row r="1" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>125</v>
@@ -16682,16 +16598,16 @@
         <v>412</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>305</v>
@@ -16709,10 +16625,10 @@
         <v>311</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>314</v>
@@ -16792,13 +16708,13 @@
         <v>146</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>74</v>
@@ -16899,10 +16815,10 @@
         <v>147</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>398</v>
@@ -16977,67 +16893,67 @@
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D4" t="s">
         <v>668</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>669</v>
+      </c>
+      <c r="F4" t="s">
         <v>670</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
+        <v>671</v>
+      </c>
+      <c r="H4" t="s">
         <v>672</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>673</v>
       </c>
-      <c r="E4" t="s">
-        <v>674</v>
-      </c>
-      <c r="F4" t="s">
-        <v>675</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>676</v>
       </c>
-      <c r="H4" t="s">
-        <v>677</v>
-      </c>
-      <c r="I4" t="s">
-        <v>678</v>
-      </c>
-      <c r="J4" t="s">
-        <v>681</v>
-      </c>
       <c r="K4" t="s">
+        <v>680</v>
+      </c>
+      <c r="L4" t="s">
+        <v>683</v>
+      </c>
+      <c r="M4" t="s">
         <v>685</v>
       </c>
-      <c r="L4" t="s">
-        <v>688</v>
-      </c>
-      <c r="M4" t="s">
-        <v>690</v>
-      </c>
       <c r="N4" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="O4" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="P4" t="s">
-        <v>1581</v>
+        <v>1576</v>
       </c>
       <c r="Q4" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="R4" t="s">
-        <v>1583</v>
+        <v>1578</v>
       </c>
       <c r="S4" t="s">
-        <v>1592</v>
+        <v>1587</v>
       </c>
       <c r="T4" t="s">
         <v>366</v>
       </c>
       <c r="U4" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="V4" t="s">
         <v>316</v>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF8F470-D25B-884E-AE9F-0AF65A8CF66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB75E88-1B46-B047-ADC9-D2E3C6E8BE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="5840" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10480" yWindow="5840" windowWidth="30240" windowHeight="17640" firstSheet="19" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="1598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="1602">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4856,6 +4856,18 @@
   </si>
   <si>
     <t>analysis_protocol.alignment_software_version</t>
+  </si>
+  <si>
+    <t>GENE ANNOTATION VERSION</t>
+  </si>
+  <si>
+    <t>analysis_protocol.gene_annotation_version</t>
+  </si>
+  <si>
+    <t>The Ensembl release version accession number or NCBI RefSeq assembly version used for gene annotation.</t>
+  </si>
+  <si>
+    <t>For example: v110; GCF_000001405.40; GCF_000001635.27</t>
   </si>
 </sst>
 </file>
@@ -5264,7 +5276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12015,10 +12029,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D194D221-20CF-2E41-90C4-A993C89EE7F6}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12030,16 +12044,16 @@
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="10" width="24.1640625" customWidth="1"/>
-    <col min="11" max="11" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.6640625" customWidth="1"/>
-    <col min="13" max="13" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.6640625" customWidth="1"/>
-    <col min="17" max="19" width="8.83203125" customWidth="1"/>
+    <col min="9" max="11" width="24.1640625" customWidth="1"/>
+    <col min="12" max="12" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.6640625" customWidth="1"/>
+    <col min="14" max="14" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.6640625" customWidth="1"/>
+    <col min="18" max="20" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1418</v>
       </c>
@@ -12071,20 +12085,23 @@
         <v>1594</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>1424</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1425</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1426</v>
       </c>
-      <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>483</v>
       </c>
@@ -12116,20 +12133,23 @@
         <v>1595</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>484</v>
       </c>
@@ -12157,20 +12177,23 @@
         <v>1596</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1431</v>
       </c>
@@ -12202,16 +12225,19 @@
         <v>1597</v>
       </c>
       <c r="K4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L4" t="s">
         <v>1439</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>1462</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -12231,6 +12257,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14970,7 +14997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BH5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AO1:AS1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idazucchi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB75E88-1B46-B047-ADC9-D2E3C6E8BE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F8BEA9-58E8-0B4F-9692-CCD481123F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="5840" windowWidth="30240" windowHeight="17640" firstSheet="19" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="1602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="1606">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4868,6 +4868,18 @@
   </si>
   <si>
     <t>For example: v110; GCF_000001405.40; GCF_000001635.27</t>
+  </si>
+  <si>
+    <t>DATA USE RESTRICTION</t>
+  </si>
+  <si>
+    <t>Data use restrictions that apply to the project.</t>
+  </si>
+  <si>
+    <t>Must be one of: NRES, GRU, GRU-NCU. The use restriction codes are based on the DUO ontology where NRES corresponds to DUO:0000004, GRU corresponds to DUO:0000042, GRU-NCU corresponds to a combination of DUO:0000042 and DUO:0000046</t>
+  </si>
+  <si>
+    <t>project.data_use_restriction</t>
   </si>
 </sst>
 </file>
@@ -5274,10 +5286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5288,10 +5300,11 @@
     <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" customWidth="1"/>
+    <col min="14" max="17" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5329,19 +5342,22 @@
         <v>570</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1549</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5379,19 +5395,22 @@
         <v>1464</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>1544</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5429,19 +5448,22 @@
         <v>1465</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>1551</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5479,19 +5501,22 @@
         <v>1463</v>
       </c>
       <c r="M4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="N4" t="s">
         <v>1555</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>1556</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>1557</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5510,6 +5535,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12031,7 +12057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D194D221-20CF-2E41-90C4-A993C89EE7F6}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idazucchi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F8BEA9-58E8-0B4F-9692-CCD481123F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4E7F72-8B31-EF4D-B6F4-7B51A24CBA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="73940" yWindow="-920" windowWidth="27800" windowHeight="19200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="1611">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -1252,18 +1252,12 @@
     <t xml:space="preserve"> For example: UBERON:0002371; UBERON:0000006</t>
   </si>
   <si>
-    <t>specimen_from_organism.organ_parts.ontology</t>
-  </si>
-  <si>
     <t>ORGAN PART ONTOLOGY LABEL ONTOLOGY ID</t>
   </si>
   <si>
     <t xml:space="preserve"> For example: bone marrow; islet of Langerhans</t>
   </si>
   <si>
-    <t>specimen_from_organism.organ_parts.ontology_label</t>
-  </si>
-  <si>
     <t>Short description of known disease(s) of the specimen.</t>
   </si>
   <si>
@@ -4880,6 +4874,27 @@
   </si>
   <si>
     <t>project.data_use_restriction</t>
+  </si>
+  <si>
+    <t>TRANSPLANT ORGAN</t>
+  </si>
+  <si>
+    <t>Was the specimen collected after extraction for organ transplantation?</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.transplant_organ</t>
+  </si>
+  <si>
+    <t>DUOS ID</t>
+  </si>
+  <si>
+    <t>A DUOS dataset id.</t>
+  </si>
+  <si>
+    <t>Managed access projects are registered in DUOS to regulate access. If the project is managed access record the corresponding DUOS ID here. For example: DUOS-000108; DUOS-000114</t>
+  </si>
+  <si>
+    <t>project.duos_id</t>
   </si>
 </sst>
 </file>
@@ -5286,10 +5301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5301,10 +5316,11 @@
     <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.83203125" customWidth="1"/>
-    <col min="14" max="17" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="39.33203125" customWidth="1"/>
+    <col min="15" max="18" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5333,31 +5349,34 @@
         <v>33</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1543</v>
+        <v>1607</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1547</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5386,31 +5405,34 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1544</v>
+        <v>1608</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1548</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5439,31 +5461,34 @@
         <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1545</v>
+        <v>1609</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1549</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5492,31 +5517,34 @@
         <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="K4" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="L4" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="M4" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="N4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="Q4" t="s">
         <v>1555</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>1556</v>
       </c>
-      <c r="P4" t="s">
-        <v>1557</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5536,6 +5564,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5587,13 +5616,13 @@
   <sheetData>
     <row r="1" spans="1:81" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>125</v>
@@ -5614,121 +5643,121 @@
         <v>145</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>760</v>
-      </c>
       <c r="AP1" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>770</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>172</v>
@@ -5770,16 +5799,16 @@
         <v>311</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="BK1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="BL1" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="BM1" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="BN1" s="1" t="s">
         <v>314</v>
@@ -5859,19 +5888,19 @@
         <v>146</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>74</v>
@@ -5880,7 +5909,7 @@
         <v>78</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>382</v>
@@ -5892,10 +5921,10 @@
         <v>78</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>285</v>
@@ -5907,40 +5936,40 @@
         <v>78</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>285</v>
@@ -5952,7 +5981,7 @@
         <v>78</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>382</v>
@@ -5964,10 +5993,10 @@
         <v>78</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>74</v>
@@ -5976,7 +6005,7 @@
         <v>78</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>74</v>
@@ -6018,13 +6047,13 @@
         <v>117</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="BN2" s="2" t="s">
         <v>315</v>
@@ -6098,28 +6127,28 @@
         <v>147</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>383</v>
@@ -6131,10 +6160,10 @@
         <v>383</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>286</v>
@@ -6146,73 +6175,73 @@
         <v>286</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AQ3" s="2" t="s">
         <v>395</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="AW3" s="2" t="s">
         <v>174</v>
@@ -6255,13 +6284,13 @@
       </c>
       <c r="BJ3" s="2"/>
       <c r="BK3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="BN3" s="2"/>
       <c r="BO3" s="2"/>
@@ -6308,199 +6337,199 @@
     </row>
     <row r="4" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B4" t="s">
         <v>691</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>693</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>694</v>
+      </c>
+      <c r="E4" t="s">
         <v>695</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>696</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>697</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>698</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>699</v>
       </c>
-      <c r="H4" t="s">
-        <v>700</v>
-      </c>
-      <c r="I4" t="s">
-        <v>701</v>
-      </c>
       <c r="J4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="N4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="O4" t="s">
+        <v>722</v>
+      </c>
+      <c r="P4" t="s">
         <v>724</v>
       </c>
-      <c r="P4" t="s">
-        <v>726</v>
-      </c>
       <c r="Q4" t="s">
+        <v>728</v>
+      </c>
+      <c r="R4" t="s">
+        <v>729</v>
+      </c>
+      <c r="S4" t="s">
         <v>730</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>731</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>732</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>733</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>734</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>735</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>736</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>737</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>738</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>739</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>740</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>741</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>742</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>743</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>744</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>745</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
         <v>746</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AJ4" t="s">
         <v>747</v>
       </c>
-      <c r="AI4" t="s">
-        <v>748</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>749</v>
-      </c>
       <c r="AK4" t="s">
+        <v>751</v>
+      </c>
+      <c r="AL4" t="s">
         <v>753</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>755</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>757</v>
       </c>
-      <c r="AN4" t="s">
-        <v>759</v>
-      </c>
       <c r="AO4" t="s">
+        <v>761</v>
+      </c>
+      <c r="AP4" t="s">
         <v>763</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>765</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>767</v>
       </c>
-      <c r="AR4" t="s">
-        <v>769</v>
-      </c>
       <c r="AS4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AT4" t="s">
+        <v>774</v>
+      </c>
+      <c r="AU4" t="s">
         <v>776</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>778</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>780</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
+        <v>781</v>
+      </c>
+      <c r="AY4" t="s">
         <v>782</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AZ4" t="s">
         <v>783</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BA4" t="s">
         <v>784</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BB4" t="s">
         <v>785</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BC4" t="s">
         <v>786</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BD4" t="s">
         <v>787</v>
       </c>
-      <c r="BC4" t="s">
-        <v>788</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>789</v>
-      </c>
       <c r="BE4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="BG4" t="s">
         <v>1579</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>1580</v>
       </c>
-      <c r="BG4" t="s">
-        <v>1581</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>1582</v>
-      </c>
       <c r="BI4" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="BJ4" t="s">
         <v>366</v>
       </c>
       <c r="BK4" t="s">
+        <v>586</v>
+      </c>
+      <c r="BL4" t="s">
         <v>588</v>
       </c>
-      <c r="BL4" t="s">
-        <v>590</v>
-      </c>
       <c r="BM4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="BN4" t="s">
         <v>316</v>
@@ -6661,25 +6690,25 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>809</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>314</v>
@@ -6732,13 +6761,13 @@
     </row>
     <row r="2" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -6747,10 +6776,10 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>315</v>
@@ -6803,25 +6832,25 @@
     </row>
     <row r="3" spans="1:23" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -6868,25 +6897,25 @@
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D4" t="s">
+        <v>804</v>
+      </c>
+      <c r="E4" t="s">
         <v>806</v>
       </c>
-      <c r="E4" t="s">
-        <v>808</v>
-      </c>
       <c r="F4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H4" t="s">
         <v>316</v>
@@ -6995,49 +7024,49 @@
   <sheetData>
     <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>809</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>846</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>314</v>
@@ -7090,13 +7119,13 @@
     </row>
     <row r="2" spans="1:31" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -7105,34 +7134,34 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>117</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>315</v>
@@ -7185,47 +7214,47 @@
     </row>
     <row r="3" spans="1:31" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -7272,49 +7301,49 @@
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C4" t="s">
         <v>817</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>818</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>819</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>820</v>
       </c>
-      <c r="E4" t="s">
-        <v>821</v>
-      </c>
-      <c r="F4" t="s">
-        <v>822</v>
-      </c>
       <c r="G4" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="H4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="K4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="L4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="M4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N4" t="s">
+        <v>843</v>
+      </c>
+      <c r="O4" t="s">
         <v>845</v>
-      </c>
-      <c r="O4" t="s">
-        <v>847</v>
       </c>
       <c r="P4" t="s">
         <v>316</v>
@@ -7428,28 +7457,28 @@
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>809</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>314</v>
@@ -7502,13 +7531,13 @@
     </row>
     <row r="2" spans="1:24" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -7517,13 +7546,13 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>315</v>
@@ -7576,26 +7605,26 @@
     </row>
     <row r="3" spans="1:24" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -7642,28 +7671,28 @@
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C4" t="s">
         <v>848</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>849</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>850</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>851</v>
       </c>
-      <c r="E4" t="s">
-        <v>852</v>
-      </c>
-      <c r="F4" t="s">
-        <v>853</v>
-      </c>
       <c r="G4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="I4" t="s">
         <v>316</v>
@@ -7766,69 +7795,69 @@
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>880</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>349</v>
@@ -7840,38 +7869,38 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>350</v>
@@ -7883,69 +7912,69 @@
         <v>350</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F4" t="s">
+        <v>871</v>
+      </c>
+      <c r="G4" t="s">
         <v>873</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>875</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>877</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>879</v>
       </c>
-      <c r="J4" t="s">
-        <v>881</v>
-      </c>
       <c r="K4" t="s">
+        <v>880</v>
+      </c>
+      <c r="L4" t="s">
         <v>882</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>884</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>886</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>888</v>
-      </c>
-      <c r="O4" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -7993,117 +8022,117 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1486</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1488</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1508</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1492</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>78</v>
@@ -8111,116 +8140,116 @@
     </row>
     <row r="3" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>1511</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>1513</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C4" t="s">
         <v>1495</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>1496</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>1497</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>1498</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>1499</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>1500</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>1501</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>1502</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="Q4" t="s">
         <v>1503</v>
       </c>
-      <c r="J4" t="s">
+      <c r="R4" t="s">
         <v>1504</v>
       </c>
-      <c r="K4" t="s">
-        <v>1514</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1515</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1516</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1517</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1518</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1519</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>1505</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1506</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8270,69 +8299,69 @@
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>902</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>349</v>
@@ -8344,38 +8373,38 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>350</v>
@@ -8387,69 +8416,69 @@
         <v>350</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C4" t="s">
         <v>892</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>893</v>
+      </c>
+      <c r="E4" t="s">
         <v>894</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>895</v>
       </c>
-      <c r="E4" t="s">
-        <v>896</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>897</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>899</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>901</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>902</v>
+      </c>
+      <c r="K4" t="s">
         <v>903</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>904</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>905</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>906</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>907</v>
-      </c>
-      <c r="N4" t="s">
-        <v>908</v>
-      </c>
-      <c r="O4" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8496,234 +8525,234 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>889</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C4" t="s">
         <v>911</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>912</v>
+      </c>
+      <c r="E4" t="s">
         <v>913</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>914</v>
       </c>
-      <c r="E4" t="s">
-        <v>915</v>
-      </c>
-      <c r="F4" t="s">
-        <v>916</v>
-      </c>
       <c r="G4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J4" t="s">
+        <v>930</v>
+      </c>
+      <c r="K4" t="s">
+        <v>931</v>
+      </c>
+      <c r="L4" t="s">
         <v>932</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>933</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>934</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>935</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>936</v>
       </c>
-      <c r="O4" t="s">
-        <v>937</v>
-      </c>
-      <c r="P4" t="s">
-        <v>938</v>
-      </c>
       <c r="Q4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="R4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="S4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8775,60 +8804,60 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>953</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>964</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>349</v>
@@ -8840,29 +8869,29 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>350</v>
@@ -8874,51 +8903,51 @@
         <v>350</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B4" t="s">
+        <v>950</v>
+      </c>
+      <c r="C4" t="s">
         <v>952</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>953</v>
+      </c>
+      <c r="E4" t="s">
         <v>954</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>955</v>
       </c>
-      <c r="E4" t="s">
-        <v>956</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>957</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>959</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>961</v>
       </c>
-      <c r="I4" t="s">
-        <v>963</v>
-      </c>
       <c r="J4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="K4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="L4" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8960,102 +8989,102 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>976</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>978</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C4" t="s">
         <v>977</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>978</v>
+      </c>
+      <c r="E4" t="s">
         <v>979</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>980</v>
       </c>
-      <c r="E4" t="s">
-        <v>981</v>
-      </c>
-      <c r="F4" t="s">
-        <v>982</v>
-      </c>
       <c r="G4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9286,210 +9315,210 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>993</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>1018</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C4" t="s">
         <v>992</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>993</v>
+      </c>
+      <c r="E4" t="s">
         <v>994</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>995</v>
       </c>
-      <c r="E4" t="s">
-        <v>996</v>
-      </c>
-      <c r="F4" t="s">
-        <v>997</v>
-      </c>
       <c r="G4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I4" t="s">
         <v>1005</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>1007</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>1009</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>1011</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>1013</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>1015</v>
       </c>
-      <c r="N4" t="s">
-        <v>1017</v>
-      </c>
       <c r="O4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="P4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="Q4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9544,111 +9573,111 @@
   <sheetData>
     <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1032</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>1055</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>1073</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>194</v>
@@ -9660,10 +9689,10 @@
         <v>78</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>194</v>
@@ -9675,10 +9704,10 @@
         <v>78</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>194</v>
@@ -9690,38 +9719,38 @@
         <v>78</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>195</v>
@@ -9733,10 +9762,10 @@
         <v>195</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>195</v>
@@ -9748,10 +9777,10 @@
         <v>195</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>195</v>
@@ -9763,87 +9792,87 @@
         <v>195</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C4" t="s">
         <v>1031</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E4" t="s">
         <v>1033</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>1034</v>
       </c>
-      <c r="E4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1036</v>
-      </c>
       <c r="G4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="H4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="J4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K4" t="s">
         <v>1050</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>1052</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>1054</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O4" t="s">
         <v>1056</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>1057</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>1058</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>1059</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>1060</v>
       </c>
-      <c r="R4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1062</v>
-      </c>
       <c r="T4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="U4" t="s">
         <v>1066</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>1068</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>1070</v>
       </c>
-      <c r="W4" t="s">
-        <v>1072</v>
-      </c>
       <c r="X4" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="Y4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9905,93 +9934,93 @@
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1083</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>1101</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>74</v>
@@ -10000,95 +10029,95 @@
         <v>78</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>67</v>
@@ -10096,67 +10125,67 @@
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C4" t="s">
         <v>1082</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E4" t="s">
         <v>1084</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>1085</v>
       </c>
-      <c r="E4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1087</v>
-      </c>
       <c r="G4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J4" t="s">
         <v>1098</v>
       </c>
-      <c r="J4" t="s">
-        <v>1100</v>
-      </c>
       <c r="K4" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="L4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="M4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="N4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="O4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="P4" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="Q4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="R4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="S4" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="T4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="U4" t="s">
         <v>1139</v>
-      </c>
-      <c r="U4" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10242,216 +10271,216 @@
   <sheetData>
     <row r="1" spans="1:55" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1142</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>1471</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1472</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>1473</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>1474</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="AH1" s="3" t="s">
-        <v>1211</v>
-      </c>
       <c r="AI1" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="AK1" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AL1" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="AQ1" s="3" t="s">
-        <v>1235</v>
-      </c>
       <c r="AR1" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AS1" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="AV1" s="3" t="s">
-        <v>1246</v>
-      </c>
       <c r="AW1" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="AX1" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AY1" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="BB1" s="3" t="s">
-        <v>1260</v>
-      </c>
       <c r="BC1" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>74</v>
@@ -10460,7 +10489,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>349</v>
@@ -10472,82 +10501,82 @@
         <v>78</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AV2" s="2" t="s">
         <v>349</v>
@@ -10568,340 +10597,340 @@
         <v>78</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C4" t="s">
         <v>1143</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E4" t="s">
         <v>1145</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>1146</v>
       </c>
-      <c r="E4" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1148</v>
-      </c>
       <c r="G4" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="H4" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="I4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="J4" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="M4" t="s">
         <v>1477</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>1478</v>
       </c>
-      <c r="M4" t="s">
-        <v>1479</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1480</v>
-      </c>
       <c r="O4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="P4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Q4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="R4" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="S4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="T4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="U4" t="s">
         <v>1184</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>1186</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>1188</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>1190</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>1192</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>1194</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>1196</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>1198</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>1200</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>1202</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>1204</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>1206</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>1208</v>
       </c>
-      <c r="AG4" t="s">
-        <v>1210</v>
-      </c>
       <c r="AH4" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AI4" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="AJ4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AK4" t="s">
         <v>1222</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>1224</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>1226</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>1228</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>1230</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>1232</v>
       </c>
-      <c r="AP4" t="s">
-        <v>1234</v>
-      </c>
       <c r="AQ4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AR4" t="s">
         <v>1237</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>1239</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>1241</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>1243</v>
       </c>
-      <c r="AU4" t="s">
-        <v>1245</v>
-      </c>
       <c r="AV4" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="AW4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AX4" t="s">
         <v>1251</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>1253</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>1255</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>1257</v>
       </c>
-      <c r="BA4" t="s">
-        <v>1259</v>
-      </c>
       <c r="BB4" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="BC4" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="5" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -10992,81 +11021,81 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1268</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1270</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1284</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>1300</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>74</v>
@@ -11075,10 +11104,10 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>349</v>
@@ -11090,62 +11119,62 @@
         <v>78</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>228</v>
@@ -11156,58 +11185,58 @@
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C4" t="s">
         <v>1269</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E4" t="s">
         <v>1271</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>1272</v>
       </c>
-      <c r="E4" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1274</v>
-      </c>
       <c r="G4" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="H4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I4" t="s">
         <v>1281</v>
       </c>
-      <c r="I4" t="s">
-        <v>1283</v>
-      </c>
       <c r="J4" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K4" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="L4" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="M4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="N4" t="s">
         <v>1297</v>
       </c>
-      <c r="N4" t="s">
-        <v>1299</v>
-      </c>
       <c r="O4" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="P4" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="Q4" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="R4" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11272,46 +11301,46 @@
   <sheetData>
     <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>1442</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1441</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1532</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1444</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>844</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>846</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>314</v>
@@ -11329,7 +11358,7 @@
         <v>327</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>335</v>
@@ -11344,16 +11373,16 @@
         <v>344</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>352</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>357</v>
@@ -11364,13 +11393,13 @@
     </row>
     <row r="2" spans="1:30" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>74</v>
@@ -11379,31 +11408,31 @@
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>1457</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>1459</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>117</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>315</v>
@@ -11456,40 +11485,40 @@
     </row>
     <row r="3" spans="1:30" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1458</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>1460</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -11532,46 +11561,46 @@
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1450</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>1451</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" t="s">
         <v>1452</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>1453</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H4" t="s">
         <v>1454</v>
       </c>
-      <c r="F4" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1456</v>
-      </c>
       <c r="I4" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="J4" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="K4" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="N4" t="s">
         <v>845</v>
-      </c>
-      <c r="N4" t="s">
-        <v>847</v>
       </c>
       <c r="O4" t="s">
         <v>316</v>
@@ -12081,46 +12110,46 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1418</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1420</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>1422</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1423</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>1591</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1594</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1598</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1424</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1425</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>1426</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -12129,22 +12158,22 @@
     </row>
     <row r="2" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>74</v>
@@ -12153,22 +12182,22 @@
         <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -12177,42 +12206,42 @@
     </row>
     <row r="3" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>353</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -12221,46 +12250,46 @@
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C4" t="s">
         <v>1431</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>1432</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>1433</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>1434</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>1435</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>1436</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="L4" t="s">
         <v>1437</v>
       </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="N4" t="s">
         <v>1438</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1589</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1597</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1439</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1462</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12303,82 +12332,82 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C4" t="s">
         <v>1314</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>1315</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>1316</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>1317</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1318</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12413,94 +12442,94 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C4" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D4" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="E4" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="F4" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="G4" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12543,78 +12572,78 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1392</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>74</v>
@@ -12623,22 +12652,22 @@
         <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>349</v>
@@ -12650,51 +12679,51 @@
         <v>78</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>350</v>
@@ -12706,63 +12735,63 @@
         <v>350</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B4" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C4" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="D4" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="E4" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="F4" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H4" t="s">
         <v>1373</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>1375</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>1377</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>1379</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>1381</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>1383</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>1385</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>1387</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>1389</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>1391</v>
       </c>
-      <c r="Q4" t="s">
-        <v>1393</v>
-      </c>
       <c r="R4" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12823,7 +12852,7 @@
         <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -12843,7 +12872,7 @@
         <v>101</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -12863,7 +12892,7 @@
         <v>102</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12883,7 +12912,7 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -12914,46 +12943,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B4" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C4" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -13628,13 +13657,13 @@
         <v>204</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>220</v>
@@ -13939,19 +13968,19 @@
         <v>304</v>
       </c>
       <c r="BE4" t="s">
+        <v>1557</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="BG4" t="s">
         <v>1559</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>1560</v>
       </c>
-      <c r="BG4" t="s">
-        <v>1561</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>1562</v>
-      </c>
       <c r="BI4" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="BJ4" t="s">
         <v>316</v>
@@ -14090,9 +14119,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:BP5"/>
+  <dimension ref="A1:BQ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14105,34 +14136,35 @@
     <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="25.6640625" customWidth="1"/>
     <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="25.6640625" customWidth="1"/>
-    <col min="20" max="21" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="25.6640625" customWidth="1"/>
-    <col min="23" max="24" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="25" max="35" width="25.6640625" customWidth="1"/>
-    <col min="36" max="37" width="0" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="25.6640625" customWidth="1"/>
-    <col min="39" max="39" width="27.6640625" customWidth="1"/>
-    <col min="40" max="40" width="26.6640625" customWidth="1"/>
-    <col min="41" max="42" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="43" max="44" width="25.6640625" customWidth="1"/>
-    <col min="45" max="45" width="32.6640625" customWidth="1"/>
-    <col min="46" max="46" width="35.6640625" customWidth="1"/>
-    <col min="47" max="47" width="33.6640625" customWidth="1"/>
-    <col min="48" max="48" width="37.6640625" customWidth="1"/>
-    <col min="49" max="49" width="32.6640625" customWidth="1"/>
-    <col min="50" max="50" width="26.6640625" customWidth="1"/>
-    <col min="51" max="51" width="34.6640625" customWidth="1"/>
-    <col min="52" max="52" width="33.6640625" customWidth="1"/>
-    <col min="53" max="61" width="25.6640625" customWidth="1"/>
-    <col min="62" max="63" width="0" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="25.6640625" customWidth="1"/>
-    <col min="65" max="66" width="0" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="25.6640625" customWidth="1"/>
-    <col min="68" max="68" width="37.6640625" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.6640625" customWidth="1"/>
+    <col min="21" max="22" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" customWidth="1"/>
+    <col min="24" max="25" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="26" max="36" width="25.6640625" customWidth="1"/>
+    <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="25.6640625" customWidth="1"/>
+    <col min="40" max="40" width="27.6640625" customWidth="1"/>
+    <col min="41" max="41" width="26.6640625" customWidth="1"/>
+    <col min="42" max="43" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="44" max="45" width="25.6640625" customWidth="1"/>
+    <col min="46" max="46" width="32.6640625" customWidth="1"/>
+    <col min="47" max="47" width="35.6640625" customWidth="1"/>
+    <col min="48" max="48" width="33.6640625" customWidth="1"/>
+    <col min="49" max="49" width="37.6640625" customWidth="1"/>
+    <col min="50" max="50" width="32.6640625" customWidth="1"/>
+    <col min="51" max="51" width="26.6640625" customWidth="1"/>
+    <col min="52" max="52" width="34.6640625" customWidth="1"/>
+    <col min="53" max="53" width="33.6640625" customWidth="1"/>
+    <col min="54" max="62" width="25.6640625" customWidth="1"/>
+    <col min="63" max="64" width="0" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="25.6640625" customWidth="1"/>
+    <col min="66" max="67" width="0" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="25.6640625" customWidth="1"/>
+    <col min="69" max="69" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>365</v>
       </c>
@@ -14185,160 +14217,163 @@
         <v>394</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>1540</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="AS1" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="BA1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -14394,157 +14429,160 @@
         <v>78</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>400</v>
+        <v>1605</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>1541</v>
-      </c>
       <c r="W2" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="Z2" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AL2" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="AM2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AN2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="AR2" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="AS2" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AY2" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="BA2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="BB2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:68" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14591,152 +14629,155 @@
         <v>395</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1484</v>
+        <v>642</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1542</v>
+        <v>1480</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>1481</v>
+        <v>1540</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>406</v>
+        <v>1480</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AI3" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="AM3" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AS3" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="AT3" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="BA3" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="BB3" s="2"/>
       <c r="BC3" s="2"/>
-      <c r="BD3" s="2" t="s">
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="BG3" s="2" t="s">
         <v>333</v>
       </c>
       <c r="BH3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="BI3" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BM3" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BN3" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>366</v>
       </c>
@@ -14786,163 +14827,166 @@
         <v>393</v>
       </c>
       <c r="Q4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="R4" t="s">
+        <v>393</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="T4" t="s">
         <v>399</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
+        <v>400</v>
+      </c>
+      <c r="V4" t="s">
         <v>401</v>
       </c>
-      <c r="T4" t="s">
-        <v>402</v>
-      </c>
-      <c r="U4" t="s">
-        <v>403</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="Y4" t="s">
         <v>1535</v>
       </c>
-      <c r="W4" t="s">
-        <v>1536</v>
-      </c>
-      <c r="X4" t="s">
-        <v>1537</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>407</v>
-      </c>
       <c r="Z4" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AA4" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AB4" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AC4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AD4" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AE4" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AF4" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AG4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="AH4" t="s">
+        <v>437</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>441</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>443</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
         <v>445</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>447</v>
       </c>
-      <c r="AK4" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>453</v>
-      </c>
       <c r="AM4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AP4" t="s">
         <v>1563</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AQ4" t="s">
         <v>1564</v>
       </c>
-      <c r="AO4" t="s">
-        <v>1565</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>1566</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>1585</v>
-      </c>
       <c r="AR4" t="s">
-        <v>456</v>
+        <v>1583</v>
       </c>
       <c r="AS4" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AT4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AU4" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AV4" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AW4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AX4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="AY4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>118</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>485</v>
-      </c>
       <c r="BA4" t="s">
+        <v>483</v>
+      </c>
+      <c r="BB4" t="s">
         <v>316</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>319</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>322</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>326</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>330</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>334</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>337</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>341</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>343</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>345</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>347</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BM4" t="s">
         <v>351</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BN4" t="s">
         <v>354</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BO4" t="s">
         <v>356</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" t="s">
         <v>360</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BQ4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -15013,6 +15057,7 @@
       <c r="BN5" s="1"/>
       <c r="BO5" s="1"/>
       <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15058,13 +15103,13 @@
   <sheetData>
     <row r="1" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>125</v>
@@ -15100,52 +15145,52 @@
         <v>311</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>172</v>
@@ -15157,37 +15202,37 @@
         <v>179</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="AR1" s="1" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>314</v>
@@ -15282,10 +15327,10 @@
         <v>312</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>285</v>
@@ -15297,40 +15342,40 @@
         <v>78</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>74</v>
@@ -15339,7 +15384,7 @@
         <v>78</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>74</v>
@@ -15348,28 +15393,28 @@
         <v>78</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>117</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>315</v>
@@ -15458,10 +15503,10 @@
         <v>313</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>286</v>
@@ -15473,37 +15518,37 @@
         <v>286</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>174</v>
@@ -15515,35 +15560,35 @@
         <v>174</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
@@ -15590,136 +15635,136 @@
     </row>
     <row r="4" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B4" t="s">
         <v>487</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>489</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E4" t="s">
         <v>491</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>492</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>493</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>494</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>495</v>
       </c>
-      <c r="H4" t="s">
-        <v>496</v>
-      </c>
-      <c r="I4" t="s">
-        <v>497</v>
-      </c>
       <c r="J4" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L4" t="s">
         <v>1567</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>1568</v>
       </c>
-      <c r="L4" t="s">
-        <v>1569</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1570</v>
-      </c>
       <c r="N4" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="O4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="P4" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q4" t="s">
         <v>505</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>507</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>509</v>
       </c>
-      <c r="S4" t="s">
-        <v>511</v>
-      </c>
       <c r="T4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="U4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="V4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="W4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Y4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Z4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AA4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AB4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AC4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AD4" t="s">
+        <v>553</v>
+      </c>
+      <c r="AE4" t="s">
         <v>555</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
+        <v>556</v>
+      </c>
+      <c r="AG4" t="s">
         <v>557</v>
       </c>
-      <c r="AF4" t="s">
-        <v>558</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>559</v>
-      </c>
       <c r="AH4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AI4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AJ4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AK4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AL4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AM4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AN4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AO4" t="s">
         <v>366</v>
       </c>
       <c r="AP4" t="s">
+        <v>586</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>588</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>590</v>
-      </c>
       <c r="AR4" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="AS4" t="s">
         <v>316</v>
@@ -15843,7 +15888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15877,13 +15924,13 @@
   <sheetData>
     <row r="1" spans="1:55" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>125</v>
@@ -15928,70 +15975,70 @@
         <v>179</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>619</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>629</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>314</v>
@@ -16086,7 +16133,7 @@
         <v>312</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>74</v>
@@ -16113,7 +16160,7 @@
         <v>78</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>194</v>
@@ -16125,7 +16172,7 @@
         <v>78</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>285</v>
@@ -16137,28 +16184,28 @@
         <v>78</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>117</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>315</v>
@@ -16265,16 +16312,16 @@
         <v>383</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>395</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>195</v>
@@ -16298,26 +16345,26 @@
         <v>286</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
@@ -16364,121 +16411,121 @@
     </row>
     <row r="4" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" t="s">
         <v>592</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>594</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E4" t="s">
         <v>596</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>597</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>598</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>599</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>600</v>
       </c>
-      <c r="H4" t="s">
-        <v>601</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="O4" t="s">
         <v>602</v>
       </c>
-      <c r="J4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1572</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1573</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1574</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1583</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q4" t="s">
         <v>604</v>
       </c>
-      <c r="P4" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>606</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>608</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>610</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>612</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>614</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>616</v>
       </c>
-      <c r="W4" t="s">
-        <v>618</v>
-      </c>
       <c r="X4" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y4" t="s">
         <v>622</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>624</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>626</v>
       </c>
-      <c r="AA4" t="s">
-        <v>628</v>
-      </c>
       <c r="AB4" t="s">
+        <v>629</v>
+      </c>
+      <c r="AC4" t="s">
         <v>631</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>633</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>635</v>
       </c>
-      <c r="AE4" t="s">
-        <v>637</v>
-      </c>
       <c r="AF4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AG4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AH4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AI4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AJ4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AK4" t="s">
         <v>366</v>
       </c>
       <c r="AL4" t="s">
+        <v>657</v>
+      </c>
+      <c r="AM4" t="s">
         <v>659</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>661</v>
       </c>
       <c r="AN4" t="s">
         <v>316</v>
@@ -16623,13 +16670,13 @@
   <sheetData>
     <row r="1" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>125</v>
@@ -16650,19 +16697,19 @@
         <v>145</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>305</v>
@@ -16680,10 +16727,10 @@
         <v>311</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>314</v>
@@ -16763,13 +16810,13 @@
         <v>146</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>74</v>
@@ -16796,7 +16843,7 @@
         <v>117</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>315</v>
@@ -16870,19 +16917,19 @@
         <v>147</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>395</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>307</v>
@@ -16901,7 +16948,7 @@
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -16948,67 +16995,67 @@
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B4" t="s">
         <v>663</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>665</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>666</v>
+      </c>
+      <c r="E4" t="s">
         <v>667</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>668</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>669</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>670</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>671</v>
       </c>
-      <c r="H4" t="s">
-        <v>672</v>
-      </c>
-      <c r="I4" t="s">
-        <v>673</v>
-      </c>
       <c r="J4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="K4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="L4" t="s">
+        <v>681</v>
+      </c>
+      <c r="M4" t="s">
         <v>683</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>685</v>
       </c>
-      <c r="N4" t="s">
-        <v>687</v>
-      </c>
       <c r="O4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="Q4" t="s">
         <v>1575</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>1576</v>
       </c>
-      <c r="Q4" t="s">
-        <v>1577</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1578</v>
-      </c>
       <c r="S4" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="T4" t="s">
         <v>366</v>
       </c>
       <c r="U4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="V4" t="s">
         <v>316</v>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4E7F72-8B31-EF4D-B6F4-7B51A24CBA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695B3EEE-71C4-1842-B21B-C87E304FE7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73940" yWindow="-920" windowWidth="27800" windowHeight="19200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="1613">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4895,6 +4895,12 @@
   </si>
   <si>
     <t>project.duos_id</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ_parts.ontology</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.organ_parts.ontology_label</t>
   </si>
 </sst>
 </file>
@@ -14122,7 +14128,7 @@
   <dimension ref="A1:BQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14133,9 +14139,9 @@
     <col min="4" max="10" width="25.6640625" customWidth="1"/>
     <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="25.6640625" customWidth="1"/>
-    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="25.6640625" customWidth="1"/>
-    <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.6640625" customWidth="1"/>
     <col min="21" max="22" width="8.83203125" hidden="1" customWidth="1"/>
@@ -14827,10 +14833,10 @@
         <v>393</v>
       </c>
       <c r="Q4" t="s">
-        <v>393</v>
+        <v>1611</v>
       </c>
       <c r="R4" t="s">
-        <v>393</v>
+        <v>1612</v>
       </c>
       <c r="S4" t="s">
         <v>1606</v>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695B3EEE-71C4-1842-B21B-C87E304FE7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A82185-A5DC-9E4D-AFC3-4B4E284977F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="77600" yWindow="-1240" windowWidth="21360" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="1613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="1616">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4901,6 +4901,15 @@
   </si>
   <si>
     <t>specimen_from_organism.organ_parts.ontology_label</t>
+  </si>
+  <si>
+    <t>INTRON INCLUSION</t>
+  </si>
+  <si>
+    <t>Whether introns were included in the alignment process during read counting.</t>
+  </si>
+  <si>
+    <t>Should be one of: yes, or no.</t>
   </si>
 </sst>
 </file>
@@ -5309,9 +5318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7792,7 +7799,7 @@
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" customWidth="1"/>
     <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
@@ -8022,8 +8029,7 @@
     <col min="7" max="9" width="33.6640625" customWidth="1"/>
     <col min="10" max="16" width="25.6640625" customWidth="1"/>
     <col min="17" max="17" width="32.6640625" customWidth="1"/>
-    <col min="18" max="18" width="38" customWidth="1"/>
-    <col min="19" max="19" width="43" customWidth="1"/>
+    <col min="18" max="19" width="13" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8802,8 +8808,7 @@
     <col min="3" max="3" width="31.6640625" customWidth="1"/>
     <col min="4" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="25.6640625" customWidth="1"/>
   </cols>
@@ -10232,47 +10237,50 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="1" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
     <col min="4" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="49.6640625" customWidth="1"/>
-    <col min="8" max="9" width="40.6640625" customWidth="1"/>
-    <col min="10" max="10" width="38.6640625" customWidth="1"/>
-    <col min="11" max="14" width="25.6640625" customWidth="1"/>
-    <col min="15" max="15" width="38.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" customWidth="1"/>
+    <col min="11" max="11" width="28.1640625" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="14" width="25.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20.5" customWidth="1"/>
     <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="30.6640625" customWidth="1"/>
-    <col min="19" max="19" width="38.6640625" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" customWidth="1"/>
+    <col min="19" max="19" width="23.83203125" customWidth="1"/>
     <col min="20" max="21" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="38.6640625" customWidth="1"/>
-    <col min="23" max="23" width="41.6640625" customWidth="1"/>
-    <col min="24" max="24" width="39.6640625" customWidth="1"/>
-    <col min="25" max="25" width="43.6640625" customWidth="1"/>
-    <col min="26" max="26" width="38.6640625" customWidth="1"/>
-    <col min="27" max="27" width="32.6640625" customWidth="1"/>
-    <col min="28" max="28" width="41.6640625" customWidth="1"/>
-    <col min="29" max="29" width="44.6640625" customWidth="1"/>
-    <col min="30" max="30" width="42.6640625" customWidth="1"/>
-    <col min="31" max="31" width="46.6640625" customWidth="1"/>
-    <col min="32" max="32" width="41.6640625" customWidth="1"/>
-    <col min="33" max="33" width="35.6640625" customWidth="1"/>
+    <col min="22" max="22" width="23.5" customWidth="1"/>
+    <col min="23" max="23" width="24.33203125" customWidth="1"/>
+    <col min="24" max="24" width="26.83203125" customWidth="1"/>
+    <col min="25" max="25" width="26" customWidth="1"/>
+    <col min="26" max="26" width="26.6640625" customWidth="1"/>
+    <col min="27" max="27" width="25.1640625" customWidth="1"/>
+    <col min="28" max="29" width="28.1640625" customWidth="1"/>
+    <col min="30" max="30" width="29.1640625" customWidth="1"/>
+    <col min="31" max="31" width="28.6640625" customWidth="1"/>
+    <col min="32" max="32" width="28.83203125" customWidth="1"/>
+    <col min="33" max="33" width="21.83203125" customWidth="1"/>
     <col min="34" max="36" width="25.6640625" customWidth="1"/>
-    <col min="37" max="37" width="26.6640625" customWidth="1"/>
-    <col min="38" max="38" width="29.6640625" customWidth="1"/>
-    <col min="39" max="39" width="27.6640625" customWidth="1"/>
-    <col min="40" max="40" width="31.6640625" customWidth="1"/>
-    <col min="41" max="41" width="26.6640625" customWidth="1"/>
-    <col min="42" max="43" width="25.6640625" customWidth="1"/>
-    <col min="44" max="44" width="48.6640625" customWidth="1"/>
-    <col min="45" max="46" width="39.6640625" customWidth="1"/>
-    <col min="47" max="47" width="37.6640625" customWidth="1"/>
-    <col min="48" max="48" width="32.6640625" customWidth="1"/>
+    <col min="37" max="37" width="16.83203125" customWidth="1"/>
+    <col min="38" max="38" width="20.6640625" customWidth="1"/>
+    <col min="39" max="39" width="19.5" customWidth="1"/>
+    <col min="40" max="40" width="23.33203125" customWidth="1"/>
+    <col min="41" max="41" width="21.33203125" customWidth="1"/>
+    <col min="42" max="42" width="18.6640625" customWidth="1"/>
+    <col min="43" max="43" width="18.33203125" customWidth="1"/>
+    <col min="44" max="44" width="30.5" customWidth="1"/>
+    <col min="45" max="45" width="25.5" customWidth="1"/>
+    <col min="46" max="46" width="23.33203125" customWidth="1"/>
+    <col min="47" max="47" width="19.83203125" customWidth="1"/>
+    <col min="48" max="48" width="22.5" customWidth="1"/>
     <col min="49" max="50" width="0" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="33.6640625" customWidth="1"/>
+    <col min="51" max="51" width="23.83203125" customWidth="1"/>
     <col min="52" max="53" width="0" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="25.6640625" customWidth="1"/>
-    <col min="55" max="55" width="26.6640625" customWidth="1"/>
+    <col min="54" max="54" width="19.33203125" customWidth="1"/>
+    <col min="55" max="55" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -11007,7 +11015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11280,26 +11288,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="58.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="53.5" customWidth="1"/>
-    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="39" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="5" width="13.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="31.33203125" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" customWidth="1"/>
     <col min="14" max="14" width="23.6640625" customWidth="1"/>
-    <col min="15" max="19" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" customWidth="1"/>
     <col min="20" max="20" width="23.6640625" customWidth="1"/>
     <col min="21" max="22" width="8.83203125" customWidth="1"/>
     <col min="23" max="23" width="18.6640625" customWidth="1"/>
-    <col min="24" max="24" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.1640625" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="27.6640625" customWidth="1"/>
-    <col min="27" max="27" width="30.6640625" customWidth="1"/>
-    <col min="28" max="28" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.6640625" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="16.83203125" customWidth="1"/>
     <col min="30" max="30" width="18.5" customWidth="1"/>
     <col min="31" max="31" width="27.33203125" customWidth="1"/>
@@ -12090,11 +12102,9 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D194D221-20CF-2E41-90C4-A993C89EE7F6}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12105,16 +12115,16 @@
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="11" width="24.1640625" customWidth="1"/>
-    <col min="12" max="12" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.6640625" customWidth="1"/>
-    <col min="14" max="14" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.6640625" customWidth="1"/>
-    <col min="18" max="20" width="8.83203125" customWidth="1"/>
+    <col min="9" max="12" width="24.1640625" customWidth="1"/>
+    <col min="13" max="13" width="26.1640625" customWidth="1"/>
+    <col min="14" max="14" width="31.5" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+    <col min="16" max="16" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.6640625" customWidth="1"/>
+    <col min="19" max="21" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1416</v>
       </c>
@@ -12149,20 +12159,23 @@
         <v>1596</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>1422</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1423</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1424</v>
       </c>
-      <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>481</v>
       </c>
@@ -12197,20 +12210,23 @@
         <v>1598</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>1426</v>
       </c>
-      <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>482</v>
       </c>
@@ -12241,20 +12257,23 @@
         <v>1599</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1429</v>
       </c>
@@ -12289,16 +12308,19 @@
         <v>1597</v>
       </c>
       <c r="L4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="M4" t="s">
         <v>1437</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>1460</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -12319,6 +12341,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14127,9 +14150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15074,9 +15095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BH5"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AO1:AS1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15894,9 +15913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A82185-A5DC-9E4D-AFC3-4B4E284977F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDF862B-7D5E-9542-B232-215D51F50A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77600" yWindow="-1240" windowWidth="21360" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" firstSheet="24" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="1616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="1617">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4910,6 +4910,9 @@
   </si>
   <si>
     <t>Should be one of: yes, or no.</t>
+  </si>
+  <si>
+    <t>analysis_protocol.intron_inclusion</t>
   </si>
 </sst>
 </file>
@@ -5318,7 +5321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12104,7 +12107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D194D221-20CF-2E41-90C4-A993C89EE7F6}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12308,7 +12313,7 @@
         <v>1597</v>
       </c>
       <c r="L4" t="s">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="M4" t="s">
         <v>1437</v>
@@ -14150,7 +14155,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BQ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BQ1" sqref="BQ1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDF862B-7D5E-9542-B232-215D51F50A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D29D34A-FAC3-D045-A3F2-AF40F1577F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" firstSheet="24" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,19 @@
     <sheet name="Cell line" sheetId="10" r:id="rId10"/>
     <sheet name="Supplementary file" sheetId="11" r:id="rId11"/>
     <sheet name="Sequence file" sheetId="12" r:id="rId12"/>
-    <sheet name="Image file" sheetId="13" r:id="rId13"/>
-    <sheet name="Collection protocol" sheetId="14" r:id="rId14"/>
-    <sheet name="Treatment protocol" sheetId="31" r:id="rId15"/>
-    <sheet name="Dissociation protocol" sheetId="15" r:id="rId16"/>
-    <sheet name="Differentiation protocol" sheetId="16" r:id="rId17"/>
-    <sheet name="Enrichment protocol" sheetId="17" r:id="rId18"/>
-    <sheet name="Aggregate generation protocol" sheetId="18" r:id="rId19"/>
-    <sheet name="Ipsc induction protocol" sheetId="19" r:id="rId20"/>
-    <sheet name="Imaging preparation protocol" sheetId="20" r:id="rId21"/>
-    <sheet name="Imaging protocol" sheetId="21" r:id="rId22"/>
-    <sheet name="Library preparation protocol" sheetId="22" r:id="rId23"/>
-    <sheet name="Sequencing protocol" sheetId="23" r:id="rId24"/>
-    <sheet name="Analysis file" sheetId="30" r:id="rId25"/>
+    <sheet name="Analysis file" sheetId="30" r:id="rId13"/>
+    <sheet name="Image file" sheetId="13" r:id="rId14"/>
+    <sheet name="Collection protocol" sheetId="14" r:id="rId15"/>
+    <sheet name="Treatment protocol" sheetId="31" r:id="rId16"/>
+    <sheet name="Dissociation protocol" sheetId="15" r:id="rId17"/>
+    <sheet name="Differentiation protocol" sheetId="16" r:id="rId18"/>
+    <sheet name="Enrichment protocol" sheetId="17" r:id="rId19"/>
+    <sheet name="Aggregate generation protocol" sheetId="18" r:id="rId20"/>
+    <sheet name="Ipsc induction protocol" sheetId="19" r:id="rId21"/>
+    <sheet name="Imaging preparation protocol" sheetId="20" r:id="rId22"/>
+    <sheet name="Imaging protocol" sheetId="21" r:id="rId23"/>
+    <sheet name="Library preparation protocol" sheetId="22" r:id="rId24"/>
+    <sheet name="Sequencing protocol" sheetId="23" r:id="rId25"/>
     <sheet name="Analysis protocol" sheetId="29" r:id="rId26"/>
     <sheet name="Additional reagents" sheetId="24" r:id="rId27"/>
     <sheet name="Imaging protocol - Channel" sheetId="25" r:id="rId28"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="1621">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4913,6 +4913,18 @@
   </si>
   <si>
     <t>analysis_protocol.intron_inclusion</t>
+  </si>
+  <si>
+    <t>sequence_file.sequencing_run_batch</t>
+  </si>
+  <si>
+    <t>SEQUENCING RUN BATCH</t>
+  </si>
+  <si>
+    <t>An identifier that indicates which runs were sequenced in the same batch.</t>
+  </si>
+  <si>
+    <t>run1; sequencing_batch_37; NV0087</t>
   </si>
 </sst>
 </file>
@@ -7016,9 +7028,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7026,19 +7040,19 @@
     <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="53.5" customWidth="1"/>
-    <col min="8" max="12" width="25.6640625" customWidth="1"/>
-    <col min="13" max="13" width="35.6640625" customWidth="1"/>
-    <col min="14" max="14" width="42.6640625" customWidth="1"/>
-    <col min="15" max="15" width="33.6640625" customWidth="1"/>
-    <col min="16" max="24" width="25.6640625" customWidth="1"/>
-    <col min="25" max="26" width="0" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="25.6640625" customWidth="1"/>
-    <col min="28" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="25.6640625" customWidth="1"/>
-    <col min="31" max="31" width="37.6640625" customWidth="1"/>
+    <col min="8" max="13" width="25.6640625" customWidth="1"/>
+    <col min="14" max="14" width="35.6640625" customWidth="1"/>
+    <col min="15" max="15" width="42.6640625" customWidth="1"/>
+    <col min="16" max="16" width="33.6640625" customWidth="1"/>
+    <col min="17" max="25" width="25.6640625" customWidth="1"/>
+    <col min="26" max="27" width="0" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="25.6640625" customWidth="1"/>
+    <col min="29" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="25.6640625" customWidth="1"/>
+    <col min="32" max="32" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>790</v>
       </c>
@@ -7073,67 +7087,70 @@
         <v>833</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>791</v>
       </c>
@@ -7168,67 +7185,70 @@
         <v>834</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>481</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>792</v>
       </c>
@@ -7263,59 +7283,62 @@
         <v>835</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>482</v>
-      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>333</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>815</v>
       </c>
@@ -7350,67 +7373,70 @@
         <v>836</v>
       </c>
       <c r="L4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="M4" t="s">
         <v>840</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>485</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>843</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>845</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>316</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>319</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>322</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>326</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>330</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>334</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>337</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>341</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>343</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>345</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>347</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>351</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>354</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>356</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>360</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7444,6 +7470,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7451,6 +7478,826 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B387E90-E3CD-9746-8D43-32F9BE05CBD7}">
+  <dimension ref="A1:AD103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="5" width="13.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="31.33203125" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" customWidth="1"/>
+    <col min="21" max="22" width="8.83203125" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" customWidth="1"/>
+    <col min="24" max="25" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="27.6640625" customWidth="1"/>
+    <col min="27" max="28" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="16.83203125" customWidth="1"/>
+    <col min="30" max="30" width="18.5" customWidth="1"/>
+    <col min="31" max="31" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1526</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="N4" t="s">
+        <v>845</v>
+      </c>
+      <c r="O4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P4" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>322</v>
+      </c>
+      <c r="R4" t="s">
+        <v>326</v>
+      </c>
+      <c r="S4" t="s">
+        <v>330</v>
+      </c>
+      <c r="T4" t="s">
+        <v>334</v>
+      </c>
+      <c r="U4" t="s">
+        <v>337</v>
+      </c>
+      <c r="V4" t="s">
+        <v>341</v>
+      </c>
+      <c r="W4" t="s">
+        <v>343</v>
+      </c>
+      <c r="X4" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+    </row>
+    <row r="32" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+    </row>
+    <row r="39" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+    </row>
+    <row r="40" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+    </row>
+    <row r="41" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+    </row>
+    <row r="42" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+    </row>
+    <row r="43" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+    </row>
+    <row r="44" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+    </row>
+    <row r="45" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+    </row>
+    <row r="46" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+    </row>
+    <row r="47" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+    </row>
+    <row r="48" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+    </row>
+    <row r="49" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+    </row>
+    <row r="50" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+    </row>
+    <row r="52" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+    </row>
+    <row r="53" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+    </row>
+    <row r="54" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+    </row>
+    <row r="55" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+    </row>
+    <row r="56" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+    </row>
+    <row r="57" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+    </row>
+    <row r="58" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+    </row>
+    <row r="59" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+    </row>
+    <row r="60" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+    </row>
+    <row r="61" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+    </row>
+    <row r="62" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+    </row>
+    <row r="63" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+    </row>
+    <row r="64" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+    </row>
+    <row r="65" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+    </row>
+    <row r="66" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+    </row>
+    <row r="67" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+    </row>
+    <row r="68" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+    </row>
+    <row r="69" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+    </row>
+    <row r="70" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+    </row>
+    <row r="71" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+    </row>
+    <row r="72" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+    </row>
+    <row r="73" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+    </row>
+    <row r="74" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+    </row>
+    <row r="75" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+    </row>
+    <row r="76" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+    </row>
+    <row r="77" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+    </row>
+    <row r="78" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+    </row>
+    <row r="79" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+    </row>
+    <row r="80" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+    </row>
+    <row r="81" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+    </row>
+    <row r="82" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+    </row>
+    <row r="83" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+    </row>
+    <row r="84" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+    </row>
+    <row r="85" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+    </row>
+    <row r="86" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+    </row>
+    <row r="87" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+    </row>
+    <row r="88" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+    </row>
+    <row r="89" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+    </row>
+    <row r="90" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+    </row>
+    <row r="91" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+    </row>
+    <row r="92" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+    </row>
+    <row r="93" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+    </row>
+    <row r="94" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+    </row>
+    <row r="95" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+    </row>
+    <row r="96" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+    </row>
+    <row r="97" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+    </row>
+    <row r="98" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+    </row>
+    <row r="99" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+    </row>
+    <row r="100" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+    </row>
+    <row r="101" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+    </row>
+    <row r="102" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+    </row>
+    <row r="103" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
@@ -7792,7 +8639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
@@ -8017,7 +8864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2F1E06-C83F-9240-A431-D0EEE8C93825}">
   <dimension ref="A1:S5"/>
   <sheetViews>
@@ -8295,7 +9142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
@@ -8520,7 +9367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
@@ -8798,7 +9645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -8979,139 +9826,6 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" customWidth="1"/>
-    <col min="4" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>657</v>
-      </c>
-      <c r="B4" t="s">
-        <v>975</v>
-      </c>
-      <c r="C4" t="s">
-        <v>977</v>
-      </c>
-      <c r="D4" t="s">
-        <v>978</v>
-      </c>
-      <c r="E4" t="s">
-        <v>979</v>
-      </c>
-      <c r="F4" t="s">
-        <v>980</v>
-      </c>
-      <c r="G4" t="s">
-        <v>984</v>
-      </c>
-      <c r="H4" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9305,6 +10019,139 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="4" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C4" t="s">
+        <v>977</v>
+      </c>
+      <c r="D4" t="s">
+        <v>978</v>
+      </c>
+      <c r="E4" t="s">
+        <v>979</v>
+      </c>
+      <c r="F4" t="s">
+        <v>980</v>
+      </c>
+      <c r="G4" t="s">
+        <v>984</v>
+      </c>
+      <c r="H4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -9561,7 +10408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
@@ -9923,7 +10770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -10232,7 +11079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:BC5"/>
   <sheetViews>
@@ -11014,11 +11861,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11283,833 +12130,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B387E90-E3CD-9746-8D43-32F9BE05CBD7}">
-  <dimension ref="A1:AD103"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="5" width="13.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="31.33203125" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" customWidth="1"/>
-    <col min="17" max="17" width="14.5" customWidth="1"/>
-    <col min="18" max="18" width="16.83203125" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" customWidth="1"/>
-    <col min="20" max="20" width="23.6640625" customWidth="1"/>
-    <col min="21" max="22" width="8.83203125" customWidth="1"/>
-    <col min="23" max="23" width="18.6640625" customWidth="1"/>
-    <col min="24" max="25" width="15.1640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="27.6640625" customWidth="1"/>
-    <col min="27" max="28" width="9.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="16.83203125" customWidth="1"/>
-    <col min="30" max="30" width="18.5" customWidth="1"/>
-    <col min="31" max="31" width="27.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1440</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1439</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1441</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1529</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1530</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1442</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>1445</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>1446</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1455</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1457</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1527</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1528</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1458</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1531</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1532</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1454</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1526</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1429</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="N4" t="s">
-        <v>845</v>
-      </c>
-      <c r="O4" t="s">
-        <v>316</v>
-      </c>
-      <c r="P4" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>322</v>
-      </c>
-      <c r="R4" t="s">
-        <v>326</v>
-      </c>
-      <c r="S4" t="s">
-        <v>330</v>
-      </c>
-      <c r="T4" t="s">
-        <v>334</v>
-      </c>
-      <c r="U4" t="s">
-        <v>337</v>
-      </c>
-      <c r="V4" t="s">
-        <v>341</v>
-      </c>
-      <c r="W4" t="s">
-        <v>343</v>
-      </c>
-      <c r="X4" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-    </row>
-    <row r="22" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-    </row>
-    <row r="28" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-    </row>
-    <row r="29" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-    </row>
-    <row r="32" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-    </row>
-    <row r="34" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-    </row>
-    <row r="35" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-    </row>
-    <row r="37" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-    </row>
-    <row r="38" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-    </row>
-    <row r="39" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-    </row>
-    <row r="40" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-    </row>
-    <row r="41" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-    </row>
-    <row r="42" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-    </row>
-    <row r="43" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-    </row>
-    <row r="44" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-    </row>
-    <row r="45" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-    </row>
-    <row r="46" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-    </row>
-    <row r="47" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-    </row>
-    <row r="48" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-    </row>
-    <row r="49" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-    </row>
-    <row r="50" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-    </row>
-    <row r="51" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-    </row>
-    <row r="52" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-    </row>
-    <row r="53" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-    </row>
-    <row r="54" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-    </row>
-    <row r="55" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-    </row>
-    <row r="56" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-    </row>
-    <row r="57" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-    </row>
-    <row r="58" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-    </row>
-    <row r="59" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-    </row>
-    <row r="60" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-    </row>
-    <row r="61" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-    </row>
-    <row r="62" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-    </row>
-    <row r="63" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-    </row>
-    <row r="64" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-    </row>
-    <row r="65" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-    </row>
-    <row r="66" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-    </row>
-    <row r="67" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-    </row>
-    <row r="68" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-    </row>
-    <row r="69" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-    </row>
-    <row r="70" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-    </row>
-    <row r="71" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-    </row>
-    <row r="72" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-    </row>
-    <row r="73" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-    </row>
-    <row r="74" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-    </row>
-    <row r="75" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-    </row>
-    <row r="76" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-    </row>
-    <row r="77" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-    </row>
-    <row r="78" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-    </row>
-    <row r="79" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-    </row>
-    <row r="80" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-    </row>
-    <row r="81" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-    </row>
-    <row r="82" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-    </row>
-    <row r="83" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-    </row>
-    <row r="84" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-    </row>
-    <row r="85" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-    </row>
-    <row r="86" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-    </row>
-    <row r="87" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-    </row>
-    <row r="88" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-    </row>
-    <row r="89" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-    </row>
-    <row r="90" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
-    </row>
-    <row r="91" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-    </row>
-    <row r="92" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-    </row>
-    <row r="93" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-    </row>
-    <row r="94" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-    </row>
-    <row r="95" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-    </row>
-    <row r="96" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
-    </row>
-    <row r="97" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-    </row>
-    <row r="98" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
-    </row>
-    <row r="99" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S99" s="6"/>
-      <c r="T99" s="6"/>
-    </row>
-    <row r="100" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S100" s="6"/>
-      <c r="T100" s="6"/>
-    </row>
-    <row r="101" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
-    </row>
-    <row r="102" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S102" s="6"/>
-      <c r="T102" s="6"/>
-    </row>
-    <row r="103" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S103" s="6"/>
-      <c r="T103" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D194D221-20CF-2E41-90C4-A993C89EE7F6}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14155,9 +14180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BQ5"/>
   <sheetViews>
-    <sheetView topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BQ1" sqref="BQ1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15109,19 +15132,19 @@
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" customWidth="1"/>
-    <col min="12" max="13" width="8.83203125" customWidth="1"/>
-    <col min="14" max="17" width="25.6640625" customWidth="1"/>
-    <col min="18" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="27" width="25.6640625" customWidth="1"/>
-    <col min="28" max="28" width="26.6640625" customWidth="1"/>
-    <col min="29" max="31" width="25.6640625" customWidth="1"/>
-    <col min="32" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="25.6640625" customWidth="1"/>
-    <col min="35" max="36" width="0" hidden="1" customWidth="1"/>
-    <col min="37" max="40" width="25.6640625" customWidth="1"/>
+    <col min="4" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="22" width="25.6640625" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" customWidth="1"/>
+    <col min="24" max="26" width="25.6640625" customWidth="1"/>
+    <col min="27" max="28" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="25.6640625" customWidth="1"/>
+    <col min="30" max="31" width="0" hidden="1" customWidth="1"/>
+    <col min="32" max="35" width="25.6640625" customWidth="1"/>
+    <col min="36" max="36" width="27.6640625" customWidth="1"/>
+    <col min="37" max="37" width="26.6640625" customWidth="1"/>
+    <col min="38" max="39" width="8.83203125" customWidth="1"/>
+    <col min="40" max="40" width="25.6640625" customWidth="1"/>
     <col min="41" max="41" width="42.6640625" customWidth="1"/>
     <col min="42" max="42" width="35.6640625" customWidth="1"/>
     <col min="43" max="44" width="33.6640625" customWidth="1"/>
@@ -15162,97 +15185,97 @@
         <v>145</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>580</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>584</v>
@@ -15344,97 +15367,97 @@
         <v>146</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>117</v>
@@ -15520,97 +15543,97 @@
         <v>147</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2" t="s">
@@ -15694,97 +15717,97 @@
         <v>495</v>
       </c>
       <c r="J4" t="s">
+        <v>499</v>
+      </c>
+      <c r="K4" t="s">
+        <v>503</v>
+      </c>
+      <c r="L4" t="s">
+        <v>505</v>
+      </c>
+      <c r="M4" t="s">
+        <v>507</v>
+      </c>
+      <c r="N4" t="s">
+        <v>509</v>
+      </c>
+      <c r="O4" t="s">
+        <v>513</v>
+      </c>
+      <c r="P4" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>521</v>
+      </c>
+      <c r="R4" t="s">
+        <v>525</v>
+      </c>
+      <c r="S4" t="s">
+        <v>529</v>
+      </c>
+      <c r="T4" t="s">
+        <v>533</v>
+      </c>
+      <c r="U4" t="s">
+        <v>537</v>
+      </c>
+      <c r="V4" t="s">
+        <v>541</v>
+      </c>
+      <c r="W4" t="s">
+        <v>545</v>
+      </c>
+      <c r="X4" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>555</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>564</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>571</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>575</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>583</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>1565</v>
       </c>
-      <c r="K4" t="s">
+      <c r="AK4" t="s">
         <v>1566</v>
       </c>
-      <c r="L4" t="s">
+      <c r="AL4" t="s">
         <v>1567</v>
       </c>
-      <c r="M4" t="s">
+      <c r="AM4" t="s">
         <v>1568</v>
       </c>
-      <c r="N4" t="s">
+      <c r="AN4" t="s">
         <v>1584</v>
-      </c>
-      <c r="O4" t="s">
-        <v>499</v>
-      </c>
-      <c r="P4" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>505</v>
-      </c>
-      <c r="R4" t="s">
-        <v>507</v>
-      </c>
-      <c r="S4" t="s">
-        <v>509</v>
-      </c>
-      <c r="T4" t="s">
-        <v>513</v>
-      </c>
-      <c r="U4" t="s">
-        <v>517</v>
-      </c>
-      <c r="V4" t="s">
-        <v>521</v>
-      </c>
-      <c r="W4" t="s">
-        <v>525</v>
-      </c>
-      <c r="X4" t="s">
-        <v>529</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>533</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>537</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>541</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>545</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>549</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>553</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>555</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>556</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>561</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>564</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>567</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>571</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>575</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>579</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>583</v>
       </c>
       <c r="AO4" t="s">
         <v>366</v>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D29D34A-FAC3-D045-A3F2-AF40F1577F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60EA8E8-6B41-5F47-8E79-A6AF8C761356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="1626">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4925,13 +4925,28 @@
   </si>
   <si>
     <t>run1; sequencing_batch_37; NV0087</t>
+  </si>
+  <si>
+    <t>The permeabilisation time in time units that the tissue was exposed to.</t>
+  </si>
+  <si>
+    <t>The unit in which permeabilisation time is expressed.</t>
+  </si>
+  <si>
+    <t>For example: 3; 12; 42</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.permeabilisation_time</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.permeabilisation_time_unit.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4975,6 +4990,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4999,10 +5021,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5027,9 +5050,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2CF774A7-B89A-E141-989E-8D977C79E792}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5333,7 +5364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7481,7 +7512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B387E90-E3CD-9746-8D43-32F9BE05CBD7}">
   <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10410,7 +10441,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10430,9 +10461,11 @@
     <col min="21" max="21" width="37.6640625" customWidth="1"/>
     <col min="22" max="23" width="0" hidden="1" customWidth="1"/>
     <col min="24" max="25" width="25.6640625" customWidth="1"/>
+    <col min="26" max="26" width="24" customWidth="1"/>
+    <col min="27" max="27" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>686</v>
       </c>
@@ -10508,8 +10541,16 @@
       <c r="Y1" s="1" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z1" s="10" t="str">
+        <f>UPPER("Permeabilisation time")</f>
+        <v>PERMEABILISATION TIME</v>
+      </c>
+      <c r="AA1" s="10" t="str">
+        <f>UPPER("Permeabilisation time unit")</f>
+        <v>PERMEABILISATION TIME UNIT</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>481</v>
       </c>
@@ -10585,8 +10626,14 @@
       <c r="Y2" s="2" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="11" t="s">
+        <v>1621</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>482</v>
       </c>
@@ -10658,8 +10705,14 @@
       <c r="Y3" s="2" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z3" s="11" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>687</v>
       </c>
@@ -10735,8 +10788,14 @@
       <c r="Y4" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="12" t="s">
+        <v>1624</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10764,6 +10823,8 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60EA8E8-6B41-5F47-8E79-A6AF8C761356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B38024-950B-5D43-92C6-E7114FA6F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14920" yWindow="5860" windowWidth="21360" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="1626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="1630">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4693,18 +4693,12 @@
     <t>HCA Bionetwork the project is a part of (e.g. Kidney).</t>
   </si>
   <si>
-    <t>Should be one of the networks from https://www.humancellatlas.org/biological-networks/</t>
-  </si>
-  <si>
     <t>HCA TISSUE ATLAS</t>
   </si>
   <si>
     <t xml:space="preserve">A field describing if the project is part of a HCA Tissue Atlas (e.g. Brain Alzheimer Atlas). </t>
   </si>
   <si>
-    <t>For example: Blood Atlas</t>
-  </si>
-  <si>
     <t>OFFICIAL HCA TISSUE ATLAS VERSION</t>
   </si>
   <si>
@@ -4940,6 +4934,24 @@
   </si>
   <si>
     <t>imaging_preparation_protocol.permeabilisation_time_unit.text</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.permeabilisation_time_unit.ontology</t>
+  </si>
+  <si>
+    <t>imaging_preparation_protocol.permeabilisation_time_unit.ontology_label</t>
+  </si>
+  <si>
+    <t>PERMEABILISATION TIME</t>
+  </si>
+  <si>
+    <t>PERMEABILISATION TIME UNIT</t>
+  </si>
+  <si>
+    <t>Should be of: Adipose, Brain, Breast, Development, Eye, GDN, Gut, Heart, Immune, Kidney, Liver, Lung, MSK, ORCF, Organoid-Endoderm, Organoid-Neural, Pancreas Retina, Reproduction, Skin</t>
+  </si>
+  <si>
+    <t>Should be of the networks from https://www.humancellatlas.org/biological-networks/</t>
   </si>
 </sst>
 </file>
@@ -5417,22 +5429,22 @@
         <v>568</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>1541</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -5473,22 +5485,22 @@
         <v>1462</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>1542</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -5529,22 +5541,22 @@
         <v>1463</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1543</v>
+        <v>1629</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1546</v>
+        <v>1628</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5585,22 +5597,22 @@
         <v>1461</v>
       </c>
       <c r="M4" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="N4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="O4" t="s">
+        <v>1551</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="Q4" t="s">
         <v>1553</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>1554</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1555</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6564,19 +6576,19 @@
         <v>787</v>
       </c>
       <c r="BE4" t="s">
+        <v>1575</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="BG4" t="s">
         <v>1577</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>1578</v>
       </c>
-      <c r="BG4" t="s">
-        <v>1579</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>1580</v>
-      </c>
       <c r="BI4" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="BJ4" t="s">
         <v>366</v>
@@ -7118,7 +7130,7 @@
         <v>833</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>837</v>
@@ -7216,7 +7228,7 @@
         <v>834</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>838</v>
@@ -7314,7 +7326,7 @@
         <v>835</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>839</v>
@@ -7404,7 +7416,7 @@
         <v>836</v>
       </c>
       <c r="L4" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="M4" t="s">
         <v>840</v>
@@ -10441,7 +10453,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10463,9 +10475,10 @@
     <col min="24" max="25" width="25.6640625" customWidth="1"/>
     <col min="26" max="26" width="24" customWidth="1"/>
     <col min="27" max="27" width="27.33203125" customWidth="1"/>
+    <col min="28" max="29" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>686</v>
       </c>
@@ -10541,16 +10554,14 @@
       <c r="Y1" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="Z1" s="10" t="str">
-        <f>UPPER("Permeabilisation time")</f>
-        <v>PERMEABILISATION TIME</v>
-      </c>
-      <c r="AA1" s="10" t="str">
-        <f>UPPER("Permeabilisation time unit")</f>
-        <v>PERMEABILISATION TIME UNIT</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z1" s="10" t="s">
+        <v>1626</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>481</v>
       </c>
@@ -10627,13 +10638,13 @@
         <v>1076</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>482</v>
       </c>
@@ -10706,13 +10717,13 @@
         <v>1077</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="AA3" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>687</v>
       </c>
@@ -10789,13 +10800,19 @@
         <v>1078</v>
       </c>
       <c r="Z4" s="12" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AB4" s="12" t="s">
         <v>1624</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -12241,16 +12258,16 @@
         <v>1421</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>1422</v>
@@ -12292,16 +12309,16 @@
         <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>1523</v>
@@ -12336,19 +12353,19 @@
         <v>353</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>1524</v>
@@ -12390,16 +12407,16 @@
         <v>1436</v>
       </c>
       <c r="I4" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="J4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K4" t="s">
         <v>1595</v>
       </c>
-      <c r="K4" t="s">
-        <v>1597</v>
-      </c>
       <c r="L4" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="M4" t="s">
         <v>1437</v>
@@ -14088,19 +14105,19 @@
         <v>304</v>
       </c>
       <c r="BE4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="BG4" t="s">
         <v>1557</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>1558</v>
       </c>
-      <c r="BG4" t="s">
-        <v>1559</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>1560</v>
-      </c>
       <c r="BI4" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="BJ4" t="s">
         <v>316</v>
@@ -14338,7 +14355,7 @@
         <v>396</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>211</v>
@@ -14547,7 +14564,7 @@
         <v>78</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>398</v>
@@ -14945,13 +14962,13 @@
         <v>393</v>
       </c>
       <c r="Q4" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="R4" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="S4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="T4" t="s">
         <v>399</v>
@@ -15014,19 +15031,19 @@
         <v>451</v>
       </c>
       <c r="AN4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AP4" t="s">
         <v>1561</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AQ4" t="s">
         <v>1562</v>
       </c>
-      <c r="AP4" t="s">
-        <v>1563</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>1564</v>
-      </c>
       <c r="AR4" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="AS4" t="s">
         <v>454</v>
@@ -15856,19 +15873,19 @@
         <v>583</v>
       </c>
       <c r="AJ4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AL4" t="s">
         <v>1565</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>1566</v>
       </c>
-      <c r="AL4" t="s">
-        <v>1567</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>1568</v>
-      </c>
       <c r="AN4" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="AO4" t="s">
         <v>366</v>
@@ -16552,19 +16569,19 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L4" t="s">
         <v>1569</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>1570</v>
       </c>
-      <c r="L4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1572</v>
-      </c>
       <c r="N4" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="O4" t="s">
         <v>602</v>
@@ -17151,19 +17168,19 @@
         <v>685</v>
       </c>
       <c r="O4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="Q4" t="s">
         <v>1573</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>1574</v>
       </c>
-      <c r="Q4" t="s">
-        <v>1575</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1576</v>
-      </c>
       <c r="S4" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="T4" t="s">
         <v>366</v>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B38024-950B-5D43-92C6-E7114FA6F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CD17B4-D125-CD49-8C74-AEDDC3AD6C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14920" yWindow="5860" windowWidth="21360" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="29560" windowWidth="21360" windowHeight="17600" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,7 @@
     <sheet name="Imaging protocol - Channel" sheetId="25" r:id="rId28"/>
     <sheet name="Imaging protocol - Probe" sheetId="26" r:id="rId29"/>
     <sheet name="Familial relationship" sheetId="27" r:id="rId30"/>
+    <sheet name="Schemas" sheetId="32" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="1630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="1665">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4952,13 +4953,118 @@
   </si>
   <si>
     <t>Should be of the networks from https://www.humancellatlas.org/biological-networks/</t>
+  </si>
+  <si>
+    <t>Schemas</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/file/2.5.0/image_file</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/file/7.0.0/analysis_file</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/9.2.0/collection_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/imaging/2.3.0/imaging_preparation_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/9.2.0/process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/biomaterial/10.9.0/specimen_from_organism</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/biomaterial/3.5.0/imaged_specimen</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/biomaterial/14.0.0/cell_suspension</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/imaging/11.4.0/imaging_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/sequencing/6.3.1/library_preparation_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/file/9.6.0/sequence_file</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/6.2.0/dissociation_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/sequencing/10.1.0/sequencing_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/analysis/10.3.0/analysis_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/1.0.0/treatment_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/3.2.0/ipsc_induction_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/3.1.0/enrichment_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/2.2.0/differentiation_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/2.1.0/aggregate_generation_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/biomaterial/5.1.0/biomaterial_collection_protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/protocol/7.1.0/protocol</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/project/19.0.1/project</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/sequencing/5.1.0/sequencing_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/sequencing/5.1.0/library_preparation_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/imaging/5.1.0/imaging_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/biomaterial_collection/5.1.0/enrichment_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/biomaterial_collection/5.1.0/dissociation_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/biomaterial_collection/5.1.0/collection_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/process/analysis/12.0.0/analysis_process</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/biomaterial/11.5.0/organoid</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/biomaterial/16.3.0/donor_organism</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/biomaterial/16.0.0/cell_line</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/module/project/1.0.2/hca_bionetwork</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/file/2.5.0/supplementary_file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5009,6 +5115,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5037,7 +5149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5069,6 +5181,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5376,7 +5489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13134,6 +13247,196 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C18686-9D1F-1749-B0F4-D3AC8CBFF263}">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CD17B4-D125-CD49-8C74-AEDDC3AD6C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13571FC8-BA83-6842-805F-C43C155E0471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="29560" windowWidth="21360" windowHeight="17600" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="1665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="1674">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -4958,12 +4958,6 @@
     <t>Schemas</t>
   </si>
   <si>
-    <t>https://schema.humancellatlas.org/type/file/2.5.0/image_file</t>
-  </si>
-  <si>
-    <t>https://schema.humancellatlas.org/type/file/7.0.0/analysis_file</t>
-  </si>
-  <si>
     <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/9.2.0/collection_protocol</t>
   </si>
   <si>
@@ -4988,9 +4982,6 @@
     <t>https://schema.humancellatlas.org/type/protocol/sequencing/6.3.1/library_preparation_protocol</t>
   </si>
   <si>
-    <t>https://schema.humancellatlas.org/type/file/9.6.0/sequence_file</t>
-  </si>
-  <si>
     <t>https://schema.humancellatlas.org/type/protocol/biomaterial_collection/6.2.0/dissociation_protocol</t>
   </si>
   <si>
@@ -5048,16 +5039,52 @@
     <t>https://schema.humancellatlas.org/type/biomaterial/11.5.0/organoid</t>
   </si>
   <si>
-    <t>https://schema.humancellatlas.org/type/biomaterial/16.3.0/donor_organism</t>
-  </si>
-  <si>
     <t>https://schema.humancellatlas.org/type/biomaterial/16.0.0/cell_line</t>
   </si>
   <si>
     <t>https://schema.humancellatlas.org/module/project/1.0.2/hca_bionetwork</t>
   </si>
   <si>
-    <t>https://schema.humancellatlas.org/type/file/2.5.0/supplementary_file</t>
+    <t>https://schema.humancellatlas.org/type/biomaterial/16.4.0/donor_organism</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/file/10.0.0/sequence_file</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/file/8.0.0/analysis_file</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/file/3.0.0/image_file</t>
+  </si>
+  <si>
+    <t>https://schema.humancellatlas.org/type/file/3.0.0/supplementary_file</t>
+  </si>
+  <si>
+    <t>COMORBIDITIES</t>
+  </si>
+  <si>
+    <t>COMORBIDITIES ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>COMORBIDITIES ONTOLOGY LABEL</t>
+  </si>
+  <si>
+    <t>donor_organism.comorbidities.text</t>
+  </si>
+  <si>
+    <t>donor_organism.comorbidities.ontology</t>
+  </si>
+  <si>
+    <t>donor_organism.comorbidities.ontology_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For example: MONDO:0004979; MONDO:0005148; HP:0000822</t>
+  </si>
+  <si>
+    <t>Primary disease should be described in Known disease(s) field. Leave empty if no comorbidities are known. For example: asthma; type 2 diabetes mellitus; Hypertension</t>
+  </si>
+  <si>
+    <t>For example: asthma; type 2 diabetes mellitus; Hypertension</t>
   </si>
 </sst>
 </file>
@@ -5489,7 +5516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7186,8 +7213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13251,9 +13278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C18686-9D1F-1749-B0F4-D3AC8CBFF263}">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -13264,117 +13289,117 @@
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
@@ -13384,52 +13409,52 @@
     </row>
     <row r="26" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>1641</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>1631</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>1632</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
   </sheetData>
@@ -13507,7 +13532,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BY5"/>
+  <dimension ref="A1:CB5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13530,28 +13555,30 @@
     <col min="27" max="28" width="0" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="25.6640625" customWidth="1"/>
     <col min="30" max="31" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="32" max="33" width="25.6640625" customWidth="1"/>
-    <col min="34" max="34" width="28.6640625" customWidth="1"/>
-    <col min="35" max="37" width="25.6640625" customWidth="1"/>
-    <col min="38" max="38" width="31.6640625" customWidth="1"/>
-    <col min="39" max="46" width="25.6640625" customWidth="1"/>
-    <col min="47" max="48" width="0" hidden="1" customWidth="1"/>
-    <col min="49" max="50" width="25.6640625" customWidth="1"/>
-    <col min="51" max="52" width="0" hidden="1" customWidth="1"/>
-    <col min="53" max="54" width="25.6640625" customWidth="1"/>
-    <col min="55" max="56" width="0" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="27.6640625" customWidth="1"/>
-    <col min="58" max="58" width="26.6640625" customWidth="1"/>
-    <col min="59" max="60" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="61" max="70" width="25.6640625" customWidth="1"/>
-    <col min="71" max="72" width="0" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="25.6640625" customWidth="1"/>
+    <col min="32" max="32" width="27.1640625" customWidth="1"/>
+    <col min="33" max="34" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="25.6640625" customWidth="1"/>
+    <col min="37" max="37" width="28.6640625" customWidth="1"/>
+    <col min="38" max="40" width="25.6640625" customWidth="1"/>
+    <col min="41" max="41" width="31.6640625" customWidth="1"/>
+    <col min="42" max="49" width="25.6640625" customWidth="1"/>
+    <col min="50" max="51" width="0" hidden="1" customWidth="1"/>
+    <col min="52" max="53" width="25.6640625" customWidth="1"/>
+    <col min="54" max="55" width="0" hidden="1" customWidth="1"/>
+    <col min="56" max="57" width="25.6640625" customWidth="1"/>
+    <col min="58" max="59" width="0" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="27.6640625" customWidth="1"/>
+    <col min="61" max="61" width="26.6640625" customWidth="1"/>
+    <col min="62" max="63" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="64" max="73" width="25.6640625" customWidth="1"/>
     <col min="74" max="75" width="0" hidden="1" customWidth="1"/>
     <col min="76" max="76" width="25.6640625" customWidth="1"/>
-    <col min="77" max="77" width="37.6640625" customWidth="1"/>
+    <col min="77" max="78" width="0" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="25.6640625" customWidth="1"/>
+    <col min="80" max="80" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:80" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -13646,145 +13673,154 @@
         <v>216</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:77" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:80" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -13879,130 +13915,130 @@
         <v>78</v>
       </c>
       <c r="AF2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BS2" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BT2" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BU2" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="BV2" s="2" t="s">
         <v>74</v>
@@ -14011,13 +14047,22 @@
         <v>78</v>
       </c>
       <c r="BX2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA2" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="CB2" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:77" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:80" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14106,139 +14151,148 @@
         <v>1480</v>
       </c>
       <c r="AF3" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2" t="s">
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BR3" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BS3" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="BQ3" s="2" t="s">
+      <c r="BT3" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="BR3" s="2" t="s">
+      <c r="BU3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BS3" s="2" t="s">
+      <c r="BV3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="BT3" s="2" t="s">
+      <c r="BW3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BU3" s="2" t="s">
+      <c r="BX3" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="BV3" s="2" t="s">
+      <c r="BY3" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="BW3" s="2" t="s">
+      <c r="BZ3" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="BX3" s="2" t="s">
+      <c r="CA3" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="BY3" s="2" t="s">
+      <c r="CB3" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -14333,145 +14387,154 @@
         <v>217</v>
       </c>
       <c r="AF4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AI4" t="s">
         <v>221</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
         <v>225</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AK4" t="s">
         <v>229</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AL4" t="s">
         <v>233</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" t="s">
         <v>237</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>241</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AO4" t="s">
         <v>245</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AP4" t="s">
         <v>249</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AQ4" t="s">
         <v>253</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AR4" t="s">
         <v>257</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AS4" t="s">
         <v>261</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AT4" t="s">
         <v>265</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AU4" t="s">
         <v>269</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AV4" t="s">
         <v>273</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AW4" t="s">
         <v>275</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AX4" t="s">
         <v>277</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AY4" t="s">
         <v>279</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AZ4" t="s">
         <v>283</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BA4" t="s">
         <v>287</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="BB4" t="s">
         <v>290</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BC4" t="s">
         <v>292</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BD4" t="s">
         <v>296</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BE4" t="s">
         <v>299</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BF4" t="s">
         <v>302</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BG4" t="s">
         <v>304</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BH4" t="s">
         <v>1555</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BI4" t="s">
         <v>1556</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
         <v>1557</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BK4" t="s">
         <v>1558</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BL4" t="s">
         <v>1580</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BM4" t="s">
         <v>316</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BN4" t="s">
         <v>319</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BO4" t="s">
         <v>322</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BP4" t="s">
         <v>326</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BQ4" t="s">
         <v>330</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BR4" t="s">
         <v>334</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BS4" t="s">
         <v>337</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BT4" t="s">
         <v>341</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BU4" t="s">
         <v>343</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BV4" t="s">
         <v>345</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BW4" t="s">
         <v>347</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BX4" t="s">
         <v>351</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BY4" t="s">
         <v>354</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="BZ4" t="s">
         <v>356</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="CA4" t="s">
         <v>360</v>
       </c>
-      <c r="BY4" t="s">
+      <c r="CB4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -14551,6 +14614,9 @@
       <c r="BW5" s="1"/>
       <c r="BX5" s="1"/>
       <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B695B0-F6E1-104A-93DA-B314686D88F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC7EF56-9586-BA4A-9A13-50ECEC29F1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80220" yWindow="-1100" windowWidth="21360" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="1663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="1684">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -5051,13 +5051,76 @@
   </si>
   <si>
     <t>For example: NCIT:C46110; NCIT:C205469; NCIT:C160941</t>
+  </si>
+  <si>
+    <t>DIGESTION TIME</t>
+  </si>
+  <si>
+    <t>DIGESTION TIME UNIT</t>
+  </si>
+  <si>
+    <t>DIGESTION TIME UNIT ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>DIGESTION TIME UNIT ONTOLOGY LABEL</t>
+  </si>
+  <si>
+    <t>DIGESTION TEMPERATURE</t>
+  </si>
+  <si>
+    <t>DIGESTION SOLUTION</t>
+  </si>
+  <si>
+    <t>Time of digestion of the specimen.</t>
+  </si>
+  <si>
+    <t>The unit in which the digestion time is expressed.</t>
+  </si>
+  <si>
+    <t>Temperature of digestion in Celsius or in general terms (i.e. cold, warm, room temperature).</t>
+  </si>
+  <si>
+    <t>Enzyme(s) or reagent(s) of the solution that was used for the digestion of the specimen.</t>
+  </si>
+  <si>
+    <t>For example: 2; 5; 10</t>
+  </si>
+  <si>
+    <t>For example: UO:0000010; UO:0000034</t>
+  </si>
+  <si>
+    <t>For example: second; week</t>
+  </si>
+  <si>
+    <t>Should be either numeric value or one of frozen, cold, room temperature, warm. For example: 4; 37; cold</t>
+  </si>
+  <si>
+    <t>Should be of: Citric-acid based, Detergent-based, Lysis buffer, Accutase, Collagenase, Collagenase A, Collagenase D, Collagenase I, Collagenase II, Collagenase IV, Dispase, Dispase II, DNAse I, Elastase, Hyaluronidase, Liberase, Papain, Protease, TrypLE, Trypsin</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.digestion_time</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.digestion_time_unit.text</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.digestion_time_unit.ontology</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.digestion_time_unit.ontology_label</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.digestion_temperature</t>
+  </si>
+  <si>
+    <t>dissociation_protocol.digestion_solution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5108,6 +5171,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5132,11 +5209,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5168,8 +5246,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2CF774A7-B89A-E141-989E-8D977C79E792}"/>
   </cellStyles>
@@ -5473,16 +5554,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" customWidth="1"/>
     <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.83203125" customWidth="1"/>
@@ -5735,6 +5816,9 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7172,9 +7256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9286,7 +9368,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9297,11 +9379,16 @@
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="4" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="15" width="25.6640625" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
+    <col min="12" max="13" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="21" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>576</v>
       </c>
@@ -9330,25 +9417,44 @@
         <v>891</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>869</v>
+        <v>1663</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="P1" s="1" t="str">
+        <f>UPPER("Purchased reagents - RETAIL NAME")</f>
+        <v>PURCHASED REAGENTS - RETAIL NAME</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>472</v>
       </c>
@@ -9377,25 +9483,43 @@
         <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>473</v>
       </c>
@@ -9420,25 +9544,43 @@
         <v>341</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>577</v>
       </c>
@@ -9467,25 +9609,43 @@
         <v>892</v>
       </c>
       <c r="J4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1681</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="P4" t="s">
         <v>893</v>
       </c>
-      <c r="K4" t="s">
+      <c r="Q4" t="s">
         <v>894</v>
       </c>
-      <c r="L4" t="s">
+      <c r="R4" t="s">
         <v>895</v>
       </c>
-      <c r="M4" t="s">
+      <c r="S4" t="s">
         <v>896</v>
       </c>
-      <c r="N4" t="s">
+      <c r="T4" t="s">
         <v>897</v>
       </c>
-      <c r="O4" t="s">
+      <c r="U4" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9503,6 +9663,12 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9976,14 +10142,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10154,6 +10325,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12311,7 +12488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D194D221-20CF-2E41-90C4-A993C89EE7F6}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13059,7 +13238,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13161,6 +13340,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13170,9 +13352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13305,10 +13485,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:CI5"/>
+  <dimension ref="A1:CI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:W1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14488,6 +14671,72 @@
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
     </row>
+    <row r="6" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+    </row>
+    <row r="12" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+    </row>
+    <row r="13" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+    </row>
+    <row r="15" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+    </row>
+    <row r="16" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14497,7 +14746,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BQ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC7EF56-9586-BA4A-9A13-50ECEC29F1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C9DB1-1D45-3A4E-94E8-9D6D0C5E3947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80220" yWindow="-1100" windowWidth="21360" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="77160" yWindow="180" windowWidth="21360" windowHeight="17600" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="1684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="1684">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -5556,7 +5556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9370,7 +9370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9434,9 +9436,8 @@
       <c r="O1" s="3" t="s">
         <v>1668</v>
       </c>
-      <c r="P1" s="1" t="str">
-        <f>UPPER("Purchased reagents - RETAIL NAME")</f>
-        <v>PURCHASED REAGENTS - RETAIL NAME</v>
+      <c r="P1" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>695</v>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C9DB1-1D45-3A4E-94E8-9D6D0C5E3947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F88F995-276A-6C4A-AA47-F15A89755C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77160" yWindow="180" windowWidth="21360" windowHeight="17600" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="1684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="1696">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -5114,6 +5114,42 @@
   </si>
   <si>
     <t>dissociation_protocol.digestion_solution</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.collection_institute.name</t>
+  </si>
+  <si>
+    <t>COLLECTION INSTITUTE LATITUDE</t>
+  </si>
+  <si>
+    <t>COLLECTION INSTITUTE LONGITUDE</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.collection_institute.longitude</t>
+  </si>
+  <si>
+    <t>specimen_from_organism.collection_institute.latitude</t>
+  </si>
+  <si>
+    <t>COLLECTION INSTITUTE NAME (Required)</t>
+  </si>
+  <si>
+    <t>Name of the institute where the biomaterial was collected on.</t>
+  </si>
+  <si>
+    <t>Latitute of the institute where the biomaterial was collected on, in decimal degrees.</t>
+  </si>
+  <si>
+    <t>Longitude of the institute where the biomaterial was collected on, in decimal degrees.</t>
+  </si>
+  <si>
+    <t>For example: institute_1; Addenbrooke's Hospital; University of California, San Francisco</t>
+  </si>
+  <si>
+    <t>For example: 52.1; -0.127541; 38.045956</t>
+  </si>
+  <si>
+    <t>For example: 0.1; -84.512016; 23.792138</t>
   </si>
 </sst>
 </file>
@@ -9370,7 +9406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -14745,13 +14781,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:BQ5"/>
+  <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1:BB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14782,18 +14818,18 @@
     <col min="48" max="48" width="33.6640625" customWidth="1"/>
     <col min="49" max="49" width="37.6640625" customWidth="1"/>
     <col min="50" max="50" width="32.6640625" customWidth="1"/>
-    <col min="51" max="51" width="26.6640625" customWidth="1"/>
-    <col min="52" max="52" width="34.6640625" customWidth="1"/>
-    <col min="53" max="53" width="33.6640625" customWidth="1"/>
-    <col min="54" max="62" width="25.6640625" customWidth="1"/>
-    <col min="63" max="64" width="0" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="25.6640625" customWidth="1"/>
+    <col min="51" max="54" width="26.6640625" customWidth="1"/>
+    <col min="55" max="55" width="34.6640625" customWidth="1"/>
+    <col min="56" max="56" width="33.6640625" customWidth="1"/>
+    <col min="57" max="65" width="25.6640625" customWidth="1"/>
     <col min="66" max="67" width="0" hidden="1" customWidth="1"/>
     <col min="68" max="68" width="25.6640625" customWidth="1"/>
-    <col min="69" max="69" width="37.6640625" customWidth="1"/>
+    <col min="69" max="70" width="0" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="25.6640625" customWidth="1"/>
+    <col min="72" max="72" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>356</v>
       </c>
@@ -14948,61 +14984,70 @@
         <v>466</v>
       </c>
       <c r="AZ1" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:69" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:72" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -15157,46 +15202,46 @@
         <v>467</v>
       </c>
       <c r="AZ2" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="BC2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="BN2" s="2" t="s">
         <v>74</v>
@@ -15205,13 +15250,22 @@
         <v>78</v>
       </c>
       <c r="BP2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS2" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BT2" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:69" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:72" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -15359,54 +15413,63 @@
       <c r="AY3" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="AZ3" s="2"/>
+      <c r="AZ3" s="2" t="s">
+        <v>1693</v>
+      </c>
       <c r="BA3" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2" t="s">
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BJ3" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BM3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BN3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BR3" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BS3" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="BQ3" s="2" t="s">
+      <c r="BT3" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>357</v>
       </c>
@@ -15561,61 +15624,70 @@
         <v>469</v>
       </c>
       <c r="AZ4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="BC4" t="s">
         <v>118</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BD4" t="s">
         <v>474</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BE4" t="s">
         <v>307</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BF4" t="s">
         <v>310</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BG4" t="s">
         <v>313</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BH4" t="s">
         <v>317</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BI4" t="s">
         <v>321</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
         <v>325</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BK4" t="s">
         <v>328</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BL4" t="s">
         <v>332</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BM4" t="s">
         <v>334</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BN4" t="s">
         <v>336</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BO4" t="s">
         <v>338</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BP4" t="s">
         <v>342</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BQ4" t="s">
         <v>345</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BR4" t="s">
         <v>347</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BS4" t="s">
         <v>351</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BT4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:72" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -15687,6 +15759,9 @@
       <c r="BO5" s="1"/>
       <c r="BP5" s="1"/>
       <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F88F995-276A-6C4A-AA47-F15A89755C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6C121B-3035-5445-99D7-FD2002A7966D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="21360" windowHeight="17600" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14920" yWindow="5860" windowWidth="21360" windowHeight="17600" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="1696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="1700">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -5150,6 +5150,18 @@
   </si>
   <si>
     <t>For example: 0.1; -84.512016; 23.792138</t>
+  </si>
+  <si>
+    <t>Institute where the biomaterial was processed.</t>
+  </si>
+  <si>
+    <t>For example: Wellcome Sanger Institute; University of Zurich; University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>cell_suspension.processing_institute</t>
+  </si>
+  <si>
+    <t>INSTITUTE</t>
   </si>
 </sst>
 </file>
@@ -14783,7 +14795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -15770,9 +15782,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BH5"/>
+  <dimension ref="A1:BI5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15791,19 +15805,19 @@
     <col min="36" max="36" width="27.6640625" customWidth="1"/>
     <col min="37" max="37" width="26.6640625" customWidth="1"/>
     <col min="38" max="39" width="8.83203125" customWidth="1"/>
-    <col min="40" max="40" width="25.6640625" customWidth="1"/>
-    <col min="41" max="41" width="42.6640625" customWidth="1"/>
-    <col min="42" max="42" width="35.6640625" customWidth="1"/>
-    <col min="43" max="44" width="33.6640625" customWidth="1"/>
-    <col min="45" max="53" width="25.6640625" customWidth="1"/>
-    <col min="54" max="55" width="0" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="25.6640625" customWidth="1"/>
-    <col min="57" max="58" width="0" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="25.6640625" customWidth="1"/>
-    <col min="60" max="60" width="37.6640625" customWidth="1"/>
+    <col min="40" max="41" width="25.6640625" customWidth="1"/>
+    <col min="42" max="42" width="42.6640625" customWidth="1"/>
+    <col min="43" max="43" width="35.6640625" customWidth="1"/>
+    <col min="44" max="45" width="33.6640625" customWidth="1"/>
+    <col min="46" max="54" width="25.6640625" customWidth="1"/>
+    <col min="55" max="56" width="0" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="25.6640625" customWidth="1"/>
+    <col min="58" max="59" width="0" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="25.6640625" customWidth="1"/>
+    <col min="61" max="61" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>475</v>
       </c>
@@ -15925,67 +15939,70 @@
         <v>302</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -16107,10 +16124,10 @@
         <v>303</v>
       </c>
       <c r="AO2" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>472</v>
@@ -16119,55 +16136,58 @@
         <v>472</v>
       </c>
       <c r="AS2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -16282,60 +16302,63 @@
       <c r="AN3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2" t="s">
-        <v>473</v>
-      </c>
+      <c r="AO3" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="AP3" s="2"/>
       <c r="AQ3" s="2" t="s">
         <v>473</v>
       </c>
       <c r="AR3" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="AS3" s="2"/>
+      <c r="AS3" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
-      <c r="AV3" s="2" t="s">
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>324</v>
       </c>
       <c r="AZ3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BA3" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BF3" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BH3" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BI3" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>476</v>
       </c>
@@ -16457,67 +16480,70 @@
         <v>1573</v>
       </c>
       <c r="AO4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="AP4" t="s">
         <v>357</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>577</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>579</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>1484</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>307</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>310</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>313</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>317</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>321</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>325</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>328</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>332</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>334</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>336</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>338</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>342</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>345</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>347</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>351</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -16580,6 +16606,7 @@
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/hca_template.xlsx
+++ b/template/hca_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenios/Documents/GitHub/geo_to_hca/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idazucchi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6C121B-3035-5445-99D7-FD2002A7966D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA8E89F-75CC-484E-9061-C57C26793222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14920" yWindow="5860" windowWidth="21360" windowHeight="17600" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="600" windowWidth="21360" windowHeight="17600" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="1770">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -5162,6 +5162,216 @@
   </si>
   <si>
     <t>INSTITUTE</t>
+  </si>
+  <si>
+    <t>ETHNICITY QUESTION</t>
+  </si>
+  <si>
+    <t>PARENTS ETHNICITY</t>
+  </si>
+  <si>
+    <t>PARENTS ETHNICITY ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>PARENTS ETHNICITY ONTOLOGY LABEL ONTOLOGY ID</t>
+  </si>
+  <si>
+    <t>DONOR PRIMARY LANGUAGE</t>
+  </si>
+  <si>
+    <t>LANGUAGE OF FAMILY</t>
+  </si>
+  <si>
+    <t>CURRENT RESIDENCE - COUNTRY</t>
+  </si>
+  <si>
+    <t>CURRENT RESIDENCE - REGION</t>
+  </si>
+  <si>
+    <t>CURRENT RESIDENCE - LOCALITY</t>
+  </si>
+  <si>
+    <t>CURRENT RESIDENCE - DURATION OF RESIDENCE</t>
+  </si>
+  <si>
+    <t>CURRENT RESIDENCE - AREA TYPE OF RESIDENCE</t>
+  </si>
+  <si>
+    <t>PLACE OF BIRTH - COUNTRY</t>
+  </si>
+  <si>
+    <t>PLACE OF BIRTH - REGION</t>
+  </si>
+  <si>
+    <t>PLACE OF BIRTH - LOCALITY</t>
+  </si>
+  <si>
+    <t>PLACE OF BIRTH - DURATION OF RESIDENCE</t>
+  </si>
+  <si>
+    <t>PLACE OF BIRTH - AREA TYPE OF RESIDENCE</t>
+  </si>
+  <si>
+    <t>MEAT CONSUMPTION</t>
+  </si>
+  <si>
+    <t>MENARCHE AGE</t>
+  </si>
+  <si>
+    <t>MENOPAUSE STATUS</t>
+  </si>
+  <si>
+    <t>FULL TERM PREGNANCY - PARITY</t>
+  </si>
+  <si>
+    <t>PREGNANCY - GRAVIDITY</t>
+  </si>
+  <si>
+    <t>Question and response options posed to donors for collecting metadata on donor self-reported ethnicity and / or tribe and / or dialect group and / or race etc.</t>
+  </si>
+  <si>
+    <t>Ethnicity(-ies) of the donor's parents.</t>
+  </si>
+  <si>
+    <t>Primary language(s), spoken by donor. Can include dialects (for example, Hokkien).</t>
+  </si>
+  <si>
+    <t>Ancestral language(s), spoken by parents (“mother tongue” and / or “father tongue”) and / or grandparents or any other person in the donor family. Can include dialects (for example, Hokkien).</t>
+  </si>
+  <si>
+    <t>Country or territory of donor's residence.</t>
+  </si>
+  <si>
+    <t>Region of donor's residence.</t>
+  </si>
+  <si>
+    <t>Nearest city, town, or village to location of donor's residence.</t>
+  </si>
+  <si>
+    <t>Duration of residence, in years, rounded up to the nearest whole number.</t>
+  </si>
+  <si>
+    <t>Urban, suburban, or rural descriptor of residence.</t>
+  </si>
+  <si>
+    <t>Dietary patterns of donor - meat (chicken, seafood, fish, pork, lamb, beef, etc.) consumption versus meat-free diet - at time of sample collection. Fill yes if donor consumes meat or no if donor does not consumes meat.</t>
+  </si>
+  <si>
+    <t>Age at menarche, rounded to nearest whole number.</t>
+  </si>
+  <si>
+    <t>Menopausal status of donor at time of sample collection.</t>
+  </si>
+  <si>
+    <t>Number of children (full-term pregnancies) the donor has given birth to at time of sample collection.</t>
+  </si>
+  <si>
+    <t>Number of pregnancies the donor has had at time of sample collection.</t>
+  </si>
+  <si>
+    <t>For example: What is your ethnicity?; Are you Hispanic/Latino?; Which categories describe you? Select all that apply. Note You may select more than one group. 1. American Indian or Alaska Native (for example, Aztec, Blackfeet Tribe, Mayan, Navajo Nation, Native Village of Barrow (Utqiagvik) Inupiat Traditional Government, Nome Eskimo Community, etc.), 2 - Asian (for example, Asian Indian, Chinese, Filipino, Japanese, Korean, Vietnamese, etc.), 3 - Black, African American, or African (for example, African American, Ethiopian, Haitian, Jamaican, Nigerian, Somali, etc.), 4 - Hispanic, Latino, or Spanish (for example, Columbian, Cuban, Dominican, Mexican or Mexican American, Puerto Rican, Salvadoran, etc.), 5 - Middle Eastern or North African (for example, Algerian, Egyptian, Iranian, Lebanese, Moroccan, Syrian, etc.), 6 - Native Hawaiian or other Pacific Islander (for example, Chamorro, Fijian, Marshallese, Native Hawaiian, Tongan, etc.), 7 - White (for example, English, European, French, German, Irish, Italian, Polish, etc.), 8 - None of these fully describe me (optional free text answer), 9 - Prefer not to answer</t>
+  </si>
+  <si>
+    <t>For example: HANCESTRO:0005; HANCESTRO:0014</t>
+  </si>
+  <si>
+    <t>For example: European; Hispanic or Latin American</t>
+  </si>
+  <si>
+    <t>For example: Mandarin Chinese; Hokkien; Bahasa Melayu</t>
+  </si>
+  <si>
+    <t>Should be one of: Afghanistan; Albania; Algeria; American Samoa; Andorra; Angola; Anguilla; Antarctica; Antigua and Barbuda; Argentina; Armenia; Aruba; Ashmore and Cartier Islands; Australia; Austria; Azerbaijan; Bahamas; Bahrain; Baker Island; Bangladesh; Barbados; Bassas da India; Belarus; Belgium; Belize; Benin; Bermuda; Bhutan; Bolivia; Borneo; Bosnia and Herzegovina; Botswana; Bouvet Island; Brazil; British Virgin Islands; Brunei; Bulgaria; Burkina Faso; Burundi; Cambodia; Cameroon; Canada; Cape Verde; Cayman Islands; Central African Republic; Chad; Chile; China; Christmas Island; Clipperton Island; Cocos Islands; Colombia; Comoros; Cook Islands; Coral Sea Islands; Costa Rica; Cote d'Ivoire; Croatia; Cuba; Curacao; Cyprus; Czechia; Democratic Republic of the Congo; Denmark; Djibouti; Dominica; Dominican Republic; Ecuador; Egypt; El Salvador; Equatorial Guinea; Eritrea; Estonia; Eswatini; Ethiopia; Europa Island; Falkland Islands (Islas Malvinas); Faroe Islands; Fiji; Finland; France; French Guiana; French Polynesia; French Southern and Antarctic Lands; Gabon; Gambia; Gaza Strip; Georgia; Germany; Ghana; Gibraltar; Glorioso Islands; Greece; Greenland; Grenada; Guadeloupe; Guam; Guatemala; Guernsey; Guinea; Guinea-Bissau; Guyana; Haiti; Heard Island and McDonald Islands; Honduras; Hong Kong; Howland Island; Hungary; Iceland; India; Indonesia; Iran; Iraq; Ireland; Isle of Man; Israel; Italy; Jamaica; Jan Mayen; Japan; Jarvis Island; Jersey; Johnston Atoll; Jordan; Juan de Nova Island; Kazakhstan; Kenya; Kerguelen Archipelago; Kingman Reef; Kiribati; Kosovo; Kuwait; Kyrgyzstan; Laos; Latvia; Lebanon; Lesotho; Liberia; Libya; Liechtenstein; Line Islands; Lithuania; Luxembourg; Macau; Madagascar; Malawi; Malaysia; Maldives; Mali; Malta; Marshall Islands; Martinique; Mauritania; Mauritius; Mayotte; Mexico; Micronesia; Federated States of; Midway Islands; Moldova; Monaco; Mongolia; Montenegro; Montserrat; Morocco; Mozambique; Myanmar; Namibia; Nauru; Navassa Island; Nepal; Netherlands; New Caledonia; New Zealand; Nicaragua; Niger; Nigeria; Niue; Norfolk Island; North Korea; North Macedonia; Northern Mariana Islands; Norway; Oman; Pakistan; Palau; Palmyra Atoll; Panama; Papua New Guinea; Paracel Islands; Paraguay; Peru; Philippines; Pitcairn Islands; Poland; Portugal; Puerto Rico; Qatar; Republic of the Congo; Reunion; Romania; Russia; Rwanda; Saint Barthelemy; Saint Helena; Saint Kitts and Nevis; Saint Lucia; Saint Martin; Saint Pierre and Miquelon; Saint Vincent and the Grenadines; Samoa; San Marino; Sao Tome and Principe; Saudi Arabia; Senegal; Serbia; Seychelles; Sierra Leone; Singapore; Sint Maarten; Slovakia; Slovenia; Solomon Islands; Somalia; South Africa; South Georgia and the South Sandwich Islands; South Korea; South Sudan; Spain; Spratly Islands; Sri Lanka; State of Palestine; Sudan; Suriname; Svalbard; Sweden; Switzerland; Syria; Taiwan; Tajikistan; Tanzania; Thailand; Timor-Leste; Togo; Tokelau; Tonga; Trinidad and Tobago; Tromelin Island; Tunisia; Turkey; Turkmenistan; Turks and Caicos Islands; Tuvalu; Uganda; Ukraine; United Arab Emirates; United Kingdom; Uruguay; USA; Uzbekistan; Vanuatu; Venezuela; Viet Nam; Virgin Islands; Wake Island; Wallis and Futuna; West Bank; Western Sahara; Yemen; Zambia; Zimbabwe</t>
+  </si>
+  <si>
+    <t>For example: Massachusetts; Catalonia; Ondo; Ontario</t>
+  </si>
+  <si>
+    <t>For example: Singapore; Cambridge; Boston; Kingston</t>
+  </si>
+  <si>
+    <t>For example: 20; 37; 45-65</t>
+  </si>
+  <si>
+    <t>Should be one of: urban; suburban; rural</t>
+  </si>
+  <si>
+    <t>Should be one of: yes; no.</t>
+  </si>
+  <si>
+    <t>For example: 13; 12; 16</t>
+  </si>
+  <si>
+    <t>Should be one of: pre-menopausal; peri-menopausal; post-menopausal; post-menopausal (induced)</t>
+  </si>
+  <si>
+    <t>For example: 0; 2; 3</t>
+  </si>
+  <si>
+    <t>For example: 2; 3; 5</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.ethnicity_question</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.ethnicity_of_parents.text</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.ethnicity_of_parents.ontology</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.ethnicity_of_parents.ontology_label</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.primary_language</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.language_of_family</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.current_residence.country_territory</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.current_residence.region</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.current_residence.locality</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.current_residence.duration</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.current_residence.area_type</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.place_of_birth.country_territory</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.place_of_birth.region</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.place_of_birth.locality</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.place_of_birth.duration</t>
+  </si>
+  <si>
+    <t>donor_organism.human_specific.place_of_birth.area_type</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.diet_meat_consumption</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.reproductive_history.menarche_age</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.reproductive_history.menopause_status</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.reproductive_history.parity</t>
+  </si>
+  <si>
+    <t>donor_organism.medical_history.reproductive_history.gravidity</t>
   </si>
 </sst>
 </file>
@@ -13534,13 +13744,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:CI27"/>
+  <dimension ref="A1:CN27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="CG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="BZ5" sqref="BZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13581,15 +13791,21 @@
     <col min="67" max="67" width="27.6640625" customWidth="1"/>
     <col min="68" max="68" width="26.6640625" customWidth="1"/>
     <col min="69" max="70" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="71" max="80" width="25.6640625" customWidth="1"/>
-    <col min="81" max="82" width="0" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="25.6640625" customWidth="1"/>
-    <col min="84" max="85" width="0" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="25.6640625" customWidth="1"/>
-    <col min="87" max="87" width="37.6640625" customWidth="1"/>
+    <col min="71" max="71" width="25.6640625" customWidth="1"/>
+    <col min="72" max="72" width="20.33203125" customWidth="1"/>
+    <col min="73" max="73" width="25.6640625" customWidth="1"/>
+    <col min="74" max="74" width="18.1640625" customWidth="1"/>
+    <col min="75" max="76" width="0" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="22.33203125" customWidth="1"/>
+    <col min="78" max="79" width="20.1640625" customWidth="1"/>
+    <col min="80" max="82" width="25.6640625" customWidth="1"/>
+    <col min="83" max="84" width="20.1640625" customWidth="1"/>
+    <col min="85" max="90" width="25.6640625" customWidth="1"/>
+    <col min="91" max="91" width="20.33203125" customWidth="1"/>
+    <col min="92" max="92" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:92" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -13804,55 +14020,70 @@
         <v>302</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>305</v>
+        <v>1700</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>308</v>
+        <v>1701</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>311</v>
+        <v>1702</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>314</v>
+        <v>1703</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>318</v>
+        <v>1704</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>322</v>
+        <v>1705</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>326</v>
+        <v>1706</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>329</v>
+        <v>1707</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>333</v>
+        <v>1708</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>335</v>
+        <v>1709</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>337</v>
+        <v>1710</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>339</v>
+        <v>1711</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>343</v>
+        <v>1712</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>346</v>
+        <v>1713</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>348</v>
+        <v>1714</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:87" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1715</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="2" spans="1:92" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -14067,55 +14298,70 @@
         <v>303</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>306</v>
+        <v>1721</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>309</v>
+        <v>1722</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>319</v>
+        <v>1723</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>323</v>
+        <v>1724</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>327</v>
+        <v>1725</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>330</v>
+        <v>1726</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>193</v>
+        <v>1727</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>74</v>
+        <v>1728</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>78</v>
+        <v>1729</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>340</v>
+        <v>1725</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>74</v>
+        <v>1726</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>78</v>
+        <v>1727</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>349</v>
+        <v>1728</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="3" spans="1:87" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1729</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:92" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14323,50 +14569,71 @@
       <c r="BS3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="BT3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
+      <c r="BT3" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="BU3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BV3" s="2" t="s">
+        <v>1736</v>
+      </c>
       <c r="BW3" s="2" t="s">
-        <v>316</v>
+        <v>1737</v>
       </c>
       <c r="BX3" s="2" t="s">
-        <v>320</v>
+        <v>1738</v>
       </c>
       <c r="BY3" s="2" t="s">
-        <v>324</v>
+        <v>1738</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>324</v>
+        <v>1739</v>
       </c>
       <c r="CA3" s="2" t="s">
-        <v>331</v>
+        <v>1740</v>
       </c>
       <c r="CB3" s="2" t="s">
-        <v>194</v>
+        <v>1741</v>
       </c>
       <c r="CC3" s="2" t="s">
-        <v>197</v>
+        <v>1742</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>194</v>
+        <v>1743</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>341</v>
+        <v>1739</v>
       </c>
       <c r="CF3" s="2" t="s">
-        <v>344</v>
+        <v>1740</v>
       </c>
       <c r="CG3" s="2" t="s">
-        <v>341</v>
+        <v>1741</v>
       </c>
       <c r="CH3" s="2" t="s">
-        <v>350</v>
+        <v>1742</v>
       </c>
       <c r="CI3" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:87" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1743</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="CM3" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="CN3" s="2" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:92" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -14581,55 +14848,70 @@
         <v>1571</v>
       </c>
       <c r="BT4" t="s">
-        <v>307</v>
+        <v>1749</v>
       </c>
       <c r="BU4" t="s">
-        <v>310</v>
+        <v>1750</v>
       </c>
       <c r="BV4" t="s">
-        <v>313</v>
+        <v>1751</v>
       </c>
       <c r="BW4" t="s">
-        <v>317</v>
+        <v>1752</v>
       </c>
       <c r="BX4" t="s">
-        <v>321</v>
+        <v>1753</v>
       </c>
       <c r="BY4" t="s">
-        <v>325</v>
+        <v>1754</v>
       </c>
       <c r="BZ4" t="s">
-        <v>328</v>
+        <v>1755</v>
       </c>
       <c r="CA4" t="s">
-        <v>332</v>
+        <v>1756</v>
       </c>
       <c r="CB4" t="s">
-        <v>334</v>
+        <v>1757</v>
       </c>
       <c r="CC4" t="s">
-        <v>336</v>
+        <v>1758</v>
       </c>
       <c r="CD4" t="s">
-        <v>338</v>
+        <v>1759</v>
       </c>
       <c r="CE4" t="s">
-        <v>342</v>
+        <v>1760</v>
       </c>
       <c r="CF4" t="s">
-        <v>345</v>
+        <v>1761</v>
       </c>
       <c r="CG4" t="s">
-        <v>347</v>
+        <v>1762</v>
       </c>
       <c r="CH4" t="s">
-        <v>351</v>
+        <v>1763</v>
       </c>
       <c r="CI4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1764</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>1765</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>1768</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:92" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -14719,38 +15001,43 @@
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
-    </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+    </row>
+    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -14796,10 +15083,10 @@
   <dimension ref="A1:BT5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ1" sqref="AZ1:BB1048576"/>
+      <selection pane="bottomRight" activeCell="AY20" sqref="AY20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15784,8 +16071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15804,7 +16091,7 @@
     <col min="32" max="35" width="25.6640625" customWidth="1"/>
     <col min="36" max="36" width="27.6640625" customWidth="1"/>
     <col min="37" max="37" width="26.6640625" customWidth="1"/>
-    <col min="38" max="39" width="8.83203125" customWidth="1"/>
+    <col min="38" max="39" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="40" max="41" width="25.6640625" customWidth="1"/>
     <col min="42" max="42" width="42.6640625" customWidth="1"/>
     <col min="43" max="43" width="35.6640625" customWidth="1"/>
@@ -16358,7 +16645,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>476</v>
       </c>
